--- a/doc/realmGrinder.xlsx
+++ b/doc/realmGrinder.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Upgrades" sheetId="1" r:id="rId1"/>
     <sheet name="Artifacts" sheetId="2" r:id="rId2"/>
     <sheet name="Trophies" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Research" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Upgrades!$A$3:$BQ$69</definedName>
@@ -2081,7 +2081,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2118,6 +2118,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2131,7 +2137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="45"/>
@@ -2159,6 +2165,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3717,8 +3724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4005,6 +4012,25 @@
       </c>
       <c r="C21" t="s">
         <v>280</v>
+      </c>
+      <c r="D21">
+        <v>750</v>
+      </c>
+      <c r="E21">
+        <f>D21/40000*0.01</f>
+        <v>1.875E-4</v>
+      </c>
+      <c r="F21">
+        <f>1-(1-E21)^10</f>
+        <v>1.8734187595059737E-3</v>
+      </c>
+      <c r="G21">
+        <f>1-(1-E21)^100</f>
+        <v>1.8577037626963944E-2</v>
+      </c>
+      <c r="H21">
+        <f>1-(1-E21)^1000</f>
+        <v>0.17098545629079365</v>
       </c>
       <c r="K21" t="s">
         <v>314</v>
@@ -5302,7 +5328,7 @@
   <dimension ref="B2:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5455,14 +5481,14 @@
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="15" t="s">
         <v>437</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="15" t="s">
         <v>438</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="15"/>
+      <c r="E8" s="15" t="s">
         <v>439</v>
       </c>
       <c r="G8" s="12" t="s">
@@ -5479,14 +5505,14 @@
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="15" t="s">
         <v>440</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="15" t="s">
         <v>442</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="15"/>
+      <c r="E9" s="15" t="s">
         <v>441</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -5501,36 +5527,36 @@
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="15" t="s">
         <v>443</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="15" t="s">
         <v>444</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="15"/>
+      <c r="E10" s="15" t="s">
         <v>445</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="15" t="s">
         <v>589</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="15" t="s">
         <v>590</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4" t="s">
+      <c r="I10" s="15"/>
+      <c r="J10" s="15" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="15" t="s">
         <v>446</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="15"/>
+      <c r="E11" s="15" t="s">
         <v>448</v>
       </c>
       <c r="G11" s="4" t="s">
@@ -5613,16 +5639,16 @@
       <c r="E15" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="12" t="s">
         <v>600</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="12" t="s">
         <v>601</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="12" t="s">
         <v>528</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="12" t="s">
         <v>602</v>
       </c>
       <c r="M15" t="s">
@@ -5669,16 +5695,16 @@
       <c r="E17" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="12" t="s">
         <v>606</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="12" t="s">
         <v>607</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="12" t="s">
         <v>531</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="12" t="s">
         <v>608</v>
       </c>
       <c r="M17" t="s">
@@ -5827,14 +5853,14 @@
       <c r="E23" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="15" t="s">
         <v>625</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="15" t="s">
         <v>626</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4" t="s">
+      <c r="I23" s="15"/>
+      <c r="J23" s="15" t="s">
         <v>627</v>
       </c>
       <c r="M23" t="s">
@@ -5854,14 +5880,14 @@
       <c r="E24" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="15" t="s">
         <v>628</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="15" t="s">
         <v>629</v>
       </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4" t="s">
+      <c r="I24" s="15"/>
+      <c r="J24" s="15" t="s">
         <v>630</v>
       </c>
       <c r="M24" t="s">
@@ -5969,16 +5995,16 @@
       <c r="E29" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="12" t="s">
         <v>639</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="12" t="s">
         <v>640</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="12" t="s">
         <v>642</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="12" t="s">
         <v>641</v>
       </c>
       <c r="M29" t="s">
@@ -6161,38 +6187,38 @@
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="15" t="s">
         <v>557</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="15" t="s">
         <v>558</v>
       </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4" t="s">
+      <c r="D39" s="15"/>
+      <c r="E39" s="15" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="15" t="s">
         <v>560</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="15" t="s">
         <v>561</v>
       </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4" t="s">
+      <c r="D40" s="15"/>
+      <c r="E40" s="15" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="15" t="s">
         <v>563</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="15" t="s">
         <v>564</v>
       </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4" t="s">
+      <c r="D41" s="15"/>
+      <c r="E41" s="15" t="s">
         <v>565</v>
       </c>
     </row>
@@ -6261,40 +6287,40 @@
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="12" t="s">
         <v>540</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="12" t="s">
         <v>422</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="12" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="15" t="s">
         <v>542</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="15" t="s">
         <v>543</v>
       </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4" t="s">
+      <c r="D49" s="15"/>
+      <c r="E49" s="15" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="15" t="s">
         <v>545</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="15" t="s">
         <v>546</v>
       </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4" t="s">
+      <c r="D50" s="15"/>
+      <c r="E50" s="15" t="s">
         <v>547</v>
       </c>
     </row>

--- a/doc/realmGrinder.xlsx
+++ b/doc/realmGrinder.xlsx
@@ -5328,7 +5328,7 @@
   <dimension ref="B2:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5666,16 +5666,16 @@
       <c r="E16" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="12" t="s">
         <v>604</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="12" t="s">
         <v>605</v>
       </c>
       <c r="M16" t="s">

--- a/doc/realmGrinder.xlsx
+++ b/doc/realmGrinder.xlsx
@@ -5328,7 +5328,7 @@
   <dimension ref="B2:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5481,14 +5481,14 @@
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="12" t="s">
         <v>437</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15" t="s">
+      <c r="D8" s="12"/>
+      <c r="E8" s="12" t="s">
         <v>439</v>
       </c>
       <c r="G8" s="12" t="s">
@@ -5828,14 +5828,14 @@
       <c r="E22" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="12" t="s">
         <v>622</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="12" t="s">
         <v>623</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4" t="s">
+      <c r="I22" s="12"/>
+      <c r="J22" s="12" t="s">
         <v>624</v>
       </c>
       <c r="M22" t="s">
@@ -6062,14 +6062,14 @@
       <c r="E32" s="12" t="s">
         <v>508</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="12" t="s">
         <v>649</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="12" t="s">
         <v>650</v>
       </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4" t="s">
+      <c r="I32" s="12"/>
+      <c r="J32" s="12" t="s">
         <v>651</v>
       </c>
       <c r="M32" t="s">
@@ -6187,14 +6187,14 @@
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="12" t="s">
         <v>557</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="12" t="s">
         <v>558</v>
       </c>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15" t="s">
+      <c r="D39" s="12"/>
+      <c r="E39" s="12" t="s">
         <v>559</v>
       </c>
     </row>
@@ -6301,14 +6301,14 @@
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="12" t="s">
         <v>542</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="12" t="s">
         <v>543</v>
       </c>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15" t="s">
+      <c r="D49" s="12"/>
+      <c r="E49" s="12" t="s">
         <v>544</v>
       </c>
     </row>

--- a/doc/realmGrinder.xlsx
+++ b/doc/realmGrinder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Upgrades" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="669">
   <si>
     <t>Pixie Dust Fertilizer</t>
   </si>
@@ -913,9 +913,6 @@
     <t>Not allied</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>/10</t>
   </si>
   <si>
@@ -934,48 +931,6 @@
     <t># Ex / 10000 %</t>
   </si>
   <si>
-    <t>SF</t>
-  </si>
-  <si>
-    <t>QF</t>
-  </si>
-  <si>
-    <t>AB</t>
-  </si>
-  <si>
-    <t>AD</t>
-  </si>
-  <si>
-    <t>AE</t>
-  </si>
-  <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t>BD</t>
-  </si>
-  <si>
-    <t>BE</t>
-  </si>
-  <si>
-    <t>CD</t>
-  </si>
-  <si>
-    <t>CE</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>AC</t>
-  </si>
-  <si>
-    <t>R16</t>
-  </si>
-  <si>
-    <t>R32</t>
-  </si>
-  <si>
     <t>Duskstone</t>
   </si>
   <si>
@@ -2066,6 +2021,12 @@
   </si>
   <si>
     <t>PRM</t>
+  </si>
+  <si>
+    <t>/1</t>
+  </si>
+  <si>
+    <t>1 Lineage Level Purchased</t>
   </si>
 </sst>
 </file>
@@ -3722,10 +3683,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3735,18 +3696,21 @@
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E1" s="13" t="s">
+        <v>667</v>
+      </c>
       <c r="F1" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3754,7 +3718,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3762,7 +3726,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3770,7 +3734,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3778,7 +3742,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3786,7 +3750,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3794,7 +3758,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3805,7 +3769,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3816,7 +3780,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3827,7 +3791,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3838,7 +3802,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3849,7 +3813,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3860,82 +3824,23 @@
         <v>241</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K14" t="s">
-        <v>317</v>
-      </c>
-      <c r="L14" t="s">
-        <v>316</v>
-      </c>
-      <c r="M14" t="s">
-        <v>305</v>
-      </c>
-      <c r="N14" t="s">
-        <v>304</v>
-      </c>
-      <c r="O14" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="J15">
-        <v>48</v>
-      </c>
-      <c r="K15">
-        <f t="shared" ref="K15" si="0">L15*2</f>
-        <v>16</v>
-      </c>
-      <c r="L15">
-        <f t="shared" ref="L15:M15" si="1">M15*2</f>
-        <v>8</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="N15">
-        <f>O15*2</f>
-        <v>2</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="K16">
-        <f t="shared" ref="K16:M16" si="2">K15*2</f>
-        <v>32</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="N16">
-        <f>N15*2</f>
-        <v>4</v>
-      </c>
-      <c r="O16">
-        <f>O15*2</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -3943,100 +3848,42 @@
         <v>244</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="K18" t="s">
-        <v>306</v>
-      </c>
-      <c r="L18" t="s">
-        <v>315</v>
-      </c>
-      <c r="M18" t="s">
-        <v>307</v>
-      </c>
-      <c r="N18" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="K19" t="s">
-        <v>309</v>
-      </c>
-      <c r="L19" t="s">
-        <v>310</v>
-      </c>
-      <c r="M19" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="K20" t="s">
-        <v>312</v>
-      </c>
-      <c r="L20" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>7</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="12" t="s">
         <v>248</v>
       </c>
       <c r="C21" t="s">
         <v>280</v>
       </c>
-      <c r="D21">
-        <v>750</v>
-      </c>
-      <c r="E21">
-        <f>D21/40000*0.01</f>
-        <v>1.875E-4</v>
-      </c>
-      <c r="F21">
-        <f>1-(1-E21)^10</f>
-        <v>1.8734187595059737E-3</v>
-      </c>
-      <c r="G21">
-        <f>1-(1-E21)^100</f>
-        <v>1.8577037626963944E-2</v>
-      </c>
-      <c r="H21">
-        <f>1-(1-E21)^1000</f>
-        <v>0.17098545629079365</v>
-      </c>
-      <c r="K21" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>8</v>
       </c>
@@ -4044,7 +3891,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>9</v>
       </c>
@@ -4052,7 +3899,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10</v>
       </c>
@@ -4063,7 +3910,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>11</v>
       </c>
@@ -4074,7 +3921,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>12</v>
       </c>
@@ -4082,37 +3929,18 @@
         <v>253</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>13</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="12" t="s">
         <v>254</v>
       </c>
       <c r="C27" t="s">
         <v>283</v>
       </c>
-      <c r="D27">
-        <v>1157</v>
-      </c>
-      <c r="E27">
-        <f>D27/30000*0.01</f>
-        <v>3.8566666666666664E-4</v>
-      </c>
-      <c r="F27">
-        <f>1-(1-E27)^10</f>
-        <v>3.8499803006531996E-3</v>
-      </c>
-      <c r="G27">
-        <f>1-(1-E27)^100</f>
-        <v>3.7839599297270876E-2</v>
-      </c>
-      <c r="H27">
-        <f>1-(1-E27)^1000</f>
-        <v>0.32005342847269891</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>14</v>
       </c>
@@ -4120,7 +3948,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>15</v>
       </c>
@@ -4128,7 +3956,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>16</v>
       </c>
@@ -4139,7 +3967,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>17</v>
       </c>
@@ -4150,7 +3978,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>18</v>
       </c>
@@ -4190,12 +4018,31 @@
       <c r="C35" t="s">
         <v>288</v>
       </c>
+      <c r="D35">
+        <v>250</v>
+      </c>
+      <c r="E35">
+        <f>D35/30000</f>
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="F35">
+        <f>1-(1-E35)^10</f>
+        <v>8.0276775103616083E-2</v>
+      </c>
+      <c r="G35">
+        <f>1-(1-E35)^100</f>
+        <v>0.56691660312898984</v>
+      </c>
+      <c r="H35">
+        <f>1-(1-E35)^1000</f>
+        <v>0.99976787851254123</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>22</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="12" t="s">
         <v>263</v>
       </c>
       <c r="C36" t="s">
@@ -4231,25 +4078,6 @@
       <c r="C39" t="s">
         <v>291</v>
       </c>
-      <c r="D39">
-        <v>3300</v>
-      </c>
-      <c r="E39">
-        <f>D39/25000*0.01</f>
-        <v>1.32E-3</v>
-      </c>
-      <c r="F39">
-        <f>1-(1-E39)^10</f>
-        <v>1.3121867359617845E-2</v>
-      </c>
-      <c r="G39">
-        <f>1-(1-E39)^100</f>
-        <v>0.12373541566847868</v>
-      </c>
-      <c r="H39">
-        <f>1-(1-E39)^1000</f>
-        <v>0.733097529787472</v>
-      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -4300,7 +4128,7 @@
         <v>271</v>
       </c>
       <c r="C44" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -4311,7 +4139,7 @@
         <v>272</v>
       </c>
       <c r="C45" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -4322,7 +4150,7 @@
         <v>273</v>
       </c>
       <c r="C46" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -4333,7 +4161,7 @@
         <v>274</v>
       </c>
       <c r="C47" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -4355,7 +4183,7 @@
         <v>276</v>
       </c>
       <c r="C49" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -4377,7 +4205,7 @@
         <v>278</v>
       </c>
       <c r="C51" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -4385,10 +4213,10 @@
         <v>38</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="C52" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -4397,6 +4225,9 @@
       </c>
       <c r="B53" t="s">
         <v>279</v>
+      </c>
+      <c r="C53" t="s">
+        <v>668</v>
       </c>
     </row>
   </sheetData>
@@ -4408,8 +4239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="R53" sqref="R53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4424,7 +4255,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -4449,7 +4280,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -4474,7 +4305,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -4499,7 +4330,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -4524,7 +4355,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -4549,7 +4380,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -4574,7 +4405,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -4599,7 +4430,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -4624,7 +4455,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -4649,7 +4480,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -4674,7 +4505,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -4699,7 +4530,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -4724,7 +4555,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -4749,7 +4580,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -4774,7 +4605,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -4799,10 +4630,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
@@ -4826,7 +4657,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -4851,7 +4682,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -4859,7 +4690,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -4867,7 +4698,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -4875,7 +4706,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -4883,7 +4714,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -4891,7 +4722,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
@@ -4899,7 +4730,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
@@ -4907,7 +4738,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -4915,10 +4746,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="C27" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -4926,7 +4757,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
@@ -4934,10 +4765,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="C29" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -4945,10 +4776,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="C30" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -4956,10 +4787,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="C31" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -4967,10 +4798,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="C32" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -4978,10 +4809,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="C33" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -4989,10 +4820,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="C34" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -5000,10 +4831,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="C35" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -5011,10 +4842,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="C36" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -5022,10 +4853,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="C37" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -5033,10 +4864,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="C38" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -5044,10 +4875,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="C39" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -5055,10 +4886,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="C40" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -5066,10 +4897,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="C41" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -5077,10 +4908,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="C42" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -5088,10 +4919,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="C43" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -5099,10 +4930,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="C44" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -5110,10 +4941,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="C45" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -5121,7 +4952,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -5129,7 +4960,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -5137,7 +4968,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -5145,7 +4976,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -5153,7 +4984,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -5161,10 +4992,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="C51" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -5172,10 +5003,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="C52" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -5183,10 +5014,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="C53" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -5194,10 +5025,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="C54" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -5205,10 +5036,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="C55" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -5216,10 +5047,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="C56" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -5227,10 +5058,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="C57" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -5238,7 +5069,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -5246,10 +5077,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="C59" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -5257,10 +5088,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="C60" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -5268,10 +5099,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="C61" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -5279,10 +5110,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="C62" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -5290,10 +5121,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="C63" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -5301,10 +5132,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="C64" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -5312,10 +5143,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="C65" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -5327,7 +5158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
@@ -5342,998 +5173,998 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
-        <v>661</v>
+        <v>646</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="E2" s="12"/>
       <c r="G2" s="12" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="12" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="15" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="M15" t="s">
-        <v>681</v>
+        <v>666</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="M16" t="s">
-        <v>662</v>
+        <v>647</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="M17" t="s">
-        <v>663</v>
+        <v>648</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="I18" s="12"/>
       <c r="J18" s="12" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="M18" t="s">
-        <v>664</v>
+        <v>649</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>613</v>
+        <v>598</v>
       </c>
       <c r="I19" s="12"/>
       <c r="J19" s="12" t="s">
-        <v>614</v>
+        <v>599</v>
       </c>
       <c r="M19" t="s">
-        <v>665</v>
+        <v>650</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>615</v>
+        <v>600</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>616</v>
+        <v>601</v>
       </c>
       <c r="I20" s="12"/>
       <c r="J20" s="12" t="s">
-        <v>617</v>
+        <v>602</v>
       </c>
       <c r="M20" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>619</v>
+        <v>604</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>621</v>
+        <v>606</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>620</v>
+        <v>605</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>667</v>
+        <v>652</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>622</v>
+        <v>607</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>623</v>
+        <v>608</v>
       </c>
       <c r="I22" s="12"/>
       <c r="J22" s="12" t="s">
-        <v>624</v>
+        <v>609</v>
       </c>
       <c r="M22" t="s">
-        <v>668</v>
+        <v>653</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>625</v>
+        <v>610</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>626</v>
+        <v>611</v>
       </c>
       <c r="I23" s="15"/>
       <c r="J23" s="15" t="s">
-        <v>627</v>
+        <v>612</v>
       </c>
       <c r="M23" t="s">
-        <v>669</v>
+        <v>654</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>628</v>
+        <v>613</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="I24" s="15"/>
       <c r="J24" s="15" t="s">
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="M24" t="s">
-        <v>670</v>
+        <v>655</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="M25" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>632</v>
+        <v>617</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>631</v>
+        <v>616</v>
       </c>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
       <c r="M26" t="s">
-        <v>672</v>
+        <v>657</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
       <c r="I27" s="12"/>
       <c r="J27" s="12" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="M27" t="s">
-        <v>673</v>
+        <v>658</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>639</v>
+        <v>624</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>641</v>
+        <v>626</v>
       </c>
       <c r="M29" t="s">
-        <v>675</v>
+        <v>660</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G30" s="12" t="s">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="I30" s="12"/>
       <c r="J30" s="12" t="s">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="M30" t="s">
-        <v>676</v>
+        <v>661</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
       <c r="G31" s="12" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>647</v>
+        <v>632</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>648</v>
+        <v>633</v>
       </c>
       <c r="M31" s="12" t="s">
-        <v>677</v>
+        <v>662</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="12" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>649</v>
+        <v>634</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>650</v>
+        <v>635</v>
       </c>
       <c r="I32" s="12"/>
       <c r="J32" s="12" t="s">
-        <v>651</v>
+        <v>636</v>
       </c>
       <c r="M32" t="s">
-        <v>678</v>
+        <v>663</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="12" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>652</v>
+        <v>637</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>653</v>
+        <v>638</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
       <c r="M33" t="s">
-        <v>679</v>
+        <v>664</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>655</v>
+        <v>640</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>656</v>
+        <v>641</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4" t="s">
-        <v>657</v>
+        <v>642</v>
       </c>
       <c r="M34" t="s">
-        <v>680</v>
+        <v>665</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="12" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>658</v>
+        <v>643</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>659</v>
+        <v>644</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4" t="s">
-        <v>660</v>
+        <v>645</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="12" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="12" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="12" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="12" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="15" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="D40" s="15"/>
       <c r="E40" s="15" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="15" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="D41" s="15"/>
       <c r="E41" s="15" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="D47" s="12"/>
       <c r="E47" s="12" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="12" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="D49" s="12"/>
       <c r="E49" s="12" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="15" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="D50" s="15"/>
       <c r="E50" s="15" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>

--- a/doc/realmGrinder.xlsx
+++ b/doc/realmGrinder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Upgrades" sheetId="1" r:id="rId1"/>
@@ -3685,8 +3685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4012,30 +4012,30 @@
       <c r="A35">
         <v>21</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="12" t="s">
         <v>262</v>
       </c>
       <c r="C35" t="s">
         <v>288</v>
       </c>
       <c r="D35">
-        <v>250</v>
+        <v>1048</v>
       </c>
       <c r="E35">
         <f>D35/30000</f>
-        <v>8.3333333333333332E-3</v>
+        <v>3.493333333333333E-2</v>
       </c>
       <c r="F35">
         <f>1-(1-E35)^10</f>
-        <v>8.0276775103616083E-2</v>
+        <v>0.29923378801020284</v>
       </c>
       <c r="G35">
         <f>1-(1-E35)^100</f>
-        <v>0.56691660312898984</v>
+        <v>0.97144175348906103</v>
       </c>
       <c r="H35">
         <f>1-(1-E35)^1000</f>
-        <v>0.99976787851254123</v>
+        <v>0.99999999999999967</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -4239,8 +4239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S65"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="R53" sqref="R53"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4745,7 +4745,7 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="12" t="s">
         <v>332</v>
       </c>
       <c r="C27" t="s">
@@ -4764,7 +4764,7 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="12" t="s">
         <v>335</v>
       </c>
       <c r="C29" t="s">
@@ -4797,7 +4797,7 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="12" t="s">
         <v>341</v>
       </c>
       <c r="C32" t="s">
@@ -4830,7 +4830,7 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="12" t="s">
         <v>347</v>
       </c>
       <c r="C35" t="s">
@@ -4863,7 +4863,7 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="12" t="s">
         <v>353</v>
       </c>
       <c r="C38" t="s">
@@ -5158,8 +5158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5336,24 +5336,24 @@
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="12" t="s">
         <v>425</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15" t="s">
+      <c r="D9" s="12"/>
+      <c r="E9" s="12" t="s">
         <v>426</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="12" t="s">
         <v>571</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="12" t="s">
         <v>572</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4" t="s">
+      <c r="I9" s="12"/>
+      <c r="J9" s="12" t="s">
         <v>573</v>
       </c>
     </row>
@@ -5368,14 +5368,14 @@
       <c r="E10" s="15" t="s">
         <v>430</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="12" t="s">
         <v>575</v>
       </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15" t="s">
+      <c r="I10" s="12"/>
+      <c r="J10" s="12" t="s">
         <v>576</v>
       </c>
     </row>
@@ -5684,14 +5684,14 @@
       <c r="E23" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="12" t="s">
         <v>610</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="12" t="s">
         <v>611</v>
       </c>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15" t="s">
+      <c r="I23" s="12"/>
+      <c r="J23" s="12" t="s">
         <v>612</v>
       </c>
       <c r="M23" t="s">
@@ -6030,14 +6030,14 @@
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="12" t="s">
         <v>545</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15" t="s">
+      <c r="D40" s="12"/>
+      <c r="E40" s="12" t="s">
         <v>547</v>
       </c>
     </row>
@@ -6144,14 +6144,14 @@
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="12" t="s">
         <v>530</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="12" t="s">
         <v>531</v>
       </c>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15" t="s">
+      <c r="D50" s="12"/>
+      <c r="E50" s="12" t="s">
         <v>532</v>
       </c>
     </row>

--- a/doc/realmGrinder.xlsx
+++ b/doc/realmGrinder.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="752">
   <si>
     <t>Pixie Dust Fertilizer</t>
   </si>
@@ -2027,6 +2027,255 @@
   </si>
   <si>
     <t>1 Lineage Level Purchased</t>
+  </si>
+  <si>
+    <t>C0225</t>
+  </si>
+  <si>
+    <t>Automatons</t>
+  </si>
+  <si>
+    <t>Research C1 &amp; A120</t>
+  </si>
+  <si>
+    <t>C0250</t>
+  </si>
+  <si>
+    <t>Magnetism</t>
+  </si>
+  <si>
+    <t>Research C150 &amp; W225</t>
+  </si>
+  <si>
+    <t>C0251</t>
+  </si>
+  <si>
+    <t>Architecture</t>
+  </si>
+  <si>
+    <t>Play as Titan</t>
+  </si>
+  <si>
+    <t>C0300</t>
+  </si>
+  <si>
+    <t>Weighting</t>
+  </si>
+  <si>
+    <t>650 Lighting Strikes Cast</t>
+  </si>
+  <si>
+    <t>D0205</t>
+  </si>
+  <si>
+    <t>Communion</t>
+  </si>
+  <si>
+    <t>777 Holy light casts, Research C175 &amp; D135</t>
+  </si>
+  <si>
+    <t>D0225</t>
+  </si>
+  <si>
+    <t>Weather Control</t>
+  </si>
+  <si>
+    <t>Research C0025 and S0030</t>
+  </si>
+  <si>
+    <t>D0245</t>
+  </si>
+  <si>
+    <t>Soulrending</t>
+  </si>
+  <si>
+    <t>500 Spiritual Surge Casts, Research A0175 &amp; S0225</t>
+  </si>
+  <si>
+    <t>D0250</t>
+  </si>
+  <si>
+    <t>Demonology</t>
+  </si>
+  <si>
+    <t>Research D0200 &amp; S0150</t>
+  </si>
+  <si>
+    <t>D0260</t>
+  </si>
+  <si>
+    <t>Mutation</t>
+  </si>
+  <si>
+    <t>3000 Sunken Cities</t>
+  </si>
+  <si>
+    <t>D0275</t>
+  </si>
+  <si>
+    <t>Meditation</t>
+  </si>
+  <si>
+    <t>Have 10,000 mana as druid</t>
+  </si>
+  <si>
+    <t>D0290</t>
+  </si>
+  <si>
+    <t>Transubstantiation</t>
+  </si>
+  <si>
+    <t>1 Rough Stone Artifact</t>
+  </si>
+  <si>
+    <t>E0225</t>
+  </si>
+  <si>
+    <t>Forgery</t>
+  </si>
+  <si>
+    <t>Reasearch E1 &amp; A50</t>
+  </si>
+  <si>
+    <t>E0230</t>
+  </si>
+  <si>
+    <t>Coercion</t>
+  </si>
+  <si>
+    <t>Research W50 &amp; E30</t>
+  </si>
+  <si>
+    <t>E0250</t>
+  </si>
+  <si>
+    <t>Trade Routes</t>
+  </si>
+  <si>
+    <t>Research E225 &amp; E145</t>
+  </si>
+  <si>
+    <t>E0260</t>
+  </si>
+  <si>
+    <t>Sifting</t>
+  </si>
+  <si>
+    <t>3,000 Stonehenge Circles</t>
+  </si>
+  <si>
+    <t>E0275</t>
+  </si>
+  <si>
+    <t>Offering</t>
+  </si>
+  <si>
+    <t>1,250 Royal Exchanges as Titans</t>
+  </si>
+  <si>
+    <t>Titans</t>
+  </si>
+  <si>
+    <t>E0290</t>
+  </si>
+  <si>
+    <t>Surveyorship</t>
+  </si>
+  <si>
+    <t>7 Artifacts</t>
+  </si>
+  <si>
+    <t>Philosopher's Stone</t>
+  </si>
+  <si>
+    <t>Research A10 &amp; S175</t>
+  </si>
+  <si>
+    <t>A0251</t>
+  </si>
+  <si>
+    <t>Infusion</t>
+  </si>
+  <si>
+    <t>Play as Druid</t>
+  </si>
+  <si>
+    <t>A0250</t>
+  </si>
+  <si>
+    <t>A0270</t>
+  </si>
+  <si>
+    <t>Synthesis</t>
+  </si>
+  <si>
+    <t>20 Billion faction coins</t>
+  </si>
+  <si>
+    <t>A0300</t>
+  </si>
+  <si>
+    <t>Creeping</t>
+  </si>
+  <si>
+    <t>Produce 5M mana as druid</t>
+  </si>
+  <si>
+    <t>Druid</t>
+  </si>
+  <si>
+    <t>W0205</t>
+  </si>
+  <si>
+    <t>Berserking</t>
+  </si>
+  <si>
+    <t>850 Blood Frenzy Casts, Research W135 &amp; D150</t>
+  </si>
+  <si>
+    <t>W0225</t>
+  </si>
+  <si>
+    <t>Critical Strike</t>
+  </si>
+  <si>
+    <t>Research W10 &amp; D55</t>
+  </si>
+  <si>
+    <t>W0250</t>
+  </si>
+  <si>
+    <t>Swarming</t>
+  </si>
+  <si>
+    <t>Research W175 &amp; W205</t>
+  </si>
+  <si>
+    <t>W0260</t>
+  </si>
+  <si>
+    <t>Athletics</t>
+  </si>
+  <si>
+    <t>3000 Olympian Halls</t>
+  </si>
+  <si>
+    <t>W0275</t>
+  </si>
+  <si>
+    <t>Domination</t>
+  </si>
+  <si>
+    <t>300 Base Assistants as Faceless</t>
+  </si>
+  <si>
+    <t>W0290</t>
+  </si>
+  <si>
+    <t>Entrencth</t>
+  </si>
+  <si>
+    <t>2,000 Excavations</t>
   </si>
 </sst>
 </file>
@@ -2042,7 +2291,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2079,12 +2328,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2098,7 +2341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="45"/>
@@ -2126,7 +2369,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5156,10 +5398,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M51"/>
+  <dimension ref="B2:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5167,7 +5409,7 @@
     <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="56.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="42.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5358,14 +5600,14 @@
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="12" t="s">
         <v>429</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15" t="s">
+      <c r="D10" s="12"/>
+      <c r="E10" s="12" t="s">
         <v>430</v>
       </c>
       <c r="G10" s="12" t="s">
@@ -5380,81 +5622,91 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15" t="s">
+      <c r="D11" s="12"/>
+      <c r="E11" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="12" t="s">
         <v>577</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="12" t="s">
         <v>578</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4" t="s">
+      <c r="I11" s="12"/>
+      <c r="J11" s="12" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="11"/>
+      <c r="E12" s="11" t="s">
         <v>436</v>
       </c>
+      <c r="G12" s="12" t="s">
+        <v>702</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>703</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12" t="s">
+        <v>704</v>
+      </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="12" t="s">
         <v>437</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4" t="s">
+      <c r="D13" s="12"/>
+      <c r="E13" s="12" t="s">
         <v>439</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>583</v>
+        <v>705</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>580</v>
+        <v>706</v>
       </c>
       <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
+      <c r="J13" s="12" t="s">
+        <v>707</v>
+      </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
+      <c r="D14" s="12"/>
+      <c r="E14" s="12" t="s">
         <v>442</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>584</v>
+        <v>708</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>581</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>414</v>
-      </c>
+        <v>709</v>
+      </c>
+      <c r="I14" s="12"/>
       <c r="J14" s="12" t="s">
-        <v>582</v>
+        <v>710</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
@@ -5470,17 +5722,15 @@
       <c r="E15" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="G15" s="12" t="s">
-        <v>585</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>586</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>587</v>
+      <c r="G15" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4" t="s">
+        <v>713</v>
       </c>
       <c r="M15" t="s">
         <v>666</v>
@@ -5497,17 +5747,17 @@
       <c r="E16" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="G16" s="12" t="s">
-        <v>588</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>589</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>404</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>590</v>
+      <c r="G16" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>716</v>
       </c>
       <c r="M16" t="s">
         <v>647</v>
@@ -5526,17 +5776,15 @@
       <c r="E17" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="G17" s="12" t="s">
-        <v>591</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>592</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>516</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>593</v>
+      <c r="G17" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4" t="s">
+        <v>720</v>
       </c>
       <c r="M17" t="s">
         <v>648</v>
@@ -5555,16 +5803,6 @@
       <c r="E18" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="G18" s="12" t="s">
-        <v>594</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>595</v>
-      </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12" t="s">
-        <v>596</v>
-      </c>
       <c r="M18" t="s">
         <v>649</v>
       </c>
@@ -5581,15 +5819,13 @@
         <v>458</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>598</v>
+        <v>580</v>
       </c>
       <c r="I19" s="12"/>
-      <c r="J19" s="12" t="s">
-        <v>599</v>
-      </c>
+      <c r="J19" s="12"/>
       <c r="M19" t="s">
         <v>650</v>
       </c>
@@ -5606,14 +5842,16 @@
         <v>461</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>601</v>
-      </c>
-      <c r="I20" s="12"/>
+        <v>581</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>414</v>
+      </c>
       <c r="J20" s="12" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="M20" t="s">
         <v>651</v>
@@ -5631,16 +5869,16 @@
         <v>464</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>606</v>
+        <v>513</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>605</v>
+        <v>587</v>
       </c>
       <c r="M21" s="12" t="s">
         <v>652</v>
@@ -5660,14 +5898,16 @@
         <v>467</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>607</v>
+        <v>588</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>608</v>
-      </c>
-      <c r="I22" s="12"/>
+        <v>589</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>404</v>
+      </c>
       <c r="J22" s="12" t="s">
-        <v>609</v>
+        <v>590</v>
       </c>
       <c r="M22" t="s">
         <v>653</v>
@@ -5685,14 +5925,16 @@
         <v>471</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>610</v>
+        <v>591</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>611</v>
-      </c>
-      <c r="I23" s="12"/>
+        <v>592</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>516</v>
+      </c>
       <c r="J23" s="12" t="s">
-        <v>612</v>
+        <v>593</v>
       </c>
       <c r="M23" t="s">
         <v>654</v>
@@ -5711,15 +5953,15 @@
       <c r="E24" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="G24" s="15" t="s">
-        <v>613</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>614</v>
-      </c>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15" t="s">
-        <v>615</v>
+      <c r="G24" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12" t="s">
+        <v>596</v>
       </c>
       <c r="M24" t="s">
         <v>655</v>
@@ -5736,6 +5978,16 @@
       <c r="E25" s="4" t="s">
         <v>477</v>
       </c>
+      <c r="G25" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12" t="s">
+        <v>599</v>
+      </c>
       <c r="M25" t="s">
         <v>656</v>
       </c>
@@ -5752,13 +6004,15 @@
         <v>480</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>617</v>
+        <v>600</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>616</v>
+        <v>601</v>
       </c>
       <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
+      <c r="J26" s="12" t="s">
+        <v>602</v>
+      </c>
       <c r="M26" t="s">
         <v>657</v>
       </c>
@@ -5775,14 +6029,16 @@
         <v>483</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>619</v>
-      </c>
-      <c r="I27" s="12"/>
+        <v>604</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>606</v>
+      </c>
       <c r="J27" s="12" t="s">
-        <v>620</v>
+        <v>605</v>
       </c>
       <c r="M27" t="s">
         <v>658</v>
@@ -5800,16 +6056,14 @@
         <v>486</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>622</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>414</v>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="I28" s="12"/>
       <c r="J28" s="12" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="M28" s="12" t="s">
         <v>659</v>
@@ -5827,16 +6081,14 @@
         <v>489</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>625</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>627</v>
-      </c>
+        <v>611</v>
+      </c>
+      <c r="I29" s="12"/>
       <c r="J29" s="12" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="M29" t="s">
         <v>660</v>
@@ -5844,14 +6096,14 @@
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G30" s="12" t="s">
-        <v>628</v>
+        <v>613</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="I30" s="12"/>
       <c r="J30" s="12" t="s">
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="M30" t="s">
         <v>661</v>
@@ -5867,16 +6119,14 @@
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
       <c r="G31" s="12" t="s">
-        <v>631</v>
+        <v>726</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>632</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>513</v>
-      </c>
+        <v>721</v>
+      </c>
+      <c r="I31" s="12"/>
       <c r="J31" s="12" t="s">
-        <v>633</v>
+        <v>722</v>
       </c>
       <c r="M31" s="12" t="s">
         <v>662</v>
@@ -5893,15 +6143,17 @@
       <c r="E32" s="12" t="s">
         <v>493</v>
       </c>
-      <c r="G32" s="12" t="s">
-        <v>634</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>635</v>
-      </c>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12" t="s">
-        <v>636</v>
+      <c r="G32" s="11" t="s">
+        <v>723</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>724</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>725</v>
       </c>
       <c r="M32" t="s">
         <v>663</v>
@@ -5919,14 +6171,14 @@
         <v>496</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>637</v>
+        <v>727</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>638</v>
+        <v>728</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4" t="s">
-        <v>639</v>
+        <v>729</v>
       </c>
       <c r="M33" t="s">
         <v>664</v>
@@ -5946,14 +6198,16 @@
         <v>499</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>640</v>
+        <v>730</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>641</v>
-      </c>
-      <c r="I34" s="4"/>
+        <v>731</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>733</v>
+      </c>
       <c r="J34" s="4" t="s">
-        <v>642</v>
+        <v>732</v>
       </c>
       <c r="M34" t="s">
         <v>665</v>
@@ -5970,16 +6224,6 @@
       <c r="E35" s="12" t="s">
         <v>503</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>643</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>644</v>
-      </c>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4" t="s">
-        <v>645</v>
-      </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
@@ -5992,6 +6236,14 @@
       <c r="E36" s="12" t="s">
         <v>506</v>
       </c>
+      <c r="G36" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
@@ -6004,6 +6256,16 @@
       <c r="E37" s="12" t="s">
         <v>538</v>
       </c>
+      <c r="G37" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>619</v>
+      </c>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
@@ -6016,6 +6278,18 @@
       <c r="E38" s="12" t="s">
         <v>541</v>
       </c>
+      <c r="G38" s="12" t="s">
+        <v>621</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>622</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
@@ -6028,6 +6302,18 @@
       <c r="E39" s="12" t="s">
         <v>544</v>
       </c>
+      <c r="G39" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>626</v>
+      </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
@@ -6040,131 +6326,393 @@
       <c r="E40" s="12" t="s">
         <v>547</v>
       </c>
+      <c r="G40" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12" t="s">
+        <v>630</v>
+      </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="12" t="s">
         <v>548</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15" t="s">
+      <c r="D41" s="12"/>
+      <c r="E41" s="12" t="s">
         <v>550</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="12" t="s">
+        <v>669</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>670</v>
+      </c>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12" t="s">
+        <v>671</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>635</v>
+      </c>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
-        <v>507</v>
+        <v>672</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>509</v>
+        <v>673</v>
       </c>
       <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
+      <c r="E43" s="12" t="s">
+        <v>674</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="12" t="s">
-        <v>510</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>511</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>512</v>
+      <c r="B44" s="11" t="s">
+        <v>675</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>676</v>
+      </c>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11" t="s">
+        <v>677</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>641</v>
+      </c>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="12" t="s">
-        <v>514</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>516</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>517</v>
+      <c r="B45" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>643</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="12" t="s">
-        <v>518</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>519</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>407</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>520</v>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="G46" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="D47" s="12"/>
-      <c r="E47" s="12" t="s">
-        <v>523</v>
+      <c r="E47" s="12"/>
+      <c r="G47" s="12" t="s">
+        <v>737</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="12" t="s">
         <v>524</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C52" s="12" t="s">
         <v>525</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D52" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="E48" s="12" t="s">
+      <c r="E52" s="12" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="12" t="s">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="12" t="s">
         <v>527</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C53" s="12" t="s">
         <v>528</v>
       </c>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12" t="s">
+      <c r="D53" s="12"/>
+      <c r="E53" s="12" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="12" t="s">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="12" t="s">
         <v>530</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C54" s="12" t="s">
         <v>531</v>
       </c>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12" t="s">
+      <c r="D54" s="12"/>
+      <c r="E54" s="12" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="4" t="s">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="12" t="s">
         <v>533</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C55" s="12" t="s">
         <v>534</v>
       </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4" t="s">
+      <c r="D55" s="12"/>
+      <c r="E55" s="12" t="s">
         <v>535</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="12" t="s">
+        <v>681</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>682</v>
+      </c>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>685</v>
+      </c>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="12" t="s">
+        <v>690</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>691</v>
+      </c>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4" t="s">
+        <v>701</v>
       </c>
     </row>
   </sheetData>

--- a/doc/realmGrinder.xlsx
+++ b/doc/realmGrinder.xlsx
@@ -3927,8 +3927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4004,7 +4004,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="12" t="s">
         <v>230</v>
       </c>
       <c r="C8" t="s">
@@ -4015,7 +4015,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="12" t="s">
         <v>231</v>
       </c>
       <c r="C9" t="s">
@@ -5400,8 +5400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5644,14 +5644,14 @@
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11" t="s">
+      <c r="D12" s="12"/>
+      <c r="E12" s="12" t="s">
         <v>436</v>
       </c>
       <c r="G12" s="12" t="s">
@@ -5710,26 +5710,26 @@
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="12" t="s">
         <v>443</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="12" t="s">
         <v>444</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="12" t="s">
         <v>446</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="12" t="s">
         <v>711</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="12" t="s">
         <v>712</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4" t="s">
+      <c r="I15" s="12"/>
+      <c r="J15" s="12" t="s">
         <v>713</v>
       </c>
       <c r="M15" t="s">
@@ -5737,26 +5737,26 @@
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4" t="s">
+      <c r="D16" s="11"/>
+      <c r="E16" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="12" t="s">
         <v>714</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="12" t="s">
         <v>715</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="12" t="s">
         <v>717</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="12" t="s">
         <v>716</v>
       </c>
       <c r="M16" t="s">
@@ -6143,16 +6143,16 @@
       <c r="E32" s="12" t="s">
         <v>493</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G32" s="12" t="s">
         <v>723</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="H32" s="12" t="s">
         <v>724</v>
       </c>
-      <c r="I32" s="11" t="s">
+      <c r="I32" s="12" t="s">
         <v>733</v>
       </c>
-      <c r="J32" s="11" t="s">
+      <c r="J32" s="12" t="s">
         <v>725</v>
       </c>
       <c r="M32" t="s">
@@ -6170,14 +6170,15 @@
       <c r="E33" s="12" t="s">
         <v>496</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="F33" s="11"/>
+      <c r="G33" s="11" t="s">
         <v>727</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H33" s="11" t="s">
         <v>728</v>
       </c>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4" t="s">
+      <c r="I33" s="11"/>
+      <c r="J33" s="11" t="s">
         <v>729</v>
       </c>
       <c r="M33" t="s">
@@ -6406,14 +6407,14 @@
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="12" t="s">
         <v>675</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="12" t="s">
         <v>676</v>
       </c>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11" t="s">
+      <c r="D44" s="12"/>
+      <c r="E44" s="12" t="s">
         <v>677</v>
       </c>
       <c r="G44" s="12" t="s">
@@ -6454,14 +6455,14 @@
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
-      <c r="G46" s="4" t="s">
+      <c r="G46" s="12" t="s">
         <v>734</v>
       </c>
-      <c r="H46" s="4" t="s">
+      <c r="H46" s="12" t="s">
         <v>735</v>
       </c>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4" t="s">
+      <c r="I46" s="12"/>
+      <c r="J46" s="12" t="s">
         <v>736</v>
       </c>
     </row>
@@ -6498,14 +6499,14 @@
       <c r="E48" s="12" t="s">
         <v>512</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="G48" s="12" t="s">
         <v>740</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="H48" s="12" t="s">
         <v>741</v>
       </c>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4" t="s">
+      <c r="I48" s="12"/>
+      <c r="J48" s="12" t="s">
         <v>742</v>
       </c>
     </row>
@@ -6522,14 +6523,14 @@
       <c r="E49" s="12" t="s">
         <v>517</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="G49" s="12" t="s">
         <v>743</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="H49" s="12" t="s">
         <v>744</v>
       </c>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4" t="s">
+      <c r="I49" s="12"/>
+      <c r="J49" s="12" t="s">
         <v>745</v>
       </c>
     </row>
@@ -6546,16 +6547,16 @@
       <c r="E50" s="12" t="s">
         <v>520</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="G50" s="12" t="s">
         <v>746</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="H50" s="12" t="s">
         <v>747</v>
       </c>
-      <c r="I50" s="4" t="s">
+      <c r="I50" s="12" t="s">
         <v>446</v>
       </c>
-      <c r="J50" s="4" t="s">
+      <c r="J50" s="12" t="s">
         <v>748</v>
       </c>
     </row>
@@ -6656,14 +6657,14 @@
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="12" t="s">
         <v>687</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="12" t="s">
         <v>688</v>
       </c>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4" t="s">
+      <c r="D58" s="12"/>
+      <c r="E58" s="12" t="s">
         <v>689</v>
       </c>
     </row>
@@ -6680,26 +6681,26 @@
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="12" t="s">
         <v>693</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="12" t="s">
         <v>694</v>
       </c>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4" t="s">
+      <c r="D60" s="12"/>
+      <c r="E60" s="12" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="12" t="s">
         <v>696</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="12" t="s">
         <v>697</v>
       </c>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4" t="s">
+      <c r="D61" s="12"/>
+      <c r="E61" s="12" t="s">
         <v>698</v>
       </c>
     </row>

--- a/doc/realmGrinder.xlsx
+++ b/doc/realmGrinder.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="816">
   <si>
     <t>Pixie Dust Fertilizer</t>
   </si>
@@ -2276,6 +2276,198 @@
   </si>
   <si>
     <t>2,000 Excavations</t>
+  </si>
+  <si>
+    <t>C0305</t>
+  </si>
+  <si>
+    <t>Golemcraft</t>
+  </si>
+  <si>
+    <t>5 days at Titans</t>
+  </si>
+  <si>
+    <t>C0330</t>
+  </si>
+  <si>
+    <t>Overload</t>
+  </si>
+  <si>
+    <t>Research S250 &amp; W225</t>
+  </si>
+  <si>
+    <t>C0340</t>
+  </si>
+  <si>
+    <t>Gem Duster</t>
+  </si>
+  <si>
+    <t>800 Gem Grinder Casts, Research E260 &amp; E290</t>
+  </si>
+  <si>
+    <t>C0375</t>
+  </si>
+  <si>
+    <t>Lightning Rod</t>
+  </si>
+  <si>
+    <t>Research S300 &amp; C330</t>
+  </si>
+  <si>
+    <t>C0400</t>
+  </si>
+  <si>
+    <t>Gravitation</t>
+  </si>
+  <si>
+    <t>Research C250 &amp; C300</t>
+  </si>
+  <si>
+    <t>D0320</t>
+  </si>
+  <si>
+    <t>Deliverance</t>
+  </si>
+  <si>
+    <t>350 mana/sec regen</t>
+  </si>
+  <si>
+    <t>D0330</t>
+  </si>
+  <si>
+    <t>Eternity</t>
+  </si>
+  <si>
+    <t>Research E275 and D320</t>
+  </si>
+  <si>
+    <t>D0350</t>
+  </si>
+  <si>
+    <t>Descent</t>
+  </si>
+  <si>
+    <t>Research W250 &amp; W330</t>
+  </si>
+  <si>
+    <t>Titan</t>
+  </si>
+  <si>
+    <t>D0400</t>
+  </si>
+  <si>
+    <t>Miracle</t>
+  </si>
+  <si>
+    <t>Research D205 and D290</t>
+  </si>
+  <si>
+    <t>E0320</t>
+  </si>
+  <si>
+    <t>Smuggling</t>
+  </si>
+  <si>
+    <t>Have 2x gems in abdication treasury</t>
+  </si>
+  <si>
+    <t>E0330</t>
+  </si>
+  <si>
+    <t>Collection</t>
+  </si>
+  <si>
+    <t>Research E200 &amp; E225</t>
+  </si>
+  <si>
+    <t>E0350</t>
+  </si>
+  <si>
+    <t>Repurpose</t>
+  </si>
+  <si>
+    <t>Research C200 &amp; A330</t>
+  </si>
+  <si>
+    <t>E0400</t>
+  </si>
+  <si>
+    <t>Conversion</t>
+  </si>
+  <si>
+    <t>Research A250 &amp; E350</t>
+  </si>
+  <si>
+    <t>A0305</t>
+  </si>
+  <si>
+    <t>Engraving</t>
+  </si>
+  <si>
+    <t>5 Days as Druids</t>
+  </si>
+  <si>
+    <t>A0330</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>Research D260 &amp; D275</t>
+  </si>
+  <si>
+    <t>A0375</t>
+  </si>
+  <si>
+    <t>Transfusion</t>
+  </si>
+  <si>
+    <t>Research A251 &amp; A305</t>
+  </si>
+  <si>
+    <t>A0400</t>
+  </si>
+  <si>
+    <t>Bloodspring</t>
+  </si>
+  <si>
+    <t>Research S251 and A375</t>
+  </si>
+  <si>
+    <t>W0320</t>
+  </si>
+  <si>
+    <t>Shattering</t>
+  </si>
+  <si>
+    <t>2,750 Excavations</t>
+  </si>
+  <si>
+    <t>W0330</t>
+  </si>
+  <si>
+    <t>Heroism</t>
+  </si>
+  <si>
+    <t>Research W200 &amp; W260</t>
+  </si>
+  <si>
+    <t>W0350</t>
+  </si>
+  <si>
+    <t>Survival</t>
+  </si>
+  <si>
+    <t>Research A300 &amp; A270</t>
+  </si>
+  <si>
+    <t>W0400</t>
+  </si>
+  <si>
+    <t>Siege</t>
+  </si>
+  <si>
+    <t>Research C251 &amp; W290</t>
   </si>
 </sst>
 </file>
@@ -3928,7 +4120,7 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4481,8 +4673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S65"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5017,7 +5209,7 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="12" t="s">
         <v>337</v>
       </c>
       <c r="C30" t="s">
@@ -5028,7 +5220,7 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="12" t="s">
         <v>339</v>
       </c>
       <c r="C31" t="s">
@@ -5050,7 +5242,7 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="12" t="s">
         <v>343</v>
       </c>
       <c r="C33" t="s">
@@ -5061,7 +5253,7 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="12" t="s">
         <v>345</v>
       </c>
       <c r="C34" t="s">
@@ -5083,7 +5275,7 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="12" t="s">
         <v>349</v>
       </c>
       <c r="C36" t="s">
@@ -5094,7 +5286,7 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="12" t="s">
         <v>351</v>
       </c>
       <c r="C37" t="s">
@@ -5398,10 +5590,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M62"/>
+  <dimension ref="B2:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5737,14 +5929,14 @@
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="12" t="s">
         <v>448</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11" t="s">
+      <c r="D16" s="12"/>
+      <c r="E16" s="12" t="s">
         <v>449</v>
       </c>
       <c r="G16" s="12" t="s">
@@ -5764,26 +5956,26 @@
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="12" t="s">
         <v>718</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="12" t="s">
         <v>719</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4" t="s">
+      <c r="I17" s="12"/>
+      <c r="J17" s="12" t="s">
         <v>720</v>
       </c>
       <c r="M17" t="s">
@@ -5803,29 +5995,41 @@
       <c r="E18" s="4" t="s">
         <v>455</v>
       </c>
+      <c r="G18" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4" t="s">
+        <v>782</v>
+      </c>
       <c r="M18" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4" t="s">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="G19" s="12" t="s">
-        <v>583</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>580</v>
-      </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
+      <c r="G19" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>785</v>
+      </c>
       <c r="M19" t="s">
         <v>650</v>
       </c>
@@ -5841,17 +6045,17 @@
       <c r="E20" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="G20" s="12" t="s">
-        <v>584</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>581</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>582</v>
+      <c r="G20" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>788</v>
       </c>
       <c r="M20" t="s">
         <v>651</v>
@@ -5868,17 +6072,15 @@
       <c r="E21" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="G21" s="12" t="s">
-        <v>585</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>586</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>587</v>
+      <c r="G21" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4" t="s">
+        <v>791</v>
       </c>
       <c r="M21" s="12" t="s">
         <v>652</v>
@@ -5897,18 +6099,6 @@
       <c r="E22" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="G22" s="12" t="s">
-        <v>588</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>589</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>404</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>590</v>
-      </c>
       <c r="M22" t="s">
         <v>653</v>
       </c>
@@ -5925,17 +6115,13 @@
         <v>471</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>592</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>516</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>593</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
       <c r="M23" t="s">
         <v>654</v>
       </c>
@@ -5954,14 +6140,16 @@
         <v>474</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>595</v>
-      </c>
-      <c r="I24" s="12"/>
+        <v>581</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>414</v>
+      </c>
       <c r="J24" s="12" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="M24" t="s">
         <v>655</v>
@@ -5979,14 +6167,16 @@
         <v>477</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>598</v>
-      </c>
-      <c r="I25" s="12"/>
+        <v>586</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>513</v>
+      </c>
       <c r="J25" s="12" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="M25" t="s">
         <v>656</v>
@@ -6004,14 +6194,16 @@
         <v>480</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>601</v>
-      </c>
-      <c r="I26" s="12"/>
+        <v>589</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>404</v>
+      </c>
       <c r="J26" s="12" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="M26" t="s">
         <v>657</v>
@@ -6029,16 +6221,16 @@
         <v>483</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>606</v>
+        <v>516</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="M27" t="s">
         <v>658</v>
@@ -6056,14 +6248,14 @@
         <v>486</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="I28" s="12"/>
       <c r="J28" s="12" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="M28" s="12" t="s">
         <v>659</v>
@@ -6081,14 +6273,14 @@
         <v>489</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="I29" s="12"/>
       <c r="J29" s="12" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="M29" t="s">
         <v>660</v>
@@ -6096,14 +6288,14 @@
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G30" s="12" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="I30" s="12"/>
       <c r="J30" s="12" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="M30" t="s">
         <v>661</v>
@@ -6119,14 +6311,16 @@
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
       <c r="G31" s="12" t="s">
-        <v>726</v>
+        <v>603</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>721</v>
-      </c>
-      <c r="I31" s="12"/>
+        <v>604</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>606</v>
+      </c>
       <c r="J31" s="12" t="s">
-        <v>722</v>
+        <v>605</v>
       </c>
       <c r="M31" s="12" t="s">
         <v>662</v>
@@ -6144,16 +6338,14 @@
         <v>493</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>723</v>
+        <v>607</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>724</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>733</v>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="I32" s="12"/>
       <c r="J32" s="12" t="s">
-        <v>725</v>
+        <v>609</v>
       </c>
       <c r="M32" t="s">
         <v>663</v>
@@ -6171,15 +6363,15 @@
         <v>496</v>
       </c>
       <c r="F33" s="11"/>
-      <c r="G33" s="11" t="s">
-        <v>727</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>728</v>
-      </c>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11" t="s">
-        <v>729</v>
+      <c r="G33" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12" t="s">
+        <v>612</v>
       </c>
       <c r="M33" t="s">
         <v>664</v>
@@ -6198,17 +6390,15 @@
       <c r="E34" s="12" t="s">
         <v>499</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>730</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>731</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>732</v>
+      <c r="G34" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12" t="s">
+        <v>615</v>
       </c>
       <c r="M34" t="s">
         <v>665</v>
@@ -6225,6 +6415,16 @@
       <c r="E35" s="12" t="s">
         <v>503</v>
       </c>
+      <c r="G35" s="12" t="s">
+        <v>726</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>721</v>
+      </c>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12" t="s">
+        <v>722</v>
+      </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
@@ -6238,13 +6438,17 @@
         <v>506</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>617</v>
+        <v>723</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>616</v>
-      </c>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
+        <v>724</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>725</v>
+      </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
@@ -6258,14 +6462,14 @@
         <v>538</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>618</v>
+        <v>727</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>619</v>
+        <v>728</v>
       </c>
       <c r="I37" s="12"/>
       <c r="J37" s="12" t="s">
-        <v>620</v>
+        <v>729</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
@@ -6279,17 +6483,17 @@
       <c r="E38" s="12" t="s">
         <v>541</v>
       </c>
-      <c r="G38" s="12" t="s">
-        <v>621</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>622</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="J38" s="12" t="s">
-        <v>623</v>
+      <c r="G38" s="11" t="s">
+        <v>730</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>731</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
@@ -6303,17 +6507,15 @@
       <c r="E39" s="12" t="s">
         <v>544</v>
       </c>
-      <c r="G39" s="12" t="s">
-        <v>624</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>625</v>
-      </c>
-      <c r="I39" s="12" t="s">
-        <v>627</v>
-      </c>
-      <c r="J39" s="12" t="s">
-        <v>626</v>
+      <c r="G39" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
@@ -6327,15 +6529,15 @@
       <c r="E40" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="G40" s="12" t="s">
-        <v>628</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>629</v>
-      </c>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12" t="s">
-        <v>630</v>
+      <c r="G40" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
@@ -6349,17 +6551,15 @@
       <c r="E41" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="G41" s="12" t="s">
-        <v>631</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>632</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="J41" s="12" t="s">
-        <v>633</v>
+      <c r="G41" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
@@ -6373,15 +6573,15 @@
       <c r="E42" s="12" t="s">
         <v>671</v>
       </c>
-      <c r="G42" s="12" t="s">
-        <v>634</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>635</v>
-      </c>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12" t="s">
-        <v>636</v>
+      <c r="G42" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
@@ -6395,16 +6595,6 @@
       <c r="E43" s="12" t="s">
         <v>674</v>
       </c>
-      <c r="G43" s="12" t="s">
-        <v>637</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>638</v>
-      </c>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12" t="s">
-        <v>639</v>
-      </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
@@ -6418,302 +6608,538 @@
         <v>677</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>640</v>
+        <v>617</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>641</v>
+        <v>616</v>
       </c>
       <c r="I44" s="12"/>
-      <c r="J44" s="12" t="s">
-        <v>642</v>
-      </c>
+      <c r="J44" s="12"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="11" t="s">
         <v>678</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="11" t="s">
         <v>679</v>
       </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4" t="s">
+      <c r="D45" s="11"/>
+      <c r="E45" s="11" t="s">
         <v>680</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>643</v>
+        <v>618</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>644</v>
+        <v>619</v>
       </c>
       <c r="I45" s="12"/>
       <c r="J45" s="12" t="s">
-        <v>645</v>
+        <v>620</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
+      <c r="B46" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4" t="s">
+        <v>754</v>
+      </c>
       <c r="G46" s="12" t="s">
-        <v>734</v>
+        <v>621</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>735</v>
-      </c>
-      <c r="I46" s="12"/>
+        <v>622</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>414</v>
+      </c>
       <c r="J46" s="12" t="s">
-        <v>736</v>
+        <v>623</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="12" t="s">
-        <v>507</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>509</v>
-      </c>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
+      <c r="B47" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2" t="s">
+        <v>757</v>
+      </c>
       <c r="G47" s="12" t="s">
-        <v>737</v>
+        <v>624</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>738</v>
-      </c>
-      <c r="I47" s="12"/>
+        <v>625</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>627</v>
+      </c>
       <c r="J47" s="12" t="s">
-        <v>739</v>
+        <v>626</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="12" t="s">
-        <v>510</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>511</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>512</v>
+      <c r="B48" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4" t="s">
+        <v>760</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>740</v>
+        <v>628</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>741</v>
+        <v>629</v>
       </c>
       <c r="I48" s="12"/>
       <c r="J48" s="12" t="s">
-        <v>742</v>
+        <v>630</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="12" t="s">
-        <v>514</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>516</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>517</v>
+      <c r="B49" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4" t="s">
+        <v>763</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>743</v>
+        <v>631</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>744</v>
-      </c>
-      <c r="I49" s="12"/>
+        <v>632</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>513</v>
+      </c>
       <c r="J49" s="12" t="s">
-        <v>745</v>
+        <v>633</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="12" t="s">
-        <v>518</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>519</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>407</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>520</v>
+      <c r="B50" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4" t="s">
+        <v>766</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>746</v>
+        <v>634</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>747</v>
-      </c>
-      <c r="I50" s="12" t="s">
-        <v>446</v>
-      </c>
+        <v>635</v>
+      </c>
+      <c r="I50" s="12"/>
       <c r="J50" s="12" t="s">
-        <v>748</v>
+        <v>636</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="12" t="s">
-        <v>521</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>522</v>
-      </c>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12" t="s">
-        <v>523</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>749</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>750</v>
-      </c>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4" t="s">
-        <v>751</v>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="G51" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>525</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>407</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>526</v>
+        <v>509</v>
+      </c>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="G52" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>641</v>
+      </c>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="12" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>528</v>
-      </c>
-      <c r="D53" s="12"/>
+        <v>511</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>513</v>
+      </c>
       <c r="E53" s="12" t="s">
-        <v>529</v>
+        <v>512</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>643</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>531</v>
-      </c>
-      <c r="D54" s="12"/>
+        <v>515</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>516</v>
+      </c>
       <c r="E54" s="12" t="s">
-        <v>532</v>
+        <v>517</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>734</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="12" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>534</v>
-      </c>
-      <c r="D55" s="12"/>
+        <v>519</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>407</v>
+      </c>
       <c r="E55" s="12" t="s">
-        <v>535</v>
+        <v>520</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>737</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
-        <v>681</v>
+        <v>521</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="D56" s="12"/>
       <c r="E56" s="12" t="s">
-        <v>683</v>
+        <v>523</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>740</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>741</v>
+      </c>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
-        <v>684</v>
+        <v>524</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>685</v>
-      </c>
-      <c r="D57" s="12"/>
+        <v>525</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>407</v>
+      </c>
       <c r="E57" s="12" t="s">
-        <v>686</v>
+        <v>526</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>743</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
-        <v>687</v>
+        <v>527</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>688</v>
+        <v>528</v>
       </c>
       <c r="D58" s="12"/>
       <c r="E58" s="12" t="s">
-        <v>689</v>
+        <v>529</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>746</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>747</v>
+      </c>
+      <c r="I58" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="J58" s="12" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
-        <v>690</v>
+        <v>530</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>691</v>
+        <v>531</v>
       </c>
       <c r="D59" s="12"/>
       <c r="E59" s="12" t="s">
-        <v>692</v>
+        <v>532</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>749</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>750</v>
+      </c>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
-        <v>693</v>
+        <v>533</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>694</v>
+        <v>534</v>
       </c>
       <c r="D60" s="12"/>
       <c r="E60" s="12" t="s">
-        <v>695</v>
+        <v>535</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
-        <v>696</v>
+        <v>681</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>697</v>
+        <v>682</v>
       </c>
       <c r="D61" s="12"/>
       <c r="E61" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>685</v>
+      </c>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12" t="s">
+        <v>686</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="12" t="s">
+        <v>687</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>688</v>
+      </c>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12" t="s">
+        <v>689</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="12" t="s">
+        <v>690</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>691</v>
+      </c>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="12" t="s">
+        <v>693</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>694</v>
+      </c>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="12" t="s">
+        <v>696</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>697</v>
+      </c>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="4" t="s">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="12" t="s">
         <v>699</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C67" s="12" t="s">
         <v>700</v>
       </c>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4" t="s">
+      <c r="D67" s="12"/>
+      <c r="E67" s="12" t="s">
         <v>701</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4" t="s">
+        <v>779</v>
       </c>
     </row>
   </sheetData>

--- a/doc/realmGrinder.xlsx
+++ b/doc/realmGrinder.xlsx
@@ -5593,7 +5593,7 @@
   <dimension ref="B2:M71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5956,16 +5956,16 @@
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="12" t="s">
         <v>450</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="12" t="s">
         <v>446</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="12" t="s">
         <v>452</v>
       </c>
       <c r="G17" s="12" t="s">
@@ -6483,16 +6483,16 @@
       <c r="E38" s="12" t="s">
         <v>541</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="G38" s="12" t="s">
         <v>730</v>
       </c>
-      <c r="H38" s="11" t="s">
+      <c r="H38" s="12" t="s">
         <v>731</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="I38" s="12" t="s">
         <v>733</v>
       </c>
-      <c r="J38" s="11" t="s">
+      <c r="J38" s="12" t="s">
         <v>732</v>
       </c>
     </row>
@@ -6617,14 +6617,14 @@
       <c r="J44" s="12"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="12" t="s">
         <v>678</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="12" t="s">
         <v>679</v>
       </c>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11" t="s">
+      <c r="D45" s="12"/>
+      <c r="E45" s="12" t="s">
         <v>680</v>
       </c>
       <c r="G45" s="12" t="s">
@@ -6943,14 +6943,14 @@
       <c r="E59" s="12" t="s">
         <v>532</v>
       </c>
-      <c r="G59" s="11" t="s">
+      <c r="G59" s="12" t="s">
         <v>749</v>
       </c>
-      <c r="H59" s="11" t="s">
+      <c r="H59" s="12" t="s">
         <v>750</v>
       </c>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11" t="s">
+      <c r="I59" s="12"/>
+      <c r="J59" s="12" t="s">
         <v>751</v>
       </c>
     </row>

--- a/doc/realmGrinder.xlsx
+++ b/doc/realmGrinder.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="942">
   <si>
     <t>Pixie Dust Fertilizer</t>
   </si>
@@ -2468,6 +2468,384 @@
   </si>
   <si>
     <t>Research C251 &amp; W290</t>
+  </si>
+  <si>
+    <t>C1500</t>
+  </si>
+  <si>
+    <t>Gargantuaness</t>
+  </si>
+  <si>
+    <t>2500 Royal Exchanges, Research E460 &amp; D1275</t>
+  </si>
+  <si>
+    <t>C0405</t>
+  </si>
+  <si>
+    <t>Metallurgy</t>
+  </si>
+  <si>
+    <t>Underground Research Upgrade</t>
+  </si>
+  <si>
+    <t>C0460</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>1M Clicks this game</t>
+  </si>
+  <si>
+    <t>C0500</t>
+  </si>
+  <si>
+    <t>Minecrafting</t>
+  </si>
+  <si>
+    <t>3250 Excavations as Dwarf</t>
+  </si>
+  <si>
+    <t>C0520</t>
+  </si>
+  <si>
+    <t>Blacksmithing</t>
+  </si>
+  <si>
+    <t>Research C135 &amp; C405</t>
+  </si>
+  <si>
+    <t>C0590</t>
+  </si>
+  <si>
+    <t>Alloys</t>
+  </si>
+  <si>
+    <t>200 Dwarf Exchanges, Research A105 &amp; C520</t>
+  </si>
+  <si>
+    <t>Dwarf/Elf</t>
+  </si>
+  <si>
+    <t>C1300</t>
+  </si>
+  <si>
+    <t>Scintillation</t>
+  </si>
+  <si>
+    <t>30000 max mana</t>
+  </si>
+  <si>
+    <t>C1325</t>
+  </si>
+  <si>
+    <t>Plasmation</t>
+  </si>
+  <si>
+    <t>5e7 Mana produced this game</t>
+  </si>
+  <si>
+    <t>D0435</t>
+  </si>
+  <si>
+    <t>Devotion</t>
+  </si>
+  <si>
+    <t>4h Diamond Pickaxe cast time this game</t>
+  </si>
+  <si>
+    <t>D0480</t>
+  </si>
+  <si>
+    <t>Mercy</t>
+  </si>
+  <si>
+    <t>12h time spent as each good, evil, and neutral alignment</t>
+  </si>
+  <si>
+    <t>D0525</t>
+  </si>
+  <si>
+    <t>Purity</t>
+  </si>
+  <si>
+    <t>1d 12h as good, research D205 &amp; D435</t>
+  </si>
+  <si>
+    <t>D0560</t>
+  </si>
+  <si>
+    <t>Ritualism</t>
+  </si>
+  <si>
+    <t>Research S225 &amp; S500</t>
+  </si>
+  <si>
+    <t>D0590</t>
+  </si>
+  <si>
+    <t>Dispelling</t>
+  </si>
+  <si>
+    <t>Dwarf/Angel</t>
+  </si>
+  <si>
+    <t>200 Dwarf exchanges, research W320 &amp; A480</t>
+  </si>
+  <si>
+    <t>D1125</t>
+  </si>
+  <si>
+    <t>Oblation</t>
+  </si>
+  <si>
+    <t>Build Dragon unique building</t>
+  </si>
+  <si>
+    <t>D1275</t>
+  </si>
+  <si>
+    <t>Solemnity</t>
+  </si>
+  <si>
+    <t>100k total buildings</t>
+  </si>
+  <si>
+    <t>D1375</t>
+  </si>
+  <si>
+    <t>Sanctification</t>
+  </si>
+  <si>
+    <t>1 Day good time</t>
+  </si>
+  <si>
+    <t>E0410</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>5000 Blacksmiths</t>
+  </si>
+  <si>
+    <t>E0460</t>
+  </si>
+  <si>
+    <t>Inflation</t>
+  </si>
+  <si>
+    <t>100B faction coins</t>
+  </si>
+  <si>
+    <t>E0480</t>
+  </si>
+  <si>
+    <t>Undercutting</t>
+  </si>
+  <si>
+    <t>15000 Max Mana</t>
+  </si>
+  <si>
+    <t>E0495</t>
+  </si>
+  <si>
+    <t>Jewellery</t>
+  </si>
+  <si>
+    <t>Dwarf</t>
+  </si>
+  <si>
+    <t>12000 Unique buildings</t>
+  </si>
+  <si>
+    <t>E0590</t>
+  </si>
+  <si>
+    <t>Slavery</t>
+  </si>
+  <si>
+    <t>200 Drow exchanges, research C225 &amp; E480</t>
+  </si>
+  <si>
+    <t>Goblin/Drow</t>
+  </si>
+  <si>
+    <t>E1225</t>
+  </si>
+  <si>
+    <t>Hoarding</t>
+  </si>
+  <si>
+    <t>1T Faction Coins</t>
+  </si>
+  <si>
+    <t>E1325</t>
+  </si>
+  <si>
+    <t>Intimidation</t>
+  </si>
+  <si>
+    <t>18000 unique buildings</t>
+  </si>
+  <si>
+    <t>E1425</t>
+  </si>
+  <si>
+    <t>Rarity</t>
+  </si>
+  <si>
+    <t>10d each neutral, research A545 &amp; C13000</t>
+  </si>
+  <si>
+    <t>A0410</t>
+  </si>
+  <si>
+    <t>Poisons</t>
+  </si>
+  <si>
+    <t>4000 Sanctuarie</t>
+  </si>
+  <si>
+    <t>A0480</t>
+  </si>
+  <si>
+    <t>Waste</t>
+  </si>
+  <si>
+    <t>2000 Royal Exchanges</t>
+  </si>
+  <si>
+    <t>A0495</t>
+  </si>
+  <si>
+    <t>Elixirs</t>
+  </si>
+  <si>
+    <t>500 Base Assistants</t>
+  </si>
+  <si>
+    <t>A0545</t>
+  </si>
+  <si>
+    <t>Mineralogy</t>
+  </si>
+  <si>
+    <t>700 Trophies</t>
+  </si>
+  <si>
+    <t>A0590</t>
+  </si>
+  <si>
+    <t>Hexing</t>
+  </si>
+  <si>
+    <t>200 Drow exchanges, research D25 &amp; A410</t>
+  </si>
+  <si>
+    <t>Drow/Undead</t>
+  </si>
+  <si>
+    <t>A1200</t>
+  </si>
+  <si>
+    <t>Metling</t>
+  </si>
+  <si>
+    <t>5000 Wym dens</t>
+  </si>
+  <si>
+    <t>A1325</t>
+  </si>
+  <si>
+    <t>Calefaction</t>
+  </si>
+  <si>
+    <t>5500 Excavations</t>
+  </si>
+  <si>
+    <t>A1500</t>
+  </si>
+  <si>
+    <t>Sublimation</t>
+  </si>
+  <si>
+    <t>6h Grand balance cast, Research D590 &amp; A1325</t>
+  </si>
+  <si>
+    <t>Ambush</t>
+  </si>
+  <si>
+    <t>Secret Underground upgrade</t>
+  </si>
+  <si>
+    <t>W0405</t>
+  </si>
+  <si>
+    <t>W0520</t>
+  </si>
+  <si>
+    <t>Stalking</t>
+  </si>
+  <si>
+    <t>Research W50 &amp; W405</t>
+  </si>
+  <si>
+    <t>W0525</t>
+  </si>
+  <si>
+    <t>Bloodlust</t>
+  </si>
+  <si>
+    <t>1d 12h evil, research W205 &amp; S460</t>
+  </si>
+  <si>
+    <t>W0560</t>
+  </si>
+  <si>
+    <t>Resilience</t>
+  </si>
+  <si>
+    <t>Research D330 &amp; D480</t>
+  </si>
+  <si>
+    <t>W0590</t>
+  </si>
+  <si>
+    <t>Torture</t>
+  </si>
+  <si>
+    <t>200 Drow exchanges, research D245 &amp; W520</t>
+  </si>
+  <si>
+    <t>Demon/Drow</t>
+  </si>
+  <si>
+    <t>W1275</t>
+  </si>
+  <si>
+    <t>Authority</t>
+  </si>
+  <si>
+    <t>12h call to arms cast</t>
+  </si>
+  <si>
+    <t>W1375</t>
+  </si>
+  <si>
+    <t>Scavenging</t>
+  </si>
+  <si>
+    <t>1d evil time</t>
+  </si>
+  <si>
+    <t>W1400</t>
+  </si>
+  <si>
+    <t>Cataclysm</t>
+  </si>
+  <si>
+    <t>Research W400 &amp; A1200</t>
   </si>
 </sst>
 </file>
@@ -5590,18 +5968,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M71"/>
+  <dimension ref="B2:M87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="56.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="42.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5983,26 +6362,26 @@
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="12" t="s">
         <v>780</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="12" t="s">
         <v>781</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4" t="s">
+      <c r="I18" s="12"/>
+      <c r="J18" s="12" t="s">
         <v>782</v>
       </c>
       <c r="M18" t="s">
@@ -6099,6 +6478,16 @@
       <c r="E22" s="4" t="s">
         <v>467</v>
       </c>
+      <c r="G22" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4" t="s">
+        <v>868</v>
+      </c>
       <c r="M22" t="s">
         <v>653</v>
       </c>
@@ -6114,14 +6503,16 @@
       <c r="E23" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="G23" s="12" t="s">
-        <v>583</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>580</v>
-      </c>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
+      <c r="G23" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4" t="s">
+        <v>871</v>
+      </c>
       <c r="M23" t="s">
         <v>654</v>
       </c>
@@ -6139,17 +6530,15 @@
       <c r="E24" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="G24" s="12" t="s">
-        <v>584</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>581</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>582</v>
+      <c r="G24" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4" t="s">
+        <v>874</v>
       </c>
       <c r="M24" t="s">
         <v>655</v>
@@ -6166,17 +6555,17 @@
       <c r="E25" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="G25" s="12" t="s">
-        <v>585</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>586</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="J25" s="12" t="s">
-        <v>587</v>
+      <c r="G25" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>878</v>
       </c>
       <c r="M25" t="s">
         <v>656</v>
@@ -6193,17 +6582,17 @@
       <c r="E26" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="G26" s="12" t="s">
-        <v>588</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>589</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>404</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>590</v>
+      <c r="G26" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>881</v>
       </c>
       <c r="M26" t="s">
         <v>657</v>
@@ -6220,17 +6609,15 @@
       <c r="E27" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="G27" s="12" t="s">
-        <v>591</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>592</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>516</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>593</v>
+      <c r="G27" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4" t="s">
+        <v>885</v>
       </c>
       <c r="M27" t="s">
         <v>658</v>
@@ -6247,15 +6634,15 @@
       <c r="E28" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="G28" s="12" t="s">
-        <v>594</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>595</v>
-      </c>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12" t="s">
-        <v>596</v>
+      <c r="G28" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4" t="s">
+        <v>888</v>
       </c>
       <c r="M28" s="12" t="s">
         <v>659</v>
@@ -6272,31 +6659,21 @@
       <c r="E29" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="G29" s="12" t="s">
-        <v>597</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>598</v>
-      </c>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12" t="s">
-        <v>599</v>
+      <c r="G29" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4" t="s">
+        <v>891</v>
       </c>
       <c r="M29" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G30" s="12" t="s">
-        <v>600</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>601</v>
-      </c>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12" t="s">
-        <v>602</v>
-      </c>
       <c r="M30" t="s">
         <v>661</v>
       </c>
@@ -6311,17 +6688,13 @@
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
       <c r="G31" s="12" t="s">
-        <v>603</v>
+        <v>583</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>604</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>606</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>605</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
       <c r="M31" s="12" t="s">
         <v>662</v>
       </c>
@@ -6338,14 +6711,16 @@
         <v>493</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>607</v>
+        <v>584</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>608</v>
-      </c>
-      <c r="I32" s="12"/>
+        <v>581</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>414</v>
+      </c>
       <c r="J32" s="12" t="s">
-        <v>609</v>
+        <v>582</v>
       </c>
       <c r="M32" t="s">
         <v>663</v>
@@ -6364,14 +6739,16 @@
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="12" t="s">
-        <v>610</v>
+        <v>585</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>611</v>
-      </c>
-      <c r="I33" s="12"/>
+        <v>586</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>513</v>
+      </c>
       <c r="J33" s="12" t="s">
-        <v>612</v>
+        <v>587</v>
       </c>
       <c r="M33" t="s">
         <v>664</v>
@@ -6391,14 +6768,16 @@
         <v>499</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>613</v>
+        <v>588</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>614</v>
-      </c>
-      <c r="I34" s="12"/>
+        <v>589</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>404</v>
+      </c>
       <c r="J34" s="12" t="s">
-        <v>615</v>
+        <v>590</v>
       </c>
       <c r="M34" t="s">
         <v>665</v>
@@ -6416,14 +6795,16 @@
         <v>503</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>726</v>
+        <v>591</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>721</v>
-      </c>
-      <c r="I35" s="12"/>
+        <v>592</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>516</v>
+      </c>
       <c r="J35" s="12" t="s">
-        <v>722</v>
+        <v>593</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
@@ -6438,16 +6819,14 @@
         <v>506</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>723</v>
+        <v>594</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>724</v>
-      </c>
-      <c r="I36" s="12" t="s">
-        <v>733</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="I36" s="12"/>
       <c r="J36" s="12" t="s">
-        <v>725</v>
+        <v>596</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
@@ -6462,14 +6841,14 @@
         <v>538</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>727</v>
+        <v>597</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>728</v>
+        <v>598</v>
       </c>
       <c r="I37" s="12"/>
       <c r="J37" s="12" t="s">
-        <v>729</v>
+        <v>599</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
@@ -6484,16 +6863,14 @@
         <v>541</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>730</v>
+        <v>600</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>731</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>733</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="I38" s="12"/>
       <c r="J38" s="12" t="s">
-        <v>732</v>
+        <v>602</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
@@ -6507,15 +6884,17 @@
       <c r="E39" s="12" t="s">
         <v>544</v>
       </c>
-      <c r="G39" s="4" t="s">
-        <v>792</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>793</v>
-      </c>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4" t="s">
-        <v>794</v>
+      <c r="G39" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>606</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
@@ -6529,15 +6908,15 @@
       <c r="E40" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2" t="s">
-        <v>797</v>
+      <c r="G40" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
@@ -6551,15 +6930,15 @@
       <c r="E41" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>798</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>799</v>
-      </c>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4" t="s">
-        <v>800</v>
+      <c r="G41" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
@@ -6573,15 +6952,15 @@
       <c r="E42" s="12" t="s">
         <v>671</v>
       </c>
-      <c r="G42" s="4" t="s">
-        <v>801</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>802</v>
-      </c>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4" t="s">
-        <v>803</v>
+      <c r="G42" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
@@ -6595,6 +6974,16 @@
       <c r="E43" s="12" t="s">
         <v>674</v>
       </c>
+      <c r="G43" s="12" t="s">
+        <v>726</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>721</v>
+      </c>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12" t="s">
+        <v>722</v>
+      </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
@@ -6608,13 +6997,17 @@
         <v>677</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>617</v>
+        <v>723</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>616</v>
-      </c>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
+        <v>724</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>725</v>
+      </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
@@ -6628,38 +7021,38 @@
         <v>680</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>618</v>
+        <v>727</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>619</v>
+        <v>728</v>
       </c>
       <c r="I45" s="12"/>
       <c r="J45" s="12" t="s">
-        <v>620</v>
+        <v>729</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="12" t="s">
         <v>752</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="12" t="s">
         <v>753</v>
       </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4" t="s">
+      <c r="D46" s="12"/>
+      <c r="E46" s="12" t="s">
         <v>754</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>621</v>
+        <v>730</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>622</v>
+        <v>731</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>414</v>
+        <v>733</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>623</v>
+        <v>732</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
@@ -6674,16 +7067,14 @@
         <v>757</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>624</v>
+        <v>792</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>625</v>
-      </c>
-      <c r="I47" s="12" t="s">
-        <v>627</v>
-      </c>
+        <v>793</v>
+      </c>
+      <c r="I47" s="12"/>
       <c r="J47" s="12" t="s">
-        <v>626</v>
+        <v>794</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
@@ -6697,15 +7088,15 @@
       <c r="E48" s="4" t="s">
         <v>760</v>
       </c>
-      <c r="G48" s="12" t="s">
-        <v>628</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>629</v>
-      </c>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12" t="s">
-        <v>630</v>
+      <c r="G48" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
@@ -6719,17 +7110,15 @@
       <c r="E49" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="G49" s="12" t="s">
-        <v>631</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>632</v>
-      </c>
-      <c r="I49" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="J49" s="12" t="s">
-        <v>633</v>
+      <c r="G49" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
@@ -6743,403 +7132,843 @@
       <c r="E50" s="4" t="s">
         <v>766</v>
       </c>
-      <c r="G50" s="12" t="s">
-        <v>634</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>635</v>
-      </c>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12" t="s">
-        <v>636</v>
+      <c r="G50" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="G51" s="12" t="s">
-        <v>637</v>
-      </c>
-      <c r="H51" s="12" t="s">
-        <v>638</v>
-      </c>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12" t="s">
-        <v>639</v>
+      <c r="B51" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="12" t="s">
-        <v>507</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>509</v>
-      </c>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="G52" s="12" t="s">
-        <v>640</v>
-      </c>
-      <c r="H52" s="12" t="s">
-        <v>641</v>
-      </c>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12" t="s">
-        <v>642</v>
+      <c r="B52" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="12" t="s">
-        <v>510</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>511</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>512</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>643</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>644</v>
-      </c>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12" t="s">
-        <v>645</v>
+      <c r="B53" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="12" t="s">
-        <v>514</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>516</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>517</v>
-      </c>
-      <c r="G54" s="12" t="s">
-        <v>734</v>
-      </c>
-      <c r="H54" s="12" t="s">
-        <v>735</v>
-      </c>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12" t="s">
-        <v>736</v>
+      <c r="B54" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4" t="s">
+        <v>903</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="12" t="s">
-        <v>518</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>519</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>407</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>520</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>737</v>
-      </c>
-      <c r="H55" s="12" t="s">
-        <v>738</v>
-      </c>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12" t="s">
-        <v>739</v>
+      <c r="B55" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>907</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="12" t="s">
-        <v>521</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>522</v>
-      </c>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12" t="s">
-        <v>523</v>
-      </c>
-      <c r="G56" s="12" t="s">
-        <v>740</v>
-      </c>
-      <c r="H56" s="12" t="s">
-        <v>741</v>
-      </c>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12" t="s">
-        <v>742</v>
+      <c r="B56" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4" t="s">
+        <v>910</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="12" t="s">
-        <v>524</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>525</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>407</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>526</v>
-      </c>
-      <c r="G57" s="12" t="s">
-        <v>743</v>
-      </c>
-      <c r="H57" s="12" t="s">
-        <v>744</v>
-      </c>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12" t="s">
-        <v>745</v>
+      <c r="B57" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>911</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="12" t="s">
-        <v>527</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>528</v>
-      </c>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12" t="s">
-        <v>529</v>
-      </c>
-      <c r="G58" s="12" t="s">
-        <v>746</v>
-      </c>
-      <c r="H58" s="12" t="s">
-        <v>747</v>
-      </c>
-      <c r="I58" s="12" t="s">
-        <v>446</v>
-      </c>
-      <c r="J58" s="12" t="s">
-        <v>748</v>
+      <c r="B58" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="12" t="s">
-        <v>530</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>531</v>
-      </c>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12" t="s">
-        <v>532</v>
-      </c>
-      <c r="G59" s="12" t="s">
-        <v>749</v>
-      </c>
-      <c r="H59" s="12" t="s">
-        <v>750</v>
-      </c>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12" t="s">
-        <v>751</v>
-      </c>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
-        <v>533</v>
+        <v>507</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>534</v>
+        <v>509</v>
       </c>
       <c r="D60" s="12"/>
-      <c r="E60" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>804</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>805</v>
-      </c>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4" t="s">
-        <v>806</v>
-      </c>
+      <c r="E60" s="12"/>
+      <c r="G60" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
-        <v>681</v>
+        <v>510</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>682</v>
-      </c>
-      <c r="D61" s="12"/>
+        <v>511</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>513</v>
+      </c>
       <c r="E61" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>808</v>
-      </c>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2" t="s">
-        <v>809</v>
+        <v>512</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>619</v>
+      </c>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
-        <v>684</v>
+        <v>514</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>685</v>
-      </c>
-      <c r="D62" s="12"/>
+        <v>515</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>516</v>
+      </c>
       <c r="E62" s="12" t="s">
-        <v>686</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>810</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>811</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="J62" s="4" t="s">
-        <v>812</v>
+        <v>517</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>621</v>
+      </c>
+      <c r="H62" s="12" t="s">
+        <v>622</v>
+      </c>
+      <c r="I62" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="J62" s="12" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63" s="12" t="s">
-        <v>687</v>
+        <v>518</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>688</v>
-      </c>
-      <c r="D63" s="12"/>
+        <v>519</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>407</v>
+      </c>
       <c r="E63" s="12" t="s">
-        <v>689</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>814</v>
-      </c>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4" t="s">
-        <v>815</v>
+        <v>520</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="H63" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="I63" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="J63" s="12" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
-        <v>690</v>
+        <v>521</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>691</v>
+        <v>522</v>
       </c>
       <c r="D64" s="12"/>
       <c r="E64" s="12" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="H64" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
-        <v>693</v>
+        <v>524</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>694</v>
-      </c>
-      <c r="D65" s="12"/>
+        <v>525</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>407</v>
+      </c>
       <c r="E65" s="12" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="H65" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="I65" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="J65" s="12" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
-        <v>696</v>
+        <v>527</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>697</v>
+        <v>528</v>
       </c>
       <c r="D66" s="12"/>
       <c r="E66" s="12" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="H66" s="12" t="s">
+        <v>635</v>
+      </c>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67" s="12" t="s">
-        <v>699</v>
+        <v>530</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>700</v>
+        <v>531</v>
       </c>
       <c r="D67" s="12"/>
       <c r="E67" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>641</v>
+      </c>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69" s="12" t="s">
+        <v>681</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>682</v>
+      </c>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>643</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>685</v>
+      </c>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12" t="s">
+        <v>686</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>734</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B71" s="12" t="s">
+        <v>687</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>688</v>
+      </c>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12" t="s">
+        <v>689</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>737</v>
+      </c>
+      <c r="H71" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72" s="12" t="s">
+        <v>690</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>691</v>
+      </c>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12" t="s">
+        <v>692</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>740</v>
+      </c>
+      <c r="H72" s="12" t="s">
+        <v>741</v>
+      </c>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B73" s="12" t="s">
+        <v>693</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>694</v>
+      </c>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12" t="s">
+        <v>695</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>743</v>
+      </c>
+      <c r="H73" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B74" s="12" t="s">
+        <v>696</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>697</v>
+      </c>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12" t="s">
+        <v>698</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>746</v>
+      </c>
+      <c r="H74" s="12" t="s">
+        <v>747</v>
+      </c>
+      <c r="I74" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="J74" s="12" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B75" s="12" t="s">
+        <v>699</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>700</v>
+      </c>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="4" t="s">
+      <c r="G75" s="12" t="s">
+        <v>749</v>
+      </c>
+      <c r="H75" s="12" t="s">
+        <v>750</v>
+      </c>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B76" s="12" t="s">
         <v>767</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C76" s="12" t="s">
         <v>768</v>
       </c>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4" t="s">
+      <c r="D76" s="12"/>
+      <c r="E76" s="12" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="4" t="s">
+      <c r="G76" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
         <v>770</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C77" s="4" t="s">
         <v>771</v>
       </c>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4" t="s">
+      <c r="D77" s="4"/>
+      <c r="E77" s="4" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="4" t="s">
+      <c r="G77" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B78" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C78" s="4" t="s">
         <v>774</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D78" s="4" t="s">
         <v>776</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="E78" s="4" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="4" t="s">
+      <c r="G78" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B79" s="4" t="s">
         <v>777</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C79" s="4" t="s">
         <v>778</v>
       </c>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4" t="s">
+      <c r="D79" s="4"/>
+      <c r="E79" s="4" t="s">
         <v>779</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B80" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>921</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>933</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B87" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>939</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4" t="s">
+        <v>941</v>
       </c>
     </row>
   </sheetData>

--- a/doc/realmGrinder.xlsx
+++ b/doc/realmGrinder.xlsx
@@ -17,6 +17,7 @@
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Upgrades!$A$3:$BQ$69</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Upgrades!$A$3:$BQ$69</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Upgrades!$A$3:$BQ$69</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Upgrades!$A$3:$BQ$69</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2960,7 +2961,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3010,6 +3011,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3104,30 +3109,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="4.72448979591837"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="4.72448979591837"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.72448979591837"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="4.72448979591837"/>
-    <col collapsed="false" hidden="false" max="22" min="11" style="0" width="4.72448979591837"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="3" width="4.72448979591837"/>
-    <col collapsed="false" hidden="false" max="29" min="24" style="0" width="4.72448979591837"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="3" width="4.72448979591837"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="4.72448979591837"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="2" width="4.72448979591837"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="3" width="4.72448979591837"/>
-    <col collapsed="false" hidden="false" max="36" min="35" style="0" width="4.72448979591837"/>
-    <col collapsed="false" hidden="false" max="44" min="37" style="1" width="4.72448979591837"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="4" width="4.72448979591837"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="4.72448979591837"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="1" width="4.72448979591837"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="4" width="4.72448979591837"/>
-    <col collapsed="false" hidden="false" max="50" min="49" style="2" width="4.72448979591837"/>
-    <col collapsed="false" hidden="false" max="56" min="51" style="0" width="4.72448979591837"/>
-    <col collapsed="false" hidden="false" max="57" min="57" style="2" width="4.72448979591837"/>
-    <col collapsed="false" hidden="false" max="61" min="58" style="0" width="4.72448979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="62" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="22" min="11" style="0" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="3" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="29" min="24" style="0" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="3" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="2" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="3" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="36" min="35" style="0" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="44" min="37" style="1" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="4" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="1" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="4" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="50" min="49" style="2" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="56" min="51" style="0" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="57" min="57" style="2" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="61" min="58" style="0" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="62" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="169.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4367,12 +4372,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.5255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.4744897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.1224489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4933,12 +4938,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="12" min="3" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="12" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5579,21 +5584,21 @@
   </sheetPr>
   <dimension ref="B2:M87"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I80" activeCellId="0" sqref="I80"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="54.9438775510204"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="41.3061224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="54.4030612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="40.765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6077,27 +6082,27 @@
         <v>535</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="1" t="s">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="13" t="s">
         <v>536</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="13" t="s">
         <v>537</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="13" t="s">
         <v>538</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="13" t="s">
         <v>539</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="11" t="s">
         <v>540</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="11" t="s">
         <v>541</v>
       </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1" t="s">
+      <c r="I22" s="11"/>
+      <c r="J22" s="11" t="s">
         <v>542</v>
       </c>
       <c r="M22" s="0" t="s">
@@ -6754,25 +6759,25 @@
         <v>721</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="1" t="s">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="11" t="s">
         <v>722</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="11" t="s">
         <v>723</v>
       </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1" t="s">
+      <c r="D51" s="11"/>
+      <c r="E51" s="11" t="s">
         <v>724</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G51" s="11" t="s">
         <v>725</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="H51" s="11" t="s">
         <v>726</v>
       </c>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1" t="s">
+      <c r="I51" s="11"/>
+      <c r="J51" s="11" t="s">
         <v>727</v>
       </c>
     </row>
@@ -7392,25 +7397,25 @@
         <v>891</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="1" t="s">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="13" t="s">
         <v>892</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="13" t="s">
         <v>893</v>
       </c>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1" t="s">
+      <c r="D80" s="13"/>
+      <c r="E80" s="13" t="s">
         <v>894</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="G80" s="11" t="s">
         <v>895</v>
       </c>
-      <c r="H80" s="1" t="s">
+      <c r="H80" s="11" t="s">
         <v>896</v>
       </c>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1" t="s">
+      <c r="I80" s="11"/>
+      <c r="J80" s="11" t="s">
         <v>897</v>
       </c>
     </row>

--- a/doc/realmGrinder.xlsx
+++ b/doc/realmGrinder.xlsx
@@ -2868,7 +2868,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2905,6 +2905,12 @@
         <bgColor rgb="FFDCE6F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2918,7 +2924,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2944,6 +2950,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5772,8 +5779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23:J23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6298,14 +6305,14 @@
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="15" t="s">
         <v>544</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="15" t="s">
         <v>545</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14" t="s">
+      <c r="D23" s="15"/>
+      <c r="E23" s="15" t="s">
         <v>546</v>
       </c>
       <c r="G23" s="14" t="s">

--- a/doc/realmGrinder.xlsx
+++ b/doc/realmGrinder.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="948">
   <si>
     <t>All Production</t>
   </si>
@@ -2853,6 +2853,24 @@
   </si>
   <si>
     <t>Research W400 &amp; A1200</t>
+  </si>
+  <si>
+    <t>Grandmaster Researcher</t>
+  </si>
+  <si>
+    <t>Exchange High Lord</t>
+  </si>
+  <si>
+    <t>Genealogist</t>
+  </si>
+  <si>
+    <t>Have a total of 300 lineage levels</t>
+  </si>
+  <si>
+    <t>Purchase 5000 royal exchanges</t>
+  </si>
+  <si>
+    <t>Research 18500 times</t>
   </si>
 </sst>
 </file>
@@ -2868,7 +2886,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2911,6 +2929,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFDEADA"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2924,7 +2948,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2948,9 +2972,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4578,7 +4603,7 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4679,7 +4704,7 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="14" t="s">
         <v>238</v>
       </c>
       <c r="C10" t="s">
@@ -5133,16 +5158,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N65"/>
+  <dimension ref="A2:N68"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.28515625"/>
-    <col min="2" max="2" width="18.28515625"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="12" width="8.28515625"/>
     <col min="13" max="13" width="11"/>
     <col min="14" max="14" width="9.7109375"/>
@@ -5494,7 +5519,7 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="14" t="s">
         <v>357</v>
       </c>
       <c r="C39" t="s">
@@ -5527,7 +5552,7 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="14" t="s">
         <v>363</v>
       </c>
       <c r="C42" t="s">
@@ -5538,7 +5563,7 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="14" t="s">
         <v>365</v>
       </c>
       <c r="C43" t="s">
@@ -5549,7 +5574,7 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="14" t="s">
         <v>367</v>
       </c>
       <c r="C44" t="s">
@@ -5611,7 +5636,7 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="14" t="s">
         <v>376</v>
       </c>
       <c r="C51" t="s">
@@ -5633,7 +5658,7 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="14" t="s">
         <v>380</v>
       </c>
       <c r="C53" t="s">
@@ -5707,7 +5732,7 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="14" t="s">
         <v>393</v>
       </c>
       <c r="C60" t="s">
@@ -5767,6 +5792,39 @@
       </c>
       <c r="C65" t="s">
         <v>404</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>942</v>
+      </c>
+      <c r="C66" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>943</v>
+      </c>
+      <c r="C67" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>944</v>
+      </c>
+      <c r="C68" t="s">
+        <v>945</v>
       </c>
     </row>
   </sheetData>
@@ -5780,7 +5838,7 @@
   <dimension ref="B2:M87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6278,16 +6336,16 @@
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="15" t="s">
         <v>536</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="15" t="s">
         <v>537</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="15" t="s">
         <v>538</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="15" t="s">
         <v>539</v>
       </c>
       <c r="G22" s="11" t="s">
@@ -6305,14 +6363,14 @@
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>544</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="14" t="s">
         <v>545</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15" t="s">
+      <c r="D23" s="14"/>
+      <c r="E23" s="14" t="s">
         <v>546</v>
       </c>
       <c r="G23" s="14" t="s">
@@ -6330,26 +6388,26 @@
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="16" t="s">
         <v>551</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="16" t="s">
         <v>552</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="16" t="s">
         <v>538</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="16" t="s">
         <v>553</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="14" t="s">
         <v>554</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="14" t="s">
         <v>555</v>
       </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1" t="s">
+      <c r="I24" s="14"/>
+      <c r="J24" s="14" t="s">
         <v>556</v>
       </c>
       <c r="M24" t="s">
@@ -6367,16 +6425,16 @@
       <c r="E25" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="14" t="s">
         <v>561</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="14" t="s">
         <v>562</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" s="14" t="s">
         <v>563</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J25" s="14" t="s">
         <v>564</v>
       </c>
       <c r="M25" t="s">
@@ -6987,50 +7045,50 @@
       <c r="E52" s="14" t="s">
         <v>730</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G52" s="13" t="s">
         <v>731</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="H52" s="13" t="s">
         <v>732</v>
       </c>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1" t="s">
+      <c r="I52" s="13"/>
+      <c r="J52" s="13" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="13" t="s">
         <v>734</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="13" t="s">
         <v>735</v>
       </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1" t="s">
+      <c r="D53" s="13"/>
+      <c r="E53" s="13" t="s">
         <v>736</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G53" s="13" t="s">
         <v>737</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="H53" s="13" t="s">
         <v>738</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="I53" s="13" t="s">
         <v>538</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="J53" s="13" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="16" t="s">
         <v>740</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="16" t="s">
         <v>741</v>
       </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1" t="s">
+      <c r="D54" s="16"/>
+      <c r="E54" s="16" t="s">
         <v>742</v>
       </c>
       <c r="G54" s="1" t="s">
@@ -7593,14 +7651,14 @@
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B80" s="13" t="s">
+      <c r="B80" s="15" t="s">
         <v>892</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C80" s="15" t="s">
         <v>893</v>
       </c>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13" t="s">
+      <c r="D80" s="15"/>
+      <c r="E80" s="15" t="s">
         <v>894</v>
       </c>
       <c r="G80" s="11" t="s">
@@ -7615,48 +7673,48 @@
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="13" t="s">
         <v>898</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="13" t="s">
         <v>899</v>
       </c>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1" t="s">
+      <c r="D81" s="13"/>
+      <c r="E81" s="13" t="s">
         <v>900</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="G81" s="16" t="s">
         <v>901</v>
       </c>
-      <c r="H81" s="1" t="s">
+      <c r="H81" s="16" t="s">
         <v>902</v>
       </c>
-      <c r="I81" s="1" t="s">
+      <c r="I81" s="16" t="s">
         <v>538</v>
       </c>
-      <c r="J81" s="1" t="s">
+      <c r="J81" s="16" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="13" t="s">
         <v>904</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="13" t="s">
         <v>905</v>
       </c>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1" t="s">
+      <c r="D82" s="13"/>
+      <c r="E82" s="13" t="s">
         <v>906</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="G82" s="13" t="s">
         <v>907</v>
       </c>
-      <c r="H82" s="1" t="s">
+      <c r="H82" s="13" t="s">
         <v>908</v>
       </c>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1" t="s">
+      <c r="I82" s="13"/>
+      <c r="J82" s="13" t="s">
         <v>909</v>
       </c>
     </row>

--- a/doc/realmGrinder.xlsx
+++ b/doc/realmGrinder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Upgrades" sheetId="1" r:id="rId1"/>
@@ -2931,7 +2931,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor rgb="FFFDEADA"/>
       </patternFill>
     </fill>
@@ -4602,8 +4602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5160,8 +5160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N68"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5837,8 +5837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7045,14 +7045,14 @@
       <c r="E52" s="14" t="s">
         <v>730</v>
       </c>
-      <c r="G52" s="13" t="s">
+      <c r="G52" s="14" t="s">
         <v>731</v>
       </c>
-      <c r="H52" s="13" t="s">
+      <c r="H52" s="14" t="s">
         <v>732</v>
       </c>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13" t="s">
+      <c r="I52" s="14"/>
+      <c r="J52" s="14" t="s">
         <v>733</v>
       </c>
     </row>

--- a/doc/realmGrinder.xlsx
+++ b/doc/realmGrinder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Upgrades" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="950">
   <si>
     <t>All Production</t>
   </si>
@@ -2871,6 +2871,12 @@
   </si>
   <si>
     <t>Research 18500 times</t>
+  </si>
+  <si>
+    <t>Obsidian Shard</t>
+  </si>
+  <si>
+    <t>R75+</t>
   </si>
 </sst>
 </file>
@@ -4600,10 +4606,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4721,6 +4727,22 @@
       <c r="C11" t="s">
         <v>241</v>
       </c>
+      <c r="E11">
+        <f>0.005</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F11">
+        <f>1-(1-0.005)^10</f>
+        <v>4.8889869534228025E-2</v>
+      </c>
+      <c r="G11">
+        <f>1-(1-0.005)^100</f>
+        <v>0.3942295635092713</v>
+      </c>
+      <c r="H11">
+        <f>1-(1-0.005)^1000</f>
+        <v>0.99334603142116795</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -4744,319 +4766,319 @@
         <v>245</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>246</v>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>948</v>
+      </c>
+      <c r="C14" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="C21" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
+      </c>
+      <c r="C22" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="C24" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C25" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>260</v>
+        <v>258</v>
+      </c>
+      <c r="C26" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="C27" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
+      </c>
+      <c r="C28" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>16</v>
-      </c>
-      <c r="B30" t="s">
-        <v>265</v>
-      </c>
-      <c r="C30" t="s">
-        <v>266</v>
+        <v>15</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>17</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>267</v>
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
+        <v>265</v>
       </c>
       <c r="C31" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C32" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C33" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
+      </c>
+      <c r="C34" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="C35" t="s">
-        <v>275</v>
-      </c>
-      <c r="D35">
-        <v>1048</v>
-      </c>
-      <c r="E35">
-        <f>D35/30000</f>
-        <v>3.493333333333333E-2</v>
-      </c>
-      <c r="F35">
-        <f>1-(1-E35)^10</f>
-        <v>0.29923378801020284</v>
-      </c>
-      <c r="G35">
-        <f>1-(1-E35)^100</f>
-        <v>0.97144175348906103</v>
-      </c>
-      <c r="H35">
-        <f>1-(1-E35)^1000</f>
-        <v>0.99999999999999967</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C36" t="s">
-        <v>277</v>
+        <v>275</v>
+      </c>
+      <c r="D36">
+        <v>1048</v>
+      </c>
+      <c r="E36">
+        <f>D36/30000</f>
+        <v>3.493333333333333E-2</v>
+      </c>
+      <c r="F36">
+        <f>1-(1-E36)^10</f>
+        <v>0.29923378801020284</v>
+      </c>
+      <c r="G36">
+        <f>1-(1-E36)^100</f>
+        <v>0.97144175348906103</v>
+      </c>
+      <c r="H36">
+        <f>1-(1-E36)^1000</f>
+        <v>0.99999999999999967</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C37" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
+      </c>
+      <c r="C38" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="C39" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
+      </c>
+      <c r="C40" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="C41" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C42" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C43" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>30</v>
-      </c>
-      <c r="B44" t="s">
-        <v>290</v>
+        <v>29</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>288</v>
       </c>
       <c r="C44" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C45" t="s">
         <v>291</v>
@@ -5064,76 +5086,76 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>32</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>293</v>
+        <v>31</v>
+      </c>
+      <c r="B46" t="s">
+        <v>292</v>
       </c>
       <c r="C46" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C47" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C48" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>35</v>
-      </c>
-      <c r="B49" t="s">
-        <v>299</v>
+        <v>34</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>297</v>
       </c>
       <c r="C49" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>36</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>301</v>
+        <v>35</v>
+      </c>
+      <c r="B50" t="s">
+        <v>299</v>
       </c>
       <c r="C50" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C51" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C52" t="s">
         <v>304</v>
@@ -5141,12 +5163,23 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
+        <v>38</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="C53" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>39</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>306</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" t="s">
         <v>307</v>
       </c>
     </row>
@@ -5160,8 +5193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5669,7 +5702,7 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="14" t="s">
         <v>382</v>
       </c>
       <c r="C54" t="s">
@@ -5837,8 +5870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M87"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83:J83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6415,14 +6448,14 @@
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="13" t="s">
         <v>559</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1" t="s">
+      <c r="D25" s="13"/>
+      <c r="E25" s="13" t="s">
         <v>560</v>
       </c>
       <c r="G25" s="14" t="s">
@@ -7057,26 +7090,26 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="14" t="s">
         <v>734</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="14" t="s">
         <v>735</v>
       </c>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13" t="s">
+      <c r="D53" s="14"/>
+      <c r="E53" s="14" t="s">
         <v>736</v>
       </c>
-      <c r="G53" s="13" t="s">
+      <c r="G53" s="14" t="s">
         <v>737</v>
       </c>
-      <c r="H53" s="13" t="s">
+      <c r="H53" s="14" t="s">
         <v>738</v>
       </c>
-      <c r="I53" s="13" t="s">
+      <c r="I53" s="14" t="s">
         <v>538</v>
       </c>
-      <c r="J53" s="13" t="s">
+      <c r="J53" s="14" t="s">
         <v>739</v>
       </c>
     </row>
@@ -7091,14 +7124,14 @@
       <c r="E54" s="16" t="s">
         <v>742</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G54" s="13" t="s">
         <v>743</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="H54" s="13" t="s">
         <v>744</v>
       </c>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1" t="s">
+      <c r="I54" s="13"/>
+      <c r="J54" s="13" t="s">
         <v>745</v>
       </c>
     </row>
@@ -7673,14 +7706,14 @@
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B81" s="13" t="s">
+      <c r="B81" s="14" t="s">
         <v>898</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C81" s="14" t="s">
         <v>899</v>
       </c>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13" t="s">
+      <c r="D81" s="14"/>
+      <c r="E81" s="14" t="s">
         <v>900</v>
       </c>
       <c r="G81" s="16" t="s">
@@ -7697,48 +7730,48 @@
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B82" s="13" t="s">
+      <c r="B82" s="14" t="s">
         <v>904</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C82" s="14" t="s">
         <v>905</v>
       </c>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13" t="s">
+      <c r="D82" s="14"/>
+      <c r="E82" s="14" t="s">
         <v>906</v>
       </c>
-      <c r="G82" s="13" t="s">
+      <c r="G82" s="14" t="s">
         <v>907</v>
       </c>
-      <c r="H82" s="13" t="s">
+      <c r="H82" s="14" t="s">
         <v>908</v>
       </c>
-      <c r="I82" s="13"/>
-      <c r="J82" s="13" t="s">
+      <c r="I82" s="14"/>
+      <c r="J82" s="14" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="13" t="s">
         <v>910</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="13" t="s">
         <v>911</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" s="13" t="s">
         <v>538</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E83" s="13" t="s">
         <v>912</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="G83" s="13" t="s">
         <v>913</v>
       </c>
-      <c r="H83" s="1" t="s">
+      <c r="H83" s="13" t="s">
         <v>914</v>
       </c>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1" t="s">
+      <c r="I83" s="13"/>
+      <c r="J83" s="13" t="s">
         <v>915</v>
       </c>
     </row>

--- a/doc/realmGrinder.xlsx
+++ b/doc/realmGrinder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Upgrades" sheetId="1" r:id="rId1"/>
@@ -4608,7 +4608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -5193,8 +5193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N68"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5798,7 +5798,7 @@
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="14" t="s">
         <v>399</v>
       </c>
       <c r="C63" t="s">
@@ -5870,8 +5870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M87"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83:J83"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83:E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7124,14 +7124,14 @@
       <c r="E54" s="16" t="s">
         <v>742</v>
       </c>
-      <c r="G54" s="13" t="s">
+      <c r="G54" s="14" t="s">
         <v>743</v>
       </c>
-      <c r="H54" s="13" t="s">
+      <c r="H54" s="14" t="s">
         <v>744</v>
       </c>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13" t="s">
+      <c r="I54" s="14"/>
+      <c r="J54" s="14" t="s">
         <v>745</v>
       </c>
     </row>
@@ -7752,26 +7752,26 @@
       </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B83" s="13" t="s">
+      <c r="B83" s="14" t="s">
         <v>910</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C83" s="14" t="s">
         <v>911</v>
       </c>
-      <c r="D83" s="13" t="s">
+      <c r="D83" s="14" t="s">
         <v>538</v>
       </c>
-      <c r="E83" s="13" t="s">
+      <c r="E83" s="14" t="s">
         <v>912</v>
       </c>
-      <c r="G83" s="13" t="s">
+      <c r="G83" s="14" t="s">
         <v>913</v>
       </c>
-      <c r="H83" s="13" t="s">
+      <c r="H83" s="14" t="s">
         <v>914</v>
       </c>
-      <c r="I83" s="13"/>
-      <c r="J83" s="13" t="s">
+      <c r="I83" s="14"/>
+      <c r="J83" s="14" t="s">
         <v>915</v>
       </c>
     </row>

--- a/doc/realmGrinder.xlsx
+++ b/doc/realmGrinder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Upgrades" sheetId="1" r:id="rId1"/>
@@ -2954,7 +2954,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2978,7 +2978,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -4606,10 +4605,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4622,7 +4621,7 @@
     <col min="6" max="1025" width="8.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E1" s="10" t="s">
         <v>224</v>
       </c>
@@ -4636,7 +4635,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4644,7 +4643,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4652,7 +4651,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4660,7 +4659,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4668,7 +4667,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4676,7 +4675,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4684,7 +4683,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4695,7 +4694,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4706,22 +4705,22 @@
         <v>237</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>238</v>
       </c>
       <c r="C10" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C11" t="s">
@@ -4743,8 +4742,15 @@
         <f>1-(1-0.005)^1000</f>
         <v>0.99334603142116795</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <f>1-(1-0.005)^J11</f>
+        <v>0.36309117410612124</v>
+      </c>
+      <c r="J11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4755,7 +4761,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4766,7 +4772,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4777,7 +4783,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -5193,8 +5199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N68"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5552,7 +5558,7 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="13" t="s">
         <v>357</v>
       </c>
       <c r="C39" t="s">
@@ -5585,7 +5591,7 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="13" t="s">
         <v>363</v>
       </c>
       <c r="C42" t="s">
@@ -5596,7 +5602,7 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="13" t="s">
         <v>365</v>
       </c>
       <c r="C43" t="s">
@@ -5607,7 +5613,7 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="13" t="s">
         <v>367</v>
       </c>
       <c r="C44" t="s">
@@ -5618,7 +5624,7 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="13" t="s">
         <v>369</v>
       </c>
       <c r="C45" t="s">
@@ -5669,7 +5675,7 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="13" t="s">
         <v>376</v>
       </c>
       <c r="C51" t="s">
@@ -5680,7 +5686,7 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="13" t="s">
         <v>378</v>
       </c>
       <c r="C52" t="s">
@@ -5691,7 +5697,7 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="13" t="s">
         <v>380</v>
       </c>
       <c r="C53" t="s">
@@ -5702,7 +5708,7 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="13" t="s">
         <v>382</v>
       </c>
       <c r="C54" t="s">
@@ -5713,7 +5719,7 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="13" t="s">
         <v>384</v>
       </c>
       <c r="C55" t="s">
@@ -5765,7 +5771,7 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="13" t="s">
         <v>393</v>
       </c>
       <c r="C60" t="s">
@@ -5798,7 +5804,7 @@
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="13" t="s">
         <v>399</v>
       </c>
       <c r="C63" t="s">
@@ -5820,7 +5826,7 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="13" t="s">
         <v>403</v>
       </c>
       <c r="C65" t="s">
@@ -5870,8 +5876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83:E83"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55:J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6369,16 +6375,16 @@
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>536</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="14" t="s">
         <v>537</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="14" t="s">
         <v>538</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="14" t="s">
         <v>539</v>
       </c>
       <c r="G22" s="11" t="s">
@@ -6396,24 +6402,24 @@
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>544</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="13" t="s">
         <v>545</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14" t="s">
+      <c r="D23" s="13"/>
+      <c r="E23" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="13" t="s">
         <v>547</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="H23" s="13" t="s">
         <v>548</v>
       </c>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14" t="s">
+      <c r="I23" s="13"/>
+      <c r="J23" s="13" t="s">
         <v>549</v>
       </c>
       <c r="M23" t="s">
@@ -6421,26 +6427,26 @@
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
         <v>551</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="15" t="s">
         <v>552</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="15" t="s">
         <v>538</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="15" t="s">
         <v>553</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="13" t="s">
         <v>554</v>
       </c>
-      <c r="H24" s="14" t="s">
+      <c r="H24" s="13" t="s">
         <v>555</v>
       </c>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14" t="s">
+      <c r="I24" s="13"/>
+      <c r="J24" s="13" t="s">
         <v>556</v>
       </c>
       <c r="M24" t="s">
@@ -6458,16 +6464,16 @@
       <c r="E25" s="13" t="s">
         <v>560</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="13" t="s">
         <v>561</v>
       </c>
-      <c r="H25" s="14" t="s">
+      <c r="H25" s="13" t="s">
         <v>562</v>
       </c>
-      <c r="I25" s="14" t="s">
+      <c r="I25" s="13" t="s">
         <v>563</v>
       </c>
-      <c r="J25" s="14" t="s">
+      <c r="J25" s="13" t="s">
         <v>564</v>
       </c>
       <c r="M25" t="s">
@@ -6475,26 +6481,26 @@
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="13" t="s">
         <v>566</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="13" t="s">
         <v>567</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1" t="s">
+      <c r="D26" s="13"/>
+      <c r="E26" s="13" t="s">
         <v>568</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="13" t="s">
         <v>569</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="13" t="s">
         <v>570</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" s="13" t="s">
         <v>571</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J26" s="13" t="s">
         <v>572</v>
       </c>
       <c r="M26" t="s">
@@ -7068,96 +7074,96 @@
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="13" t="s">
         <v>728</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="13" t="s">
         <v>729</v>
       </c>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14" t="s">
+      <c r="D52" s="13"/>
+      <c r="E52" s="13" t="s">
         <v>730</v>
       </c>
-      <c r="G52" s="14" t="s">
+      <c r="G52" s="13" t="s">
         <v>731</v>
       </c>
-      <c r="H52" s="14" t="s">
+      <c r="H52" s="13" t="s">
         <v>732</v>
       </c>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14" t="s">
+      <c r="I52" s="13"/>
+      <c r="J52" s="13" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="13" t="s">
         <v>734</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="13" t="s">
         <v>735</v>
       </c>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14" t="s">
+      <c r="D53" s="13"/>
+      <c r="E53" s="13" t="s">
         <v>736</v>
       </c>
-      <c r="G53" s="14" t="s">
+      <c r="G53" s="13" t="s">
         <v>737</v>
       </c>
-      <c r="H53" s="14" t="s">
+      <c r="H53" s="13" t="s">
         <v>738</v>
       </c>
-      <c r="I53" s="14" t="s">
+      <c r="I53" s="13" t="s">
         <v>538</v>
       </c>
-      <c r="J53" s="14" t="s">
+      <c r="J53" s="13" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="15" t="s">
         <v>740</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="15" t="s">
         <v>741</v>
       </c>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16" t="s">
+      <c r="D54" s="15"/>
+      <c r="E54" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="G54" s="14" t="s">
+      <c r="G54" s="13" t="s">
         <v>743</v>
       </c>
-      <c r="H54" s="14" t="s">
+      <c r="H54" s="13" t="s">
         <v>744</v>
       </c>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14" t="s">
+      <c r="I54" s="13"/>
+      <c r="J54" s="13" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="13" t="s">
         <v>746</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="13" t="s">
         <v>747</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="13" t="s">
         <v>748</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" s="13" t="s">
         <v>749</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G55" s="13" t="s">
         <v>750</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="H55" s="13" t="s">
         <v>751</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="I55" s="13" t="s">
         <v>752</v>
       </c>
-      <c r="J55" s="1" t="s">
+      <c r="J55" s="13" t="s">
         <v>753</v>
       </c>
     </row>
@@ -7684,14 +7690,14 @@
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B80" s="15" t="s">
+      <c r="B80" s="14" t="s">
         <v>892</v>
       </c>
-      <c r="C80" s="15" t="s">
+      <c r="C80" s="14" t="s">
         <v>893</v>
       </c>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15" t="s">
+      <c r="D80" s="14"/>
+      <c r="E80" s="14" t="s">
         <v>894</v>
       </c>
       <c r="G80" s="11" t="s">
@@ -7706,98 +7712,98 @@
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B81" s="14" t="s">
+      <c r="B81" s="13" t="s">
         <v>898</v>
       </c>
-      <c r="C81" s="14" t="s">
+      <c r="C81" s="13" t="s">
         <v>899</v>
       </c>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14" t="s">
+      <c r="D81" s="13"/>
+      <c r="E81" s="13" t="s">
         <v>900</v>
       </c>
-      <c r="G81" s="16" t="s">
+      <c r="G81" s="15" t="s">
         <v>901</v>
       </c>
-      <c r="H81" s="16" t="s">
+      <c r="H81" s="15" t="s">
         <v>902</v>
       </c>
-      <c r="I81" s="16" t="s">
+      <c r="I81" s="15" t="s">
         <v>538</v>
       </c>
-      <c r="J81" s="16" t="s">
+      <c r="J81" s="15" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B82" s="14" t="s">
+      <c r="B82" s="13" t="s">
         <v>904</v>
       </c>
-      <c r="C82" s="14" t="s">
+      <c r="C82" s="13" t="s">
         <v>905</v>
       </c>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14" t="s">
+      <c r="D82" s="13"/>
+      <c r="E82" s="13" t="s">
         <v>906</v>
       </c>
-      <c r="G82" s="14" t="s">
+      <c r="G82" s="13" t="s">
         <v>907</v>
       </c>
-      <c r="H82" s="14" t="s">
+      <c r="H82" s="13" t="s">
         <v>908</v>
       </c>
-      <c r="I82" s="14"/>
-      <c r="J82" s="14" t="s">
+      <c r="I82" s="13"/>
+      <c r="J82" s="13" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B83" s="14" t="s">
+      <c r="B83" s="13" t="s">
         <v>910</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="C83" s="13" t="s">
         <v>911</v>
       </c>
-      <c r="D83" s="14" t="s">
+      <c r="D83" s="13" t="s">
         <v>538</v>
       </c>
-      <c r="E83" s="14" t="s">
+      <c r="E83" s="13" t="s">
         <v>912</v>
       </c>
-      <c r="G83" s="14" t="s">
+      <c r="G83" s="13" t="s">
         <v>913</v>
       </c>
-      <c r="H83" s="14" t="s">
+      <c r="H83" s="13" t="s">
         <v>914</v>
       </c>
-      <c r="I83" s="14"/>
-      <c r="J83" s="14" t="s">
+      <c r="I83" s="13"/>
+      <c r="J83" s="13" t="s">
         <v>915</v>
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="13" t="s">
         <v>916</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="13" t="s">
         <v>917</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" s="13" t="s">
         <v>918</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E84" s="13" t="s">
         <v>919</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="G84" s="13" t="s">
         <v>920</v>
       </c>
-      <c r="H84" s="1" t="s">
+      <c r="H84" s="13" t="s">
         <v>921</v>
       </c>
-      <c r="I84" s="1" t="s">
+      <c r="I84" s="13" t="s">
         <v>922</v>
       </c>
-      <c r="J84" s="1" t="s">
+      <c r="J84" s="13" t="s">
         <v>923</v>
       </c>
     </row>

--- a/doc/realmGrinder.xlsx
+++ b/doc/realmGrinder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Upgrades" sheetId="1" r:id="rId1"/>
@@ -2883,6 +2883,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2948,7 +2951,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2973,6 +2976,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4599,8 +4603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4939,7 +4943,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>18</v>
       </c>
@@ -4950,7 +4954,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>19</v>
       </c>
@@ -4961,7 +4965,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>20</v>
       </c>
@@ -4969,7 +4973,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>21</v>
       </c>
@@ -4979,27 +4983,8 @@
       <c r="C36" t="s">
         <v>277</v>
       </c>
-      <c r="D36">
-        <v>1048</v>
-      </c>
-      <c r="E36">
-        <f>D36/30000</f>
-        <v>3.493333333333333E-2</v>
-      </c>
-      <c r="F36">
-        <f>1-(1-E36)^10</f>
-        <v>0.29923378801020284</v>
-      </c>
-      <c r="G36">
-        <f>1-(1-E36)^100</f>
-        <v>0.97144175348906103</v>
-      </c>
-      <c r="H36">
-        <f>1-(1-E36)^1000</f>
-        <v>0.99999999999999967</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>22</v>
       </c>
@@ -5010,7 +4995,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>23</v>
       </c>
@@ -5021,7 +5006,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>24</v>
       </c>
@@ -5029,7 +5014,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>25</v>
       </c>
@@ -5040,7 +5025,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>26</v>
       </c>
@@ -5048,7 +5033,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>27</v>
       </c>
@@ -5059,7 +5044,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>28</v>
       </c>
@@ -5070,7 +5055,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>29</v>
       </c>
@@ -5081,7 +5066,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>30</v>
       </c>
@@ -5092,7 +5077,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>31</v>
       </c>
@@ -5103,7 +5088,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>32</v>
       </c>
@@ -5114,7 +5099,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>33</v>
       </c>
@@ -5199,10 +5184,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N68"/>
+  <dimension ref="A2:O68"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5212,7 +5197,8 @@
     <col min="3" max="12" width="8.140625"/>
     <col min="13" max="13" width="10.85546875"/>
     <col min="14" max="14" width="9.5703125"/>
-    <col min="15" max="1025" width="8.140625"/>
+    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="1025" width="8.140625"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -5348,7 +5334,7 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="13" t="s">
         <v>325</v>
       </c>
       <c r="C17" t="s">
@@ -5490,7 +5476,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5501,7 +5487,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5512,7 +5498,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5523,7 +5509,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5534,7 +5520,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5545,7 +5531,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5556,7 +5542,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5567,7 +5553,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5578,7 +5564,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5589,7 +5575,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5599,8 +5585,9 @@
       <c r="C42" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="O42" s="14"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5611,7 +5598,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5622,7 +5609,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5633,7 +5620,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5641,7 +5628,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5649,7 +5636,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5732,7 +5719,7 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="13" t="s">
         <v>388</v>
       </c>
       <c r="C56" t="s">

--- a/doc/realmGrinder.xlsx
+++ b/doc/realmGrinder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Upgrades" sheetId="1" r:id="rId1"/>
@@ -4603,7 +4603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -5186,7 +5186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
@@ -5865,7 +5865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M87"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>

--- a/doc/realmGrinder.xlsx
+++ b/doc/realmGrinder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Upgrades" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="956">
   <si>
     <t>All Production</t>
   </si>
@@ -2877,6 +2877,24 @@
   </si>
   <si>
     <t>Research W400 &amp; A1200</t>
+  </si>
+  <si>
+    <t>mana regen</t>
+  </si>
+  <si>
+    <t>spell duration</t>
+  </si>
+  <si>
+    <t>spell cost</t>
+  </si>
+  <si>
+    <t>number of spells on autocast</t>
+  </si>
+  <si>
+    <t>Activity gain</t>
+  </si>
+  <si>
+    <t>offline time</t>
   </si>
 </sst>
 </file>
@@ -4603,8 +4621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5186,8 +5204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O68"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5216,6 +5234,12 @@
       <c r="B3" s="11" t="s">
         <v>311</v>
       </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>955</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -5224,6 +5248,12 @@
       <c r="B4" s="11" t="s">
         <v>312</v>
       </c>
+      <c r="M4">
+        <v>1115</v>
+      </c>
+      <c r="N4" t="s">
+        <v>950</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -5232,8 +5262,12 @@
       <c r="B5" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
+      <c r="M5" s="12">
+        <v>20</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>951</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -5242,7 +5276,12 @@
       <c r="B6" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="M6" s="12"/>
+      <c r="M6" s="12">
+        <v>1000</v>
+      </c>
+      <c r="N6" t="s">
+        <v>952</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -5251,7 +5290,12 @@
       <c r="B7" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="M7" s="12"/>
+      <c r="M7" s="12">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>953</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -5269,7 +5313,13 @@
       <c r="B9" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="M9" s="12"/>
+      <c r="M9" s="12">
+        <f>M3*MIN(1,M4*M5/((M6^1.5)*M7))</f>
+        <v>0.70518791821754889</v>
+      </c>
+      <c r="N9" t="s">
+        <v>954</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">

--- a/doc/realmGrinder.xlsx
+++ b/doc/realmGrinder.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="957">
   <si>
     <t>All Production</t>
   </si>
@@ -2895,6 +2895,9 @@
   </si>
   <si>
     <t>offline time</t>
+  </si>
+  <si>
+    <t>Rubies</t>
   </si>
 </sst>
 </file>
@@ -4621,7 +4624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -5205,7 +5208,7 @@
   <dimension ref="A2:O68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5347,6 +5350,9 @@
       <c r="B12" s="11" t="s">
         <v>320</v>
       </c>
+      <c r="M12" t="s">
+        <v>956</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -5355,6 +5361,13 @@
       <c r="B13" s="11" t="s">
         <v>321</v>
       </c>
+      <c r="M13">
+        <v>19</v>
+      </c>
+      <c r="N13">
+        <f>25*M13*(M13+1)</f>
+        <v>9500</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -5363,6 +5376,9 @@
       <c r="B14" s="11" t="s">
         <v>322</v>
       </c>
+      <c r="M14">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -5854,7 +5870,7 @@
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="13" t="s">
         <v>403</v>
       </c>
       <c r="C64" t="s">

--- a/doc/realmGrinder.xlsx
+++ b/doc/realmGrinder.xlsx
@@ -5208,7 +5208,7 @@
   <dimension ref="A2:O68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5252,7 +5252,7 @@
         <v>312</v>
       </c>
       <c r="M4">
-        <v>1115</v>
+        <v>3331.19</v>
       </c>
       <c r="N4" t="s">
         <v>950</v>
@@ -5266,7 +5266,7 @@
         <v>313</v>
       </c>
       <c r="M5" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N5" s="12" t="s">
         <v>951</v>
@@ -5280,7 +5280,7 @@
         <v>314</v>
       </c>
       <c r="M6" s="12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N6" t="s">
         <v>952</v>
@@ -5318,7 +5318,7 @@
       </c>
       <c r="M9" s="12">
         <f>M3*MIN(1,M4*M5/((M6^1.5)*M7))</f>
-        <v>0.70518791821754889</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
         <v>954</v>

--- a/doc/realmGrinder.xlsx
+++ b/doc/realmGrinder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Upgrades" sheetId="1" r:id="rId1"/>
@@ -4622,10 +4622,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4638,7 +4638,7 @@
     <col min="6" max="1025" width="8.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E1" s="10" t="s">
         <v>224</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4743,41 +4743,8 @@
       <c r="C11" t="s">
         <v>241</v>
       </c>
-      <c r="E11">
-        <f>0.005</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F11">
-        <f>1-(1-0.005)^10</f>
-        <v>4.8889869534228025E-2</v>
-      </c>
-      <c r="G11">
-        <f>1-(1-0.005)^100</f>
-        <v>0.3942295635092713</v>
-      </c>
-      <c r="H11">
-        <f>1-(1-0.005)^1000</f>
-        <v>0.99334603142116795</v>
-      </c>
-      <c r="I11">
-        <f>1-(1-0.005)^J11</f>
-        <v>0.94426929851989116</v>
-      </c>
-      <c r="J11">
-        <f>SUM(K11:P11)</f>
-        <v>576</v>
-      </c>
-      <c r="K11">
-        <v>90</v>
-      </c>
-      <c r="L11">
-        <v>182</v>
-      </c>
-      <c r="M11">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4788,18 +4755,18 @@
         <v>243</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="13" t="s">
         <v>244</v>
       </c>
       <c r="C13" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4810,7 +4777,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -4964,7 +4931,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>18</v>
       </c>
@@ -4975,7 +4942,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>19</v>
       </c>
@@ -4986,7 +4953,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>20</v>
       </c>
@@ -4994,7 +4961,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>21</v>
       </c>
@@ -5005,7 +4972,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>22</v>
       </c>
@@ -5016,7 +4983,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>23</v>
       </c>
@@ -5027,7 +4994,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>24</v>
       </c>
@@ -5035,7 +5002,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>25</v>
       </c>
@@ -5046,7 +5013,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>26</v>
       </c>
@@ -5054,7 +5021,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>27</v>
       </c>
@@ -5065,7 +5032,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>28</v>
       </c>
@@ -5076,7 +5043,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>29</v>
       </c>
@@ -5086,8 +5053,17 @@
       <c r="C44" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>10</v>
+      </c>
+      <c r="G44">
+        <v>100</v>
+      </c>
+      <c r="H44">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>30</v>
       </c>
@@ -5097,8 +5073,27 @@
       <c r="C45" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>4500</v>
+      </c>
+      <c r="E45">
+        <f>D45/400000</f>
+        <v>1.125E-2</v>
+      </c>
+      <c r="F45">
+        <f>1-(1-E45)^10</f>
+        <v>0.10697222806926798</v>
+      </c>
+      <c r="G45">
+        <f>1-(1-E45)^100</f>
+        <v>0.67741092845002326</v>
+      </c>
+      <c r="H45">
+        <f>1-(1-E45)^1000</f>
+        <v>0.99998779615998323</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>31</v>
       </c>
@@ -5109,7 +5104,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>32</v>
       </c>
@@ -5120,7 +5115,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>33</v>
       </c>
@@ -5207,7 +5202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>

--- a/doc/realmGrinder.xlsx
+++ b/doc/realmGrinder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Upgrades" sheetId="1" r:id="rId1"/>
@@ -4624,8 +4624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5202,8 +5202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O68"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5247,7 +5247,7 @@
         <v>312</v>
       </c>
       <c r="M4">
-        <v>3331.19</v>
+        <v>1658</v>
       </c>
       <c r="N4" t="s">
         <v>950</v>
@@ -5261,7 +5261,7 @@
         <v>313</v>
       </c>
       <c r="M5" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N5" s="12" t="s">
         <v>951</v>
@@ -5275,7 +5275,7 @@
         <v>314</v>
       </c>
       <c r="M6" s="12">
-        <v>2000</v>
+        <v>819</v>
       </c>
       <c r="N6" t="s">
         <v>952</v>
@@ -5289,7 +5289,7 @@
         <v>315</v>
       </c>
       <c r="M7" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N7" t="s">
         <v>953</v>
@@ -5313,7 +5313,7 @@
       </c>
       <c r="M9" s="12">
         <f>M3*MIN(1,M4*M5/((M6^1.5)*M7))</f>
-        <v>1</v>
+        <v>0.23579653497285843</v>
       </c>
       <c r="N9" t="s">
         <v>954</v>

--- a/doc/realmGrinder.xlsx
+++ b/doc/realmGrinder.xlsx
@@ -5203,7 +5203,7 @@
   <dimension ref="A2:O68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5247,7 +5247,7 @@
         <v>312</v>
       </c>
       <c r="M4">
-        <v>1658</v>
+        <v>1007</v>
       </c>
       <c r="N4" t="s">
         <v>950</v>
@@ -5261,7 +5261,7 @@
         <v>313</v>
       </c>
       <c r="M5" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N5" s="12" t="s">
         <v>951</v>
@@ -5275,7 +5275,7 @@
         <v>314</v>
       </c>
       <c r="M6" s="12">
-        <v>819</v>
+        <v>1000</v>
       </c>
       <c r="N6" t="s">
         <v>952</v>
@@ -5289,7 +5289,7 @@
         <v>315</v>
       </c>
       <c r="M7" s="12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
         <v>953</v>
@@ -5313,7 +5313,7 @@
       </c>
       <c r="M9" s="12">
         <f>M3*MIN(1,M4*M5/((M6^1.5)*M7))</f>
-        <v>0.23579653497285843</v>
+        <v>0.79610340094738985</v>
       </c>
       <c r="N9" t="s">
         <v>954</v>

--- a/doc/realmGrinder.xlsx
+++ b/doc/realmGrinder.xlsx
@@ -5203,7 +5203,7 @@
   <dimension ref="A2:O68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5247,7 +5247,7 @@
         <v>312</v>
       </c>
       <c r="M4">
-        <v>1007</v>
+        <v>5856</v>
       </c>
       <c r="N4" t="s">
         <v>950</v>
@@ -5261,7 +5261,7 @@
         <v>313</v>
       </c>
       <c r="M5" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N5" s="12" t="s">
         <v>951</v>
@@ -5289,7 +5289,7 @@
         <v>315</v>
       </c>
       <c r="M7" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7" t="s">
         <v>953</v>
@@ -5313,7 +5313,7 @@
       </c>
       <c r="M9" s="12">
         <f>M3*MIN(1,M4*M5/((M6^1.5)*M7))</f>
-        <v>0.79610340094738985</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
         <v>954</v>

--- a/doc/realmGrinder.xlsx
+++ b/doc/realmGrinder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Upgrades" sheetId="1" r:id="rId1"/>
@@ -2916,7 +2916,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2959,6 +2959,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFDEADA"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2972,7 +2978,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2998,6 +3004,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4624,8 +4631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5074,23 +5081,23 @@
         <v>293</v>
       </c>
       <c r="D45">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="E45">
         <f>D45/400000</f>
-        <v>1.125E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F45">
         <f>1-(1-E45)^10</f>
-        <v>0.10697222806926798</v>
+        <v>0.14026955774085692</v>
       </c>
       <c r="G45">
         <f>1-(1-E45)^100</f>
-        <v>0.67741092845002326</v>
+        <v>0.77939108953061242</v>
       </c>
       <c r="H45">
         <f>1-(1-E45)^1000</f>
-        <v>0.99998779615998323</v>
+        <v>0.9999997269573454</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -5202,7 +5209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
@@ -5927,7 +5934,7 @@
   <dimension ref="B2:M87"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6558,24 +6565,24 @@
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="15" t="s">
         <v>582</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="15" t="s">
         <v>583</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1" t="s">
+      <c r="D27" s="15"/>
+      <c r="E27" s="15" t="s">
         <v>584</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="15" t="s">
         <v>585</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" s="15" t="s">
         <v>586</v>
       </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1" t="s">
+      <c r="I27" s="15"/>
+      <c r="J27" s="15" t="s">
         <v>587</v>
       </c>
       <c r="M27" t="s">
@@ -7228,14 +7235,14 @@
       <c r="E56" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G56" s="15" t="s">
         <v>765</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="H56" s="15" t="s">
         <v>766</v>
       </c>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1" t="s">
+      <c r="I56" s="15"/>
+      <c r="J56" s="15" t="s">
         <v>767</v>
       </c>
     </row>
@@ -7858,36 +7865,36 @@
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="15" t="s">
         <v>932</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="15" t="s">
         <v>933</v>
       </c>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1" t="s">
+      <c r="D85" s="15"/>
+      <c r="E85" s="15" t="s">
         <v>934</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="G85" s="15" t="s">
         <v>935</v>
       </c>
-      <c r="H85" s="1" t="s">
+      <c r="H85" s="15" t="s">
         <v>936</v>
       </c>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1" t="s">
+      <c r="I85" s="15"/>
+      <c r="J85" s="15" t="s">
         <v>937</v>
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="15" t="s">
         <v>938</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="15" t="s">
         <v>939</v>
       </c>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1" t="s">
+      <c r="D86" s="15"/>
+      <c r="E86" s="15" t="s">
         <v>940</v>
       </c>
       <c r="G86" s="1" t="s">

--- a/doc/realmGrinder.xlsx
+++ b/doc/realmGrinder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Upgrades" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="960">
   <si>
     <t>All Production</t>
   </si>
@@ -2898,6 +2898,15 @@
   </si>
   <si>
     <t>Rubies</t>
+  </si>
+  <si>
+    <t>5 dragon breath effects active, # breaths cast</t>
+  </si>
+  <si>
+    <t>Know your enemy parth 2</t>
+  </si>
+  <si>
+    <t>Play as Merc and Have upgrades from each faction</t>
   </si>
 </sst>
 </file>
@@ -4629,10 +4638,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4938,7 +4947,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>18</v>
       </c>
@@ -4949,7 +4958,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>19</v>
       </c>
@@ -4960,7 +4969,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>20</v>
       </c>
@@ -4968,7 +4977,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>21</v>
       </c>
@@ -4979,7 +4988,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>22</v>
       </c>
@@ -4990,7 +4999,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>23</v>
       </c>
@@ -5001,7 +5010,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>24</v>
       </c>
@@ -5009,7 +5018,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>25</v>
       </c>
@@ -5020,7 +5029,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>26</v>
       </c>
@@ -5028,7 +5037,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>27</v>
       </c>
@@ -5039,7 +5048,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>28</v>
       </c>
@@ -5050,7 +5059,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>29</v>
       </c>
@@ -5070,7 +5079,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>30</v>
       </c>
@@ -5100,7 +5109,7 @@
         <v>0.9999997269573454</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>31</v>
       </c>
@@ -5110,8 +5119,30 @@
       <c r="C46" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>200</v>
+      </c>
+      <c r="E46">
+        <f>D46/200000</f>
+        <v>1E-3</v>
+      </c>
+      <c r="F46">
+        <f>1-(1-E46)^10</f>
+        <v>9.9551197902516542E-3</v>
+      </c>
+      <c r="G46">
+        <f>1-(1-E46)^100</f>
+        <v>9.5207852886290301E-2</v>
+      </c>
+      <c r="H46">
+        <f>1-(1-E46)^1000</f>
+        <v>0.63230457522903305</v>
+      </c>
+      <c r="J46" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>32</v>
       </c>
@@ -5122,7 +5153,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>33</v>
       </c>
@@ -5197,6 +5228,17 @@
       </c>
       <c r="C54" t="s">
         <v>309</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>40</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>958</v>
+      </c>
+      <c r="C55" t="s">
+        <v>959</v>
       </c>
     </row>
   </sheetData>
@@ -5933,8 +5975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M87"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6600,14 +6642,14 @@
       <c r="E28" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="15" t="s">
         <v>592</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="15" t="s">
         <v>593</v>
       </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1" t="s">
+      <c r="I28" s="15"/>
+      <c r="J28" s="15" t="s">
         <v>594</v>
       </c>
       <c r="M28" s="11" t="s">
@@ -7225,14 +7267,14 @@
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="15" t="s">
         <v>762</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="15" t="s">
         <v>763</v>
       </c>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1" t="s">
+      <c r="D56" s="15"/>
+      <c r="E56" s="15" t="s">
         <v>764</v>
       </c>
       <c r="G56" s="15" t="s">
@@ -7247,14 +7289,14 @@
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="15" t="s">
         <v>768</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="15" t="s">
         <v>769</v>
       </c>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1" t="s">
+      <c r="D57" s="15"/>
+      <c r="E57" s="15" t="s">
         <v>770</v>
       </c>
       <c r="G57" s="1" t="s">

--- a/doc/realmGrinder.xlsx
+++ b/doc/realmGrinder.xlsx
@@ -2925,7 +2925,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2974,6 +2974,12 @@
         <bgColor rgb="FFFDEADA"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFDEADA"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2987,7 +2993,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -3014,6 +3020,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4640,14 +4648,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625"/>
-    <col min="2" max="2" width="22.28515625"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.7109375"/>
     <col min="4" max="4" width="8.140625"/>
     <col min="5" max="5" width="11"/>
@@ -4929,7 +4937,7 @@
       <c r="A31">
         <v>16</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="13" t="s">
         <v>267</v>
       </c>
       <c r="C31" t="s">
@@ -5083,7 +5091,7 @@
       <c r="A45">
         <v>30</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="13" t="s">
         <v>292</v>
       </c>
       <c r="C45" t="s">
@@ -5234,7 +5242,7 @@
       <c r="A55">
         <v>40</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="17" t="s">
         <v>958</v>
       </c>
       <c r="C55" t="s">
@@ -5252,7 +5260,7 @@
   <dimension ref="A2:O68"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5859,7 +5867,7 @@
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="13" t="s">
         <v>393</v>
       </c>
       <c r="C59" t="s">
@@ -5976,7 +5984,7 @@
   <dimension ref="B2:M87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7299,14 +7307,14 @@
       <c r="E57" s="15" t="s">
         <v>770</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G57" s="16" t="s">
         <v>771</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="H57" s="16" t="s">
         <v>772</v>
       </c>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1" t="s">
+      <c r="I57" s="16"/>
+      <c r="J57" s="16" t="s">
         <v>773</v>
       </c>
     </row>
@@ -7939,36 +7947,36 @@
       <c r="E86" s="15" t="s">
         <v>940</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="G86" s="15" t="s">
         <v>941</v>
       </c>
-      <c r="H86" s="1" t="s">
+      <c r="H86" s="15" t="s">
         <v>942</v>
       </c>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1" t="s">
+      <c r="I86" s="15"/>
+      <c r="J86" s="15" t="s">
         <v>943</v>
       </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="15" t="s">
         <v>944</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="15" t="s">
         <v>945</v>
       </c>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1" t="s">
+      <c r="D87" s="15"/>
+      <c r="E87" s="15" t="s">
         <v>946</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="G87" s="15" t="s">
         <v>947</v>
       </c>
-      <c r="H87" s="1" t="s">
+      <c r="H87" s="15" t="s">
         <v>948</v>
       </c>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1" t="s">
+      <c r="I87" s="15"/>
+      <c r="J87" s="15" t="s">
         <v>949</v>
       </c>
     </row>

--- a/doc/realmGrinder.xlsx
+++ b/doc/realmGrinder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Upgrades" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <definedName name="_FilterDatabase_0" localSheetId="0">Upgrades!$A$3:$BQ$69</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="0">Upgrades!$A$3:$BQ$69</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="967">
   <si>
     <t>All Production</t>
   </si>
@@ -2907,6 +2907,27 @@
   </si>
   <si>
     <t>Play as Merc and Have upgrades from each faction</t>
+  </si>
+  <si>
+    <t>Hours in Week</t>
+  </si>
+  <si>
+    <t>Sleep</t>
+  </si>
+  <si>
+    <t>Available</t>
+  </si>
+  <si>
+    <t>Weekend</t>
+  </si>
+  <si>
+    <t>Work</t>
+  </si>
+  <si>
+    <t>Free Time</t>
+  </si>
+  <si>
+    <t>Family</t>
   </si>
 </sst>
 </file>
@@ -4648,8 +4669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5259,8 +5280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O68"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5268,7 +5289,7 @@
     <col min="1" max="1" width="8.140625"/>
     <col min="2" max="2" width="23.28515625"/>
     <col min="3" max="12" width="8.140625"/>
-    <col min="13" max="13" width="10.85546875"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5703125"/>
     <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
     <col min="16" max="1025" width="8.140625"/>
@@ -5448,7 +5469,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5459,23 +5480,37 @@
         <v>326</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>960</v>
+      </c>
+      <c r="N18">
+        <f>7*24</f>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>961</v>
+      </c>
+      <c r="N19">
+        <f>7*8</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5483,39 +5518,65 @@
         <v>329</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="M21" t="s">
+        <v>963</v>
+      </c>
+      <c r="N21">
+        <f>16*2</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
+        <v>962</v>
+      </c>
+      <c r="N22">
+        <f>N18-N19-N21</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
+        <v>964</v>
+      </c>
+      <c r="N23">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>966</v>
+      </c>
+      <c r="N24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5523,15 +5584,22 @@
         <v>334</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="M26" t="s">
+        <v>965</v>
+      </c>
+      <c r="N26">
+        <f>N22-N23-N24</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5542,7 +5610,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5550,7 +5618,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5561,7 +5629,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5572,7 +5640,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5583,7 +5651,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5983,8 +6051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6640,14 +6708,14 @@
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="15" t="s">
         <v>589</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="15" t="s">
         <v>590</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1" t="s">
+      <c r="D28" s="15"/>
+      <c r="E28" s="15" t="s">
         <v>591</v>
       </c>
       <c r="G28" s="15" t="s">

--- a/doc/realmGrinder.xlsx
+++ b/doc/realmGrinder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Upgrades" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,7 @@
     <definedName name="_FilterDatabase_0_0" localSheetId="0">Upgrades!$A$3:$BQ$69</definedName>
   </definedNames>
   <calcPr calcId="145621" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -2946,7 +2942,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2995,12 +2991,6 @@
         <bgColor rgb="FFFDEADA"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor rgb="FFFDEADA"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3041,8 +3031,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5263,7 +5253,7 @@
       <c r="A55">
         <v>40</v>
       </c>
-      <c r="B55" s="17" t="s">
+      <c r="B55" s="16" t="s">
         <v>958</v>
       </c>
       <c r="C55" t="s">
@@ -5280,7 +5270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
@@ -6049,10 +6039,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M87"/>
+  <dimension ref="B2:O87"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6065,7 +6055,9 @@
     <col min="8" max="8" width="17.85546875"/>
     <col min="9" max="9" width="13"/>
     <col min="10" max="10" width="40.28515625"/>
-    <col min="11" max="1025" width="8.140625"/>
+    <col min="11" max="12" width="8.140625"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="1025" width="8.140625"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
@@ -6810,7 +6802,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
         <v>616</v>
       </c>
@@ -6837,7 +6829,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="11" t="s">
         <v>624</v>
       </c>
@@ -6866,7 +6858,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="11" t="s">
         <v>632</v>
       </c>
@@ -6890,7 +6882,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="11" t="s">
         <v>638</v>
       </c>
@@ -6912,7 +6904,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="11" t="s">
         <v>644</v>
       </c>
@@ -6934,7 +6926,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" s="11" t="s">
         <v>650</v>
       </c>
@@ -6955,8 +6947,16 @@
       <c r="J38" s="11" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M38" s="17">
+        <f>10000000000</f>
+        <v>10000000000</v>
+      </c>
+      <c r="O38">
+        <f>M38/(24*3*3600)</f>
+        <v>38580.246913580246</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39" s="11" t="s">
         <v>656</v>
       </c>
@@ -6979,8 +6979,12 @@
       <c r="J39" s="11" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <f>M38/30000</f>
+        <v>333333.33333333331</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40" s="11" t="s">
         <v>663</v>
       </c>
@@ -7001,8 +7005,12 @@
       <c r="J40" s="11" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <f>M39/1600</f>
+        <v>208.33333333333331</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" s="11" t="s">
         <v>669</v>
       </c>
@@ -7024,7 +7032,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="11" t="s">
         <v>675</v>
       </c>
@@ -7046,7 +7054,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43" s="11" t="s">
         <v>681</v>
       </c>
@@ -7068,7 +7076,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44" s="11" t="s">
         <v>687</v>
       </c>
@@ -7092,7 +7100,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45" s="11" t="s">
         <v>694</v>
       </c>
@@ -7114,7 +7122,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B46" s="11" t="s">
         <v>700</v>
       </c>
@@ -7138,7 +7146,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47" s="11" t="s">
         <v>706</v>
       </c>
@@ -7160,7 +7168,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B48" s="11" t="s">
         <v>712</v>
       </c>
@@ -7375,14 +7383,14 @@
       <c r="E57" s="15" t="s">
         <v>770</v>
       </c>
-      <c r="G57" s="16" t="s">
+      <c r="G57" s="15" t="s">
         <v>771</v>
       </c>
-      <c r="H57" s="16" t="s">
+      <c r="H57" s="15" t="s">
         <v>772</v>
       </c>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16" t="s">
+      <c r="I57" s="15"/>
+      <c r="J57" s="15" t="s">
         <v>773</v>
       </c>
     </row>
@@ -8050,6 +8058,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/realmGrinder.xlsx
+++ b/doc/realmGrinder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Upgrades" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,7 @@
     <definedName name="_FilterDatabase_0" localSheetId="0">Upgrades!$A$3:$BQ$69</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="0">Upgrades!$A$3:$BQ$69</definedName>
   </definedNames>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -5270,8 +5269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O68"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5315,7 +5314,7 @@
         <v>312</v>
       </c>
       <c r="M4">
-        <v>5856</v>
+        <v>15413</v>
       </c>
       <c r="N4" t="s">
         <v>950</v>
@@ -5329,7 +5328,7 @@
         <v>313</v>
       </c>
       <c r="M5" s="12">
-        <v>20</v>
+        <v>600</v>
       </c>
       <c r="N5" s="12" t="s">
         <v>951</v>
@@ -5343,7 +5342,7 @@
         <v>314</v>
       </c>
       <c r="M6" s="12">
-        <v>1000</v>
+        <v>480</v>
       </c>
       <c r="N6" t="s">
         <v>952</v>
@@ -5357,7 +5356,7 @@
         <v>315</v>
       </c>
       <c r="M7" s="12">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="N7" t="s">
         <v>953</v>
@@ -6041,8 +6040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6725,14 +6724,14 @@
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="15" t="s">
         <v>596</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="15" t="s">
         <v>597</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1" t="s">
+      <c r="D29" s="15"/>
+      <c r="E29" s="15" t="s">
         <v>598</v>
       </c>
       <c r="G29" s="1" t="s">

--- a/doc/realmGrinder.xlsx
+++ b/doc/realmGrinder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Upgrades" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <definedName name="_FilterDatabase_0" localSheetId="0">Upgrades!$A$3:$BQ$69</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="0">Upgrades!$A$3:$BQ$69</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -5269,7 +5269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
@@ -6040,8 +6040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O87"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6734,14 +6734,14 @@
       <c r="E29" s="15" t="s">
         <v>598</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="15" t="s">
         <v>599</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="15" t="s">
         <v>600</v>
       </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1" t="s">
+      <c r="I29" s="15"/>
+      <c r="J29" s="15" t="s">
         <v>601</v>
       </c>
       <c r="M29" t="s">

--- a/doc/realmGrinder.xlsx
+++ b/doc/realmGrinder.xlsx
@@ -17,12 +17,12 @@
     <definedName name="_FilterDatabase_0" localSheetId="0">Upgrades!$A$3:$BQ$69</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="0">Upgrades!$A$3:$BQ$69</definedName>
   </definedNames>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="967">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="1005">
   <si>
     <t>All Production</t>
   </si>
@@ -2923,6 +2923,120 @@
   </si>
   <si>
     <t>Family</t>
+  </si>
+  <si>
+    <t>S2875</t>
+  </si>
+  <si>
+    <t>Scolarship</t>
+  </si>
+  <si>
+    <t>12000 Merc Unique Buildings</t>
+  </si>
+  <si>
+    <t>S3200</t>
+  </si>
+  <si>
+    <t>Manipulation</t>
+  </si>
+  <si>
+    <t>1B Tax Collections Cast, A1325, S1500</t>
+  </si>
+  <si>
+    <t>C3000</t>
+  </si>
+  <si>
+    <t>Customizing</t>
+  </si>
+  <si>
+    <t>9000 Excavations as Merc</t>
+  </si>
+  <si>
+    <t>C3100</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>15d Total Merc Time</t>
+  </si>
+  <si>
+    <t>D2775</t>
+  </si>
+  <si>
+    <t>Intervention</t>
+  </si>
+  <si>
+    <t>Secrects of Warriors Upgrade</t>
+  </si>
+  <si>
+    <t>D3350</t>
+  </si>
+  <si>
+    <t>Vampirism</t>
+  </si>
+  <si>
+    <t>Merc</t>
+  </si>
+  <si>
+    <t>1 SP Offline Bonus, D2775, W3150</t>
+  </si>
+  <si>
+    <t>Titan/Drag</t>
+  </si>
+  <si>
+    <t>E3250</t>
+  </si>
+  <si>
+    <t>Estates</t>
+  </si>
+  <si>
+    <t>50000 Unique Buildings, E1225, A2950</t>
+  </si>
+  <si>
+    <t>E3300</t>
+  </si>
+  <si>
+    <t>Hirelings</t>
+  </si>
+  <si>
+    <t>E1325, S2875</t>
+  </si>
+  <si>
+    <t>A2950</t>
+  </si>
+  <si>
+    <t>Combination</t>
+  </si>
+  <si>
+    <t>All lineage levels at 15</t>
+  </si>
+  <si>
+    <t>A3400</t>
+  </si>
+  <si>
+    <t>Chemisty</t>
+  </si>
+  <si>
+    <t>1NO FC, C3000, S3200</t>
+  </si>
+  <si>
+    <t>W3050</t>
+  </si>
+  <si>
+    <t>Flanking</t>
+  </si>
+  <si>
+    <t>W3150</t>
+  </si>
+  <si>
+    <t>Upheaveal</t>
+  </si>
+  <si>
+    <t>50000 Assistants, W1275, E1325</t>
+  </si>
+  <si>
+    <t>60000 Farms, Inns, Smiths,</t>
   </si>
 </sst>
 </file>
@@ -2941,7 +3055,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2990,6 +3104,18 @@
         <bgColor rgb="FFFDEADA"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFDEADA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3003,7 +3129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -3032,6 +3158,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4658,8 +4786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5269,8 +5397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O68"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6038,10 +6166,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O87"/>
+  <dimension ref="B2:O93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6749,1310 +6877,1452 @@
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="M30" t="s">
+      <c r="B30" s="18" t="s">
+        <v>967</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>968</v>
+      </c>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18" t="s">
+        <v>969</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>987</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>988</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>984</v>
+      </c>
+      <c r="J30" s="18" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="18" t="s">
+        <v>970</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>971</v>
+      </c>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18" t="s">
+        <v>972</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>990</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>991</v>
+      </c>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M32" t="s">
         <v>603</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="11" t="s">
-        <v>604</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>605</v>
-      </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="G31" s="11" t="s">
-        <v>606</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>607</v>
-      </c>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="M31" s="11" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="11" t="s">
-        <v>609</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>610</v>
-      </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11" t="s">
-        <v>611</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>612</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>613</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="J32" s="11" t="s">
-        <v>614</v>
-      </c>
-      <c r="M32" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="D33" s="11"/>
-      <c r="E33" s="11" t="s">
-        <v>618</v>
-      </c>
+      <c r="E33" s="11"/>
       <c r="G33" s="11" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>620</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>621</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>622</v>
-      </c>
-      <c r="M33" t="s">
-        <v>623</v>
+        <v>607</v>
+      </c>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="M33" s="11" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="11" t="s">
-        <v>624</v>
+        <v>609</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>625</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>626</v>
-      </c>
+        <v>610</v>
+      </c>
+      <c r="D34" s="11"/>
       <c r="E34" s="11" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="M34" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="11" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>424</v>
+        <v>621</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>637</v>
+        <v>622</v>
+      </c>
+      <c r="M35" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="11" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>639</v>
-      </c>
-      <c r="D36" s="11"/>
+        <v>625</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>626</v>
+      </c>
       <c r="E36" s="11" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>642</v>
-      </c>
-      <c r="I36" s="11"/>
+        <v>629</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>415</v>
+      </c>
       <c r="J36" s="11" t="s">
-        <v>643</v>
+        <v>630</v>
+      </c>
+      <c r="M36" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="11" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>648</v>
-      </c>
-      <c r="I37" s="11"/>
+        <v>636</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>424</v>
+      </c>
       <c r="J37" s="11" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" s="11" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="I38" s="11"/>
       <c r="J38" s="11" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39" s="11" t="s">
+        <v>644</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B40" s="11" t="s">
+        <v>650</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11" t="s">
         <v>655</v>
       </c>
-      <c r="M38" s="17">
+      <c r="M40" s="17">
         <f>10000000000</f>
         <v>10000000000</v>
       </c>
-      <c r="O38">
-        <f>M38/(24*3*3600)</f>
+      <c r="O40">
+        <f>M40/(24*3*3600)</f>
         <v>38580.246913580246</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="11" t="s">
-        <v>656</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>657</v>
-      </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11" t="s">
-        <v>658</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>659</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>660</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>661</v>
-      </c>
-      <c r="J39" s="11" t="s">
-        <v>662</v>
-      </c>
-      <c r="M39">
-        <f>M38/30000</f>
-        <v>333333.33333333331</v>
-      </c>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="11" t="s">
-        <v>663</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>664</v>
-      </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11" t="s">
-        <v>665</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>666</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>667</v>
-      </c>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11" t="s">
-        <v>668</v>
-      </c>
-      <c r="M40">
-        <f>M39/1600</f>
-        <v>208.33333333333331</v>
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" s="11" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>673</v>
-      </c>
-      <c r="I41" s="11"/>
+        <v>660</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>661</v>
+      </c>
       <c r="J41" s="11" t="s">
-        <v>674</v>
+        <v>662</v>
+      </c>
+      <c r="M41">
+        <f>M40/30000</f>
+        <v>333333.33333333331</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="11" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="I42" s="11"/>
       <c r="J42" s="11" t="s">
-        <v>680</v>
+        <v>668</v>
+      </c>
+      <c r="M42">
+        <f>M41/1600</f>
+        <v>208.33333333333331</v>
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43" s="11" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="I43" s="11"/>
       <c r="J43" s="11" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44" s="11" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>691</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>692</v>
-      </c>
+        <v>679</v>
+      </c>
+      <c r="I44" s="11"/>
       <c r="J44" s="11" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45" s="11" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="I45" s="11"/>
       <c r="J45" s="11" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B46" s="11" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="I46" s="11" t="s">
         <v>692</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47" s="11" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="I47" s="11"/>
       <c r="J47" s="11" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B48" s="11" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>716</v>
-      </c>
-      <c r="I48" s="11"/>
+        <v>704</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>692</v>
+      </c>
       <c r="J48" s="11" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="11" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="I49" s="11"/>
       <c r="J49" s="11" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="11" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="I50" s="11"/>
       <c r="J50" s="11" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="11" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="I51" s="11"/>
       <c r="J51" s="11" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="11" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="I52" s="11"/>
       <c r="J52" s="11" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="11" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>746</v>
-      </c>
-      <c r="I53" s="11" t="s">
-        <v>546</v>
-      </c>
+        <v>734</v>
+      </c>
+      <c r="I53" s="11"/>
       <c r="J53" s="11" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="11" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="I54" s="11"/>
       <c r="J54" s="11" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="11" t="s">
+        <v>742</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>743</v>
+      </c>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11" t="s">
+        <v>744</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>745</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>746</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>749</v>
+      </c>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11" t="s">
+        <v>750</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>751</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="11" t="s">
         <v>754</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C57" s="11" t="s">
         <v>755</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D57" s="11" t="s">
         <v>756</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="E57" s="11" t="s">
         <v>757</v>
       </c>
-      <c r="G55" s="11" t="s">
+      <c r="G57" s="11" t="s">
         <v>758</v>
       </c>
-      <c r="H55" s="11" t="s">
+      <c r="H57" s="11" t="s">
         <v>759</v>
       </c>
-      <c r="I55" s="11" t="s">
+      <c r="I57" s="11" t="s">
         <v>760</v>
       </c>
-      <c r="J55" s="11" t="s">
+      <c r="J57" s="11" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="15" t="s">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="15" t="s">
         <v>762</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C58" s="15" t="s">
         <v>763</v>
       </c>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15" t="s">
+      <c r="D58" s="15"/>
+      <c r="E58" s="15" t="s">
         <v>764</v>
       </c>
-      <c r="G56" s="15" t="s">
+      <c r="G58" s="15" t="s">
         <v>765</v>
       </c>
-      <c r="H56" s="15" t="s">
+      <c r="H58" s="15" t="s">
         <v>766</v>
       </c>
-      <c r="I56" s="15"/>
-      <c r="J56" s="15" t="s">
+      <c r="I58" s="15"/>
+      <c r="J58" s="15" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="15" t="s">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="15" t="s">
         <v>768</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C59" s="15" t="s">
         <v>769</v>
       </c>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15" t="s">
+      <c r="D59" s="15"/>
+      <c r="E59" s="15" t="s">
         <v>770</v>
       </c>
-      <c r="G57" s="15" t="s">
+      <c r="G59" s="15" t="s">
         <v>771</v>
       </c>
-      <c r="H57" s="15" t="s">
+      <c r="H59" s="15" t="s">
         <v>772</v>
       </c>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15" t="s">
+      <c r="I59" s="15"/>
+      <c r="J59" s="15" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1" t="s">
+      <c r="D60" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G60" s="15" t="s">
         <v>777</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="H60" s="15" t="s">
         <v>778</v>
       </c>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1" t="s">
+      <c r="I60" s="15"/>
+      <c r="J60" s="15" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B60" s="11" t="s">
-        <v>780</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>781</v>
-      </c>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="G60" s="11" t="s">
-        <v>782</v>
-      </c>
-      <c r="H60" s="11" t="s">
-        <v>783</v>
-      </c>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
-    </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="11" t="s">
-        <v>784</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>785</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>621</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>786</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>787</v>
-      </c>
-      <c r="H61" s="11" t="s">
-        <v>788</v>
-      </c>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11" t="s">
-        <v>789</v>
+      <c r="B61" s="18" t="s">
+        <v>973</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>974</v>
+      </c>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18" t="s">
+        <v>975</v>
+      </c>
+      <c r="G61" s="18" t="s">
+        <v>993</v>
+      </c>
+      <c r="H61" s="18" t="s">
+        <v>994</v>
+      </c>
+      <c r="I61" s="18" t="s">
+        <v>984</v>
+      </c>
+      <c r="J61" s="18" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="11" t="s">
-        <v>790</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>791</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>792</v>
-      </c>
-      <c r="G62" s="11" t="s">
-        <v>793</v>
-      </c>
-      <c r="H62" s="11" t="s">
-        <v>794</v>
-      </c>
-      <c r="I62" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="J62" s="11" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="11" t="s">
-        <v>796</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>797</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>798</v>
-      </c>
-      <c r="G63" s="11" t="s">
-        <v>799</v>
-      </c>
-      <c r="H63" s="11" t="s">
-        <v>800</v>
-      </c>
-      <c r="I63" s="11" t="s">
-        <v>801</v>
-      </c>
-      <c r="J63" s="11" t="s">
-        <v>802</v>
+      <c r="B62" s="18" t="s">
+        <v>976</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>977</v>
+      </c>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18" t="s">
+        <v>978</v>
+      </c>
+      <c r="G62" s="18" t="s">
+        <v>996</v>
+      </c>
+      <c r="H62" s="18" t="s">
+        <v>997</v>
+      </c>
+      <c r="I62" s="18"/>
+      <c r="J62" s="18" t="s">
+        <v>998</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64" s="11" t="s">
-        <v>803</v>
+        <v>780</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>804</v>
+        <v>781</v>
       </c>
       <c r="D64" s="11"/>
-      <c r="E64" s="11" t="s">
-        <v>805</v>
-      </c>
+      <c r="E64" s="11"/>
       <c r="G64" s="11" t="s">
-        <v>806</v>
+        <v>782</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>807</v>
+        <v>783</v>
       </c>
       <c r="I64" s="11"/>
-      <c r="J64" s="11" t="s">
-        <v>808</v>
-      </c>
+      <c r="J64" s="11"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65" s="11" t="s">
-        <v>809</v>
+        <v>784</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>810</v>
+        <v>785</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>420</v>
+        <v>621</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>811</v>
+        <v>786</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>812</v>
+        <v>787</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>813</v>
-      </c>
-      <c r="I65" s="11" t="s">
-        <v>621</v>
-      </c>
+        <v>788</v>
+      </c>
+      <c r="I65" s="11"/>
       <c r="J65" s="11" t="s">
-        <v>814</v>
+        <v>789</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66" s="11" t="s">
-        <v>815</v>
+        <v>790</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>816</v>
-      </c>
-      <c r="D66" s="11"/>
+        <v>791</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>424</v>
+      </c>
       <c r="E66" s="11" t="s">
-        <v>817</v>
+        <v>792</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>818</v>
+        <v>793</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>819</v>
-      </c>
-      <c r="I66" s="11"/>
+        <v>794</v>
+      </c>
+      <c r="I66" s="11" t="s">
+        <v>443</v>
+      </c>
       <c r="J66" s="11" t="s">
-        <v>820</v>
+        <v>795</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67" s="11" t="s">
-        <v>821</v>
+        <v>796</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>822</v>
-      </c>
-      <c r="D67" s="11"/>
+        <v>797</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>420</v>
+      </c>
       <c r="E67" s="11" t="s">
-        <v>823</v>
+        <v>798</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>824</v>
+        <v>799</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>825</v>
-      </c>
-      <c r="I67" s="11"/>
+        <v>800</v>
+      </c>
+      <c r="I67" s="11" t="s">
+        <v>801</v>
+      </c>
       <c r="J67" s="11" t="s">
-        <v>826</v>
+        <v>802</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B68" s="11" t="s">
-        <v>827</v>
+        <v>803</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>828</v>
+        <v>804</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11" t="s">
-        <v>829</v>
+        <v>805</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>830</v>
+        <v>806</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>831</v>
+        <v>807</v>
       </c>
       <c r="I68" s="11"/>
       <c r="J68" s="11" t="s">
-        <v>832</v>
+        <v>808</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B69" s="11" t="s">
-        <v>833</v>
+        <v>809</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>834</v>
-      </c>
-      <c r="D69" s="11"/>
+        <v>810</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>420</v>
+      </c>
       <c r="E69" s="11" t="s">
-        <v>835</v>
+        <v>811</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>836</v>
+        <v>812</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>837</v>
-      </c>
-      <c r="I69" s="11"/>
+        <v>813</v>
+      </c>
+      <c r="I69" s="11" t="s">
+        <v>621</v>
+      </c>
       <c r="J69" s="11" t="s">
-        <v>838</v>
+        <v>814</v>
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B70" s="11" t="s">
-        <v>839</v>
+        <v>815</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>840</v>
+        <v>816</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11" t="s">
-        <v>841</v>
+        <v>817</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>842</v>
+        <v>818</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>843</v>
+        <v>819</v>
       </c>
       <c r="I70" s="11"/>
       <c r="J70" s="11" t="s">
-        <v>844</v>
+        <v>820</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B71" s="11" t="s">
-        <v>845</v>
+        <v>821</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>846</v>
+        <v>822</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11" t="s">
-        <v>847</v>
+        <v>823</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>848</v>
+        <v>824</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>849</v>
+        <v>825</v>
       </c>
       <c r="I71" s="11"/>
       <c r="J71" s="11" t="s">
-        <v>850</v>
+        <v>826</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B72" s="11" t="s">
-        <v>851</v>
+        <v>827</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>852</v>
+        <v>828</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11" t="s">
-        <v>853</v>
+        <v>829</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>854</v>
+        <v>830</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="I72" s="11"/>
       <c r="J72" s="11" t="s">
-        <v>856</v>
+        <v>832</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B73" s="11" t="s">
-        <v>857</v>
+        <v>833</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>858</v>
+        <v>834</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11" t="s">
-        <v>859</v>
+        <v>835</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>860</v>
+        <v>836</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>861</v>
+        <v>837</v>
       </c>
       <c r="I73" s="11"/>
       <c r="J73" s="11" t="s">
-        <v>862</v>
+        <v>838</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B74" s="11" t="s">
-        <v>863</v>
+        <v>839</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>864</v>
+        <v>840</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11" t="s">
-        <v>865</v>
+        <v>841</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>866</v>
+        <v>842</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>867</v>
-      </c>
-      <c r="I74" s="11" t="s">
-        <v>495</v>
-      </c>
+        <v>843</v>
+      </c>
+      <c r="I74" s="11"/>
       <c r="J74" s="11" t="s">
-        <v>868</v>
+        <v>844</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B75" s="11" t="s">
-        <v>869</v>
+        <v>845</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>870</v>
+        <v>846</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11" t="s">
-        <v>871</v>
+        <v>847</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>872</v>
+        <v>848</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>873</v>
+        <v>849</v>
       </c>
       <c r="I75" s="11"/>
       <c r="J75" s="11" t="s">
-        <v>874</v>
+        <v>850</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B76" s="11" t="s">
-        <v>875</v>
+        <v>851</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>876</v>
+        <v>852</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11" t="s">
-        <v>877</v>
+        <v>853</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>878</v>
+        <v>854</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>879</v>
+        <v>855</v>
       </c>
       <c r="I76" s="11"/>
       <c r="J76" s="11" t="s">
-        <v>880</v>
+        <v>856</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B77" s="11" t="s">
-        <v>881</v>
+        <v>857</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>882</v>
+        <v>858</v>
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11" t="s">
-        <v>883</v>
+        <v>859</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>884</v>
+        <v>860</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>885</v>
+        <v>861</v>
       </c>
       <c r="I77" s="11"/>
       <c r="J77" s="11" t="s">
-        <v>886</v>
+        <v>862</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B78" s="11" t="s">
-        <v>887</v>
+        <v>863</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>888</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>889</v>
-      </c>
+        <v>864</v>
+      </c>
+      <c r="D78" s="11"/>
       <c r="E78" s="11" t="s">
-        <v>890</v>
+        <v>865</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>891</v>
+        <v>866</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>892</v>
+        <v>867</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>692</v>
+        <v>495</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>893</v>
+        <v>868</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B79" s="11" t="s">
-        <v>894</v>
+        <v>869</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>895</v>
+        <v>870</v>
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11" t="s">
-        <v>896</v>
+        <v>871</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>897</v>
+        <v>872</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>898</v>
+        <v>873</v>
       </c>
       <c r="I79" s="11"/>
       <c r="J79" s="11" t="s">
-        <v>899</v>
+        <v>874</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B80" s="11" t="s">
-        <v>900</v>
+        <v>875</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>901</v>
+        <v>876</v>
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11" t="s">
-        <v>902</v>
+        <v>877</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>903</v>
+        <v>878</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>904</v>
+        <v>879</v>
       </c>
       <c r="I80" s="11"/>
       <c r="J80" s="11" t="s">
-        <v>905</v>
+        <v>880</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B81" s="11" t="s">
-        <v>906</v>
+        <v>881</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>907</v>
+        <v>882</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11" t="s">
-        <v>908</v>
+        <v>883</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>909</v>
+        <v>884</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>910</v>
-      </c>
-      <c r="I81" s="11" t="s">
-        <v>546</v>
-      </c>
+        <v>885</v>
+      </c>
+      <c r="I81" s="11"/>
       <c r="J81" s="11" t="s">
-        <v>911</v>
+        <v>886</v>
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82" s="11" t="s">
-        <v>912</v>
+        <v>887</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>913</v>
-      </c>
-      <c r="D82" s="11"/>
+        <v>888</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>889</v>
+      </c>
       <c r="E82" s="11" t="s">
-        <v>914</v>
+        <v>890</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>915</v>
+        <v>891</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>916</v>
-      </c>
-      <c r="I82" s="11"/>
+        <v>892</v>
+      </c>
+      <c r="I82" s="11" t="s">
+        <v>692</v>
+      </c>
       <c r="J82" s="11" t="s">
-        <v>917</v>
+        <v>893</v>
       </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B83" s="11" t="s">
-        <v>918</v>
+        <v>894</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>919</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>546</v>
-      </c>
+        <v>895</v>
+      </c>
+      <c r="D83" s="11"/>
       <c r="E83" s="11" t="s">
-        <v>920</v>
+        <v>896</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>921</v>
+        <v>897</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>922</v>
+        <v>898</v>
       </c>
       <c r="I83" s="11"/>
       <c r="J83" s="11" t="s">
-        <v>923</v>
+        <v>899</v>
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B84" s="11" t="s">
+        <v>900</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11" t="s">
+        <v>902</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>903</v>
+      </c>
+      <c r="H84" s="11" t="s">
+        <v>904</v>
+      </c>
+      <c r="I84" s="11"/>
+      <c r="J84" s="11" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85" s="11" t="s">
+        <v>906</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>907</v>
+      </c>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11" t="s">
+        <v>908</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>909</v>
+      </c>
+      <c r="H85" s="11" t="s">
+        <v>910</v>
+      </c>
+      <c r="I85" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="J85" s="11" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="11" t="s">
+        <v>912</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>913</v>
+      </c>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11" t="s">
+        <v>914</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>915</v>
+      </c>
+      <c r="H86" s="11" t="s">
+        <v>916</v>
+      </c>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B87" s="11" t="s">
+        <v>918</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>919</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>920</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>921</v>
+      </c>
+      <c r="H87" s="11" t="s">
+        <v>922</v>
+      </c>
+      <c r="I87" s="11"/>
+      <c r="J87" s="11" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="11" t="s">
         <v>924</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C88" s="11" t="s">
         <v>925</v>
       </c>
-      <c r="D84" s="11" t="s">
+      <c r="D88" s="11" t="s">
         <v>926</v>
       </c>
-      <c r="E84" s="11" t="s">
+      <c r="E88" s="11" t="s">
         <v>927</v>
       </c>
-      <c r="G84" s="11" t="s">
+      <c r="G88" s="11" t="s">
         <v>928</v>
       </c>
-      <c r="H84" s="11" t="s">
+      <c r="H88" s="11" t="s">
         <v>929</v>
       </c>
-      <c r="I84" s="11" t="s">
+      <c r="I88" s="11" t="s">
         <v>930</v>
       </c>
-      <c r="J84" s="11" t="s">
+      <c r="J88" s="11" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B85" s="15" t="s">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B89" s="15" t="s">
         <v>932</v>
       </c>
-      <c r="C85" s="15" t="s">
+      <c r="C89" s="15" t="s">
         <v>933</v>
       </c>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15" t="s">
+      <c r="D89" s="15"/>
+      <c r="E89" s="15" t="s">
         <v>934</v>
       </c>
-      <c r="G85" s="15" t="s">
+      <c r="G89" s="15" t="s">
         <v>935</v>
       </c>
-      <c r="H85" s="15" t="s">
+      <c r="H89" s="15" t="s">
         <v>936</v>
       </c>
-      <c r="I85" s="15"/>
-      <c r="J85" s="15" t="s">
+      <c r="I89" s="15"/>
+      <c r="J89" s="15" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B86" s="15" t="s">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B90" s="15" t="s">
         <v>938</v>
       </c>
-      <c r="C86" s="15" t="s">
+      <c r="C90" s="15" t="s">
         <v>939</v>
       </c>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15" t="s">
+      <c r="D90" s="15"/>
+      <c r="E90" s="15" t="s">
         <v>940</v>
       </c>
-      <c r="G86" s="15" t="s">
+      <c r="G90" s="15" t="s">
         <v>941</v>
       </c>
-      <c r="H86" s="15" t="s">
+      <c r="H90" s="15" t="s">
         <v>942</v>
       </c>
-      <c r="I86" s="15"/>
-      <c r="J86" s="15" t="s">
+      <c r="I90" s="15"/>
+      <c r="J90" s="15" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B87" s="15" t="s">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B91" s="15" t="s">
         <v>944</v>
       </c>
-      <c r="C87" s="15" t="s">
+      <c r="C91" s="15" t="s">
         <v>945</v>
       </c>
-      <c r="D87" s="15"/>
-      <c r="E87" s="15" t="s">
+      <c r="D91" s="15"/>
+      <c r="E91" s="15" t="s">
         <v>946</v>
       </c>
-      <c r="G87" s="15" t="s">
+      <c r="G91" s="15" t="s">
         <v>947</v>
       </c>
-      <c r="H87" s="15" t="s">
+      <c r="H91" s="15" t="s">
         <v>948</v>
       </c>
-      <c r="I87" s="15"/>
-      <c r="J87" s="15" t="s">
+      <c r="I91" s="15"/>
+      <c r="J91" s="15" t="s">
         <v>949</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B92" s="18" t="s">
+        <v>979</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="D92" s="19" t="s">
+        <v>984</v>
+      </c>
+      <c r="E92" s="18" t="s">
+        <v>981</v>
+      </c>
+      <c r="G92" s="18" t="s">
+        <v>999</v>
+      </c>
+      <c r="H92" s="18" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I92" s="19" t="s">
+        <v>984</v>
+      </c>
+      <c r="J92" s="18" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B93" s="18" t="s">
+        <v>982</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>983</v>
+      </c>
+      <c r="D93" s="19"/>
+      <c r="E93" s="18" t="s">
+        <v>985</v>
+      </c>
+      <c r="G93" s="18" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H93" s="18" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I93" s="19"/>
+      <c r="J93" s="18" t="s">
+        <v>1004</v>
       </c>
     </row>
   </sheetData>

--- a/doc/realmGrinder.xlsx
+++ b/doc/realmGrinder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Upgrades" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <definedName name="_FilterDatabase_0" localSheetId="0">Upgrades!$A$3:$BQ$69</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="0">Upgrades!$A$3:$BQ$69</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="1005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="1016">
   <si>
     <t>All Production</t>
   </si>
@@ -3037,6 +3037,39 @@
   </si>
   <si>
     <t>60000 Farms, Inns, Smiths,</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>1375 for 200</t>
+  </si>
+  <si>
+    <t>1275 for 290</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>1325 for 460</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>1200 for 105</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>1275 for 150</t>
   </si>
 </sst>
 </file>
@@ -3055,7 +3088,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3116,6 +3149,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3129,7 +3168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -3160,6 +3199,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5397,8 +5437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O68"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6074,7 +6114,7 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="13" t="s">
         <v>397</v>
       </c>
       <c r="C61" t="s">
@@ -6085,7 +6125,7 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="13" t="s">
         <v>399</v>
       </c>
       <c r="C62" t="s">
@@ -6166,10 +6206,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O93"/>
+  <dimension ref="B2:R93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView topLeftCell="B37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60:E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6184,7 +6224,10 @@
     <col min="10" max="10" width="40.28515625"/>
     <col min="11" max="12" width="8.140625"/>
     <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="1025" width="8.140625"/>
+    <col min="14" max="14" width="8.140625"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="1025" width="8.140625"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
@@ -6927,7 +6970,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
         <v>604</v>
       </c>
@@ -6948,7 +6991,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="11" t="s">
         <v>609</v>
       </c>
@@ -6975,7 +7018,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="11" t="s">
         <v>616</v>
       </c>
@@ -7002,7 +7045,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="11" t="s">
         <v>624</v>
       </c>
@@ -7031,7 +7074,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="11" t="s">
         <v>632</v>
       </c>
@@ -7055,7 +7098,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="11" t="s">
         <v>638</v>
       </c>
@@ -7077,7 +7120,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="11" t="s">
         <v>644</v>
       </c>
@@ -7099,7 +7142,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="11" t="s">
         <v>650</v>
       </c>
@@ -7129,7 +7172,7 @@
         <v>38580.246913580246</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="11" t="s">
         <v>656</v>
       </c>
@@ -7157,7 +7200,7 @@
         <v>333333.33333333331</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="11" t="s">
         <v>663</v>
       </c>
@@ -7183,7 +7226,7 @@
         <v>208.33333333333331</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="11" t="s">
         <v>669</v>
       </c>
@@ -7205,7 +7248,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="11" t="s">
         <v>675</v>
       </c>
@@ -7227,7 +7270,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="11" t="s">
         <v>681</v>
       </c>
@@ -7249,7 +7292,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B46" s="11" t="s">
         <v>687</v>
       </c>
@@ -7272,8 +7315,26 @@
       <c r="J46" s="11" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M46" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="N46" s="11" t="s">
+        <v>1006</v>
+      </c>
+      <c r="O46" s="11" t="s">
+        <v>1007</v>
+      </c>
+      <c r="P46" s="11" t="s">
+        <v>1010</v>
+      </c>
+      <c r="Q46" s="11" t="s">
+        <v>1012</v>
+      </c>
+      <c r="R46" s="11" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B47" s="11" t="s">
         <v>694</v>
       </c>
@@ -7294,8 +7355,26 @@
       <c r="J47" s="11" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M47">
+        <v>105</v>
+      </c>
+      <c r="N47">
+        <v>105</v>
+      </c>
+      <c r="O47">
+        <v>55</v>
+      </c>
+      <c r="P47">
+        <v>135</v>
+      </c>
+      <c r="Q47" s="20">
+        <v>105</v>
+      </c>
+      <c r="R47" s="20">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B48" s="11" t="s">
         <v>700</v>
       </c>
@@ -7318,8 +7397,26 @@
       <c r="J48" s="11" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M48">
+        <v>150</v>
+      </c>
+      <c r="N48">
+        <v>251</v>
+      </c>
+      <c r="O48">
+        <v>150</v>
+      </c>
+      <c r="P48">
+        <v>145</v>
+      </c>
+      <c r="Q48">
+        <v>120</v>
+      </c>
+      <c r="R48">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B49" s="11" t="s">
         <v>706</v>
       </c>
@@ -7340,8 +7437,26 @@
       <c r="J49" s="11" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M49">
+        <v>305</v>
+      </c>
+      <c r="N49">
+        <v>330</v>
+      </c>
+      <c r="O49" s="20">
+        <v>200</v>
+      </c>
+      <c r="P49">
+        <v>275</v>
+      </c>
+      <c r="Q49">
+        <v>150</v>
+      </c>
+      <c r="R49">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="11" t="s">
         <v>712</v>
       </c>
@@ -7362,8 +7477,26 @@
       <c r="J50" s="11" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M50">
+        <v>330</v>
+      </c>
+      <c r="N50">
+        <v>340</v>
+      </c>
+      <c r="O50" s="20">
+        <v>290</v>
+      </c>
+      <c r="P50">
+        <v>400</v>
+      </c>
+      <c r="Q50">
+        <v>250</v>
+      </c>
+      <c r="R50">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" s="11" t="s">
         <v>718</v>
       </c>
@@ -7384,8 +7517,26 @@
       <c r="J51" s="11" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M51">
+        <v>500</v>
+      </c>
+      <c r="N51">
+        <v>375</v>
+      </c>
+      <c r="O51">
+        <v>320</v>
+      </c>
+      <c r="P51" s="20">
+        <v>460</v>
+      </c>
+      <c r="Q51">
+        <v>400</v>
+      </c>
+      <c r="R51">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" s="11" t="s">
         <v>724</v>
       </c>
@@ -7406,8 +7557,14 @@
       <c r="J52" s="11" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="N52">
+        <v>400</v>
+      </c>
+      <c r="R52">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B53" s="11" t="s">
         <v>730</v>
       </c>
@@ -7429,7 +7586,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B54" s="11" t="s">
         <v>736</v>
       </c>
@@ -7450,8 +7607,20 @@
       <c r="J54" s="11" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="O54" t="s">
+        <v>1008</v>
+      </c>
+      <c r="P54" t="s">
+        <v>1011</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>1013</v>
+      </c>
+      <c r="R54" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B55" s="11" t="s">
         <v>742</v>
       </c>
@@ -7474,8 +7643,11 @@
       <c r="J55" s="11" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="O55" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B56" s="11" t="s">
         <v>748</v>
       </c>
@@ -7497,7 +7669,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B57" s="11" t="s">
         <v>754</v>
       </c>
@@ -7523,7 +7695,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B58" s="15" t="s">
         <v>762</v>
       </c>
@@ -7545,7 +7717,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B59" s="15" t="s">
         <v>768</v>
       </c>
@@ -7567,17 +7739,17 @@
         <v>773</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
+    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B60" s="15" t="s">
         <v>774</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="15" t="s">
         <v>775</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="15" t="s">
         <v>986</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" s="15" t="s">
         <v>776</v>
       </c>
       <c r="G60" s="15" t="s">
@@ -7591,7 +7763,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B61" s="18" t="s">
         <v>973</v>
       </c>
@@ -7615,7 +7787,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B62" s="18" t="s">
         <v>976</v>
       </c>
@@ -7637,7 +7809,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B64" s="11" t="s">
         <v>780</v>
       </c>

--- a/doc/realmGrinder.xlsx
+++ b/doc/realmGrinder.xlsx
@@ -4826,8 +4826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5409,7 +5409,7 @@
       <c r="A54">
         <v>39</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="13" t="s">
         <v>308</v>
       </c>
       <c r="C54" t="s">

--- a/doc/realmGrinder.xlsx
+++ b/doc/realmGrinder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Upgrades" sheetId="1" r:id="rId1"/>
@@ -4826,8 +4826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5264,6 +5264,9 @@
       <c r="H44">
         <v>1000</v>
       </c>
+      <c r="I44">
+        <v>4279</v>
+      </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
@@ -5306,23 +5309,27 @@
         <v>293</v>
       </c>
       <c r="D46">
-        <v>200</v>
+        <v>393</v>
       </c>
       <c r="E46">
         <f>D46/200000</f>
-        <v>1E-3</v>
+        <v>1.9650000000000002E-3</v>
       </c>
       <c r="F46">
         <f>1-(1-E46)^10</f>
-        <v>9.9551197902516542E-3</v>
+        <v>1.9477152228323469E-2</v>
       </c>
       <c r="G46">
         <f>1-(1-E46)^100</f>
-        <v>9.5207852886290301E-2</v>
+        <v>0.17855748083203105</v>
       </c>
       <c r="H46">
         <f>1-(1-E46)^1000</f>
-        <v>0.63230457522903305</v>
+        <v>0.86011479336647434</v>
+      </c>
+      <c r="I46">
+        <f>1-(1-E46)^I44</f>
+        <v>0.99977881407684721</v>
       </c>
       <c r="J46" t="s">
         <v>957</v>
@@ -5437,8 +5444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6073,7 +6080,7 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="13" t="s">
         <v>390</v>
       </c>
       <c r="C57" t="s">
@@ -6208,7 +6215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R93"/>
   <sheetViews>
-    <sheetView topLeftCell="B37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B31" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B60" sqref="B60:E60"/>
     </sheetView>
   </sheetViews>

--- a/doc/realmGrinder.xlsx
+++ b/doc/realmGrinder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Upgrades" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <definedName name="_FilterDatabase_0" localSheetId="0">Upgrades!$A$3:$BQ$69</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="0">Upgrades!$A$3:$BQ$69</definedName>
   </definedNames>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -4826,8 +4826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5309,27 +5309,27 @@
         <v>293</v>
       </c>
       <c r="D46">
-        <v>393</v>
+        <v>5</v>
       </c>
       <c r="E46">
         <f>D46/200000</f>
-        <v>1.9650000000000002E-3</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="F46">
         <f>1-(1-E46)^10</f>
-        <v>1.9477152228323469E-2</v>
+        <v>2.4997187687525457E-4</v>
       </c>
       <c r="G46">
         <f>1-(1-E46)^100</f>
-        <v>0.17855748083203105</v>
+        <v>2.496908775034945E-3</v>
       </c>
       <c r="H46">
         <f>1-(1-E46)^1000</f>
-        <v>0.86011479336647434</v>
+        <v>2.469039276107976E-2</v>
       </c>
       <c r="I46">
         <f>1-(1-E46)^I44</f>
-        <v>0.99977881407684721</v>
+        <v>0.1014530651337654</v>
       </c>
       <c r="J46" t="s">
         <v>957</v>
@@ -5444,8 +5444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O68"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6215,8 +6215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R93"/>
   <sheetViews>
-    <sheetView topLeftCell="B31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60:E60"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/realmGrinder.xlsx
+++ b/doc/realmGrinder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Upgrades" sheetId="1" r:id="rId1"/>
@@ -4826,7 +4826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
@@ -5265,7 +5265,7 @@
         <v>1000</v>
       </c>
       <c r="I44">
-        <v>4279</v>
+        <v>5086</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -5309,27 +5309,27 @@
         <v>293</v>
       </c>
       <c r="D46">
-        <v>5</v>
+        <v>1116</v>
       </c>
       <c r="E46">
         <f>D46/200000</f>
-        <v>2.5000000000000001E-5</v>
+        <v>5.5799999999999999E-3</v>
       </c>
       <c r="F46">
         <f>1-(1-E46)^10</f>
-        <v>2.4997187687525457E-4</v>
+        <v>5.4419508700524144E-2</v>
       </c>
       <c r="G46">
         <f>1-(1-E46)^100</f>
-        <v>2.496908775034945E-3</v>
+        <v>0.42854105506740703</v>
       </c>
       <c r="H46">
         <f>1-(1-E46)^1000</f>
-        <v>2.469039276107976E-2</v>
+        <v>0.99628592772897295</v>
       </c>
       <c r="I46">
         <f>1-(1-E46)^I44</f>
-        <v>0.1014530651337654</v>
+        <v>0.99999999999956324</v>
       </c>
       <c r="J46" t="s">
         <v>957</v>
@@ -6215,7 +6215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>

--- a/doc/realmGrinder.xlsx
+++ b/doc/realmGrinder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Upgrades" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="1016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="1028">
   <si>
     <t>All Production</t>
   </si>
@@ -3070,6 +3070,42 @@
   </si>
   <si>
     <t>1275 for 150</t>
+  </si>
+  <si>
+    <t>Triple Weirdness</t>
+  </si>
+  <si>
+    <t>333 of each royal exchange</t>
+  </si>
+  <si>
+    <t>Warrior Research</t>
+  </si>
+  <si>
+    <t>Discover Merc researches</t>
+  </si>
+  <si>
+    <t>Veteran Figurine</t>
+  </si>
+  <si>
+    <t>R90+ 1/1,000,000 seconds this game</t>
+  </si>
+  <si>
+    <t>R100+ ?</t>
+  </si>
+  <si>
+    <t>R100+ log10(assistants/100)%</t>
+  </si>
+  <si>
+    <t>Wall Chunk</t>
+  </si>
+  <si>
+    <t>Excavated Mirage</t>
+  </si>
+  <si>
+    <t>Ancient Cocoa Bean</t>
+  </si>
+  <si>
+    <t>Play as neutral faction</t>
   </si>
 </sst>
 </file>
@@ -3168,7 +3204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -3200,6 +3236,8 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4824,10 +4862,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5265,7 +5303,11 @@
         <v>1000</v>
       </c>
       <c r="I44">
-        <v>5086</v>
+        <v>6684</v>
+      </c>
+      <c r="J44">
+        <f>(1-0.5^(1/I44))*100*200000</f>
+        <v>2073.9414759773922</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -5278,58 +5320,39 @@
       <c r="C45" t="s">
         <v>293</v>
       </c>
-      <c r="D45">
-        <v>6000</v>
-      </c>
-      <c r="E45">
-        <f>D45/400000</f>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F45">
-        <f>1-(1-E45)^10</f>
-        <v>0.14026955774085692</v>
-      </c>
-      <c r="G45">
-        <f>1-(1-E45)^100</f>
-        <v>0.77939108953061242</v>
-      </c>
-      <c r="H45">
-        <f>1-(1-E45)^1000</f>
-        <v>0.9999997269573454</v>
-      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>31</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="13" t="s">
         <v>294</v>
       </c>
       <c r="C46" t="s">
         <v>293</v>
       </c>
       <c r="D46">
-        <v>1116</v>
+        <v>993</v>
       </c>
       <c r="E46">
-        <f>D46/200000</f>
-        <v>5.5799999999999999E-3</v>
+        <f>D46/200000*0.01</f>
+        <v>4.9650000000000001E-5</v>
       </c>
       <c r="F46">
         <f>1-(1-E46)^10</f>
-        <v>5.4419508700524144E-2</v>
+        <v>4.9638908417326544E-4</v>
       </c>
       <c r="G46">
         <f>1-(1-E46)^100</f>
-        <v>0.42854105506740703</v>
+        <v>4.9528174108186551E-3</v>
       </c>
       <c r="H46">
         <f>1-(1-E46)^1000</f>
-        <v>0.99628592772897295</v>
+        <v>4.843875982814716E-2</v>
       </c>
       <c r="I46">
         <f>1-(1-E46)^I44</f>
-        <v>0.99999999999956324</v>
+        <v>0.28241856441229374</v>
       </c>
       <c r="J46" t="s">
         <v>957</v>
@@ -5350,11 +5373,11 @@
       <c r="A48">
         <v>33</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>297</v>
+      <c r="B48" s="13" t="s">
+        <v>1026</v>
       </c>
       <c r="C48" t="s">
-        <v>298</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -5362,32 +5385,32 @@
         <v>34</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C49" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>35</v>
       </c>
-      <c r="B50" s="13" t="s">
-        <v>301</v>
+      <c r="B50" s="11" t="s">
+        <v>299</v>
       </c>
       <c r="C50" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>36</v>
       </c>
-      <c r="B51" s="11" t="s">
-        <v>303</v>
+      <c r="B51" s="13" t="s">
+        <v>301</v>
       </c>
       <c r="C51" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -5395,10 +5418,10 @@
         <v>37</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C52" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -5406,7 +5429,7 @@
         <v>38</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C53" t="s">
         <v>306</v>
@@ -5416,36 +5439,80 @@
       <c r="A54">
         <v>39</v>
       </c>
-      <c r="B54" s="13" t="s">
-        <v>308</v>
+      <c r="B54" s="11" t="s">
+        <v>307</v>
       </c>
       <c r="C54" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>40</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="C55" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>41</v>
+      </c>
+      <c r="B56" s="16" t="s">
         <v>958</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
         <v>959</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>42</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>43</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>44</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1023</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O68"/>
+  <dimension ref="A2:O70"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6014,11 +6081,11 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="11" t="s">
-        <v>378</v>
+      <c r="B51" s="22" t="s">
+        <v>1016</v>
       </c>
       <c r="C51" t="s">
-        <v>379</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -6026,10 +6093,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C52" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -6037,10 +6104,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C53" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -6048,10 +6115,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C54" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -6059,21 +6126,21 @@
         <v>54</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C55" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="13" t="s">
-        <v>388</v>
+      <c r="B56" s="11" t="s">
+        <v>386</v>
       </c>
       <c r="C56" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -6081,51 +6148,51 @@
         <v>56</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C57" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="11" t="s">
-        <v>392</v>
+      <c r="B58" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="C58" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="C59" t="s">
-        <v>394</v>
+      <c r="B59" s="11" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="11" t="s">
-        <v>395</v>
+      <c r="B60" s="13" t="s">
+        <v>393</v>
       </c>
       <c r="C60" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="13" t="s">
-        <v>397</v>
+      <c r="B61" s="11" t="s">
+        <v>395</v>
       </c>
       <c r="C61" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -6133,32 +6200,32 @@
         <v>61</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C62" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="11" t="s">
-        <v>401</v>
+      <c r="B63" s="13" t="s">
+        <v>399</v>
       </c>
       <c r="C63" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="13" t="s">
-        <v>403</v>
+      <c r="B64" s="21" t="s">
+        <v>1018</v>
       </c>
       <c r="C64" t="s">
-        <v>404</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -6166,32 +6233,32 @@
         <v>64</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C65" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
-        <v>407</v>
+      <c r="B66" s="13" t="s">
+        <v>403</v>
       </c>
       <c r="C66" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
-        <v>409</v>
+      <c r="B67" s="11" t="s">
+        <v>405</v>
       </c>
       <c r="C67" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -6199,9 +6266,31 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
+        <v>407</v>
+      </c>
+      <c r="C68" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>409</v>
+      </c>
+      <c r="C69" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
         <v>411</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C70" t="s">
         <v>412</v>
       </c>
     </row>
@@ -6215,8 +6304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R93"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/realmGrinder.xlsx
+++ b/doc/realmGrinder.xlsx
@@ -5509,10 +5509,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O70"/>
+  <dimension ref="A2:T70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5526,7 +5526,7 @@
     <col min="16" max="1025" width="8.140625"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5561,8 +5561,11 @@
       <c r="N4" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T4">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5575,8 +5578,11 @@
       <c r="N5" s="12" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T5">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5589,8 +5595,11 @@
       <c r="N6" t="s">
         <v>952</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T6">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5603,8 +5612,11 @@
       <c r="N7" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T7">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5612,8 +5624,11 @@
         <v>316</v>
       </c>
       <c r="M8" s="12"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T8">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5627,8 +5642,11 @@
       <c r="N9" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T9">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5636,8 +5654,11 @@
         <v>318</v>
       </c>
       <c r="M10" s="12"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T10">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5646,8 +5667,11 @@
       </c>
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T11">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5658,7 +5682,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5672,8 +5696,12 @@
         <f>25*M13*(M13+1)</f>
         <v>9500</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T13">
+        <f>SUM(T4:T11)</f>
+        <v>3636</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5684,7 +5712,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5692,7 +5720,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5974,7 +6002,7 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="13" t="s">
         <v>361</v>
       </c>
       <c r="C40" t="s">

--- a/doc/realmGrinder.xlsx
+++ b/doc/realmGrinder.xlsx
@@ -3124,7 +3124,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3191,6 +3191,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFDEADA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3204,7 +3216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -3238,6 +3250,8 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4864,8 +4878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5511,7 +5525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
@@ -6332,8 +6346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R93"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8574,16 +8588,16 @@
       </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B92" s="18" t="s">
+      <c r="B92" s="23" t="s">
         <v>979</v>
       </c>
-      <c r="C92" s="18" t="s">
+      <c r="C92" s="23" t="s">
         <v>980</v>
       </c>
-      <c r="D92" s="19" t="s">
+      <c r="D92" s="24" t="s">
         <v>984</v>
       </c>
-      <c r="E92" s="18" t="s">
+      <c r="E92" s="23" t="s">
         <v>981</v>
       </c>
       <c r="G92" s="18" t="s">

--- a/doc/realmGrinder.xlsx
+++ b/doc/realmGrinder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Upgrades" sheetId="1" r:id="rId1"/>
@@ -5525,7 +5525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
@@ -6346,8 +6346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R93"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7058,14 +7058,14 @@
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="23" t="s">
         <v>967</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="23" t="s">
         <v>968</v>
       </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18" t="s">
+      <c r="D30" s="23"/>
+      <c r="E30" s="23" t="s">
         <v>969</v>
       </c>
       <c r="G30" s="18" t="s">

--- a/doc/realmGrinder.xlsx
+++ b/doc/realmGrinder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Upgrades" sheetId="1" r:id="rId1"/>
@@ -2898,9 +2898,6 @@
     <t>5 dragon breath effects active, # breaths cast</t>
   </si>
   <si>
-    <t>Know your enemy parth 2</t>
-  </si>
-  <si>
     <t>Play as Merc and Have upgrades from each faction</t>
   </si>
   <si>
@@ -3106,6 +3103,9 @@
   </si>
   <si>
     <t>Play as neutral faction</t>
+  </si>
+  <si>
+    <t>Know your enemy part 2</t>
   </si>
 </sst>
 </file>
@@ -3124,7 +3124,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3191,18 +3191,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFDEADA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3216,7 +3204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -3250,8 +3238,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4878,8 +4864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5024,7 +5010,7 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="13" t="s">
         <v>246</v>
       </c>
       <c r="C14" t="s">
@@ -5388,10 +5374,10 @@
         <v>33</v>
       </c>
       <c r="B48" s="13" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C48" t="s">
         <v>1026</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -5476,10 +5462,10 @@
         <v>41</v>
       </c>
       <c r="B56" s="16" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C56" t="s">
         <v>958</v>
-      </c>
-      <c r="C56" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -5487,10 +5473,10 @@
         <v>42</v>
       </c>
       <c r="B57" s="16" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C57" t="s">
         <v>1020</v>
-      </c>
-      <c r="C57" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -5498,10 +5484,10 @@
         <v>43</v>
       </c>
       <c r="B58" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C58" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -5509,10 +5495,10 @@
         <v>44</v>
       </c>
       <c r="B59" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C59" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
   </sheetData>
@@ -5525,8 +5511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T70"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5761,7 +5747,7 @@
         <v>327</v>
       </c>
       <c r="M18" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="N18">
         <f>7*24</f>
@@ -5776,7 +5762,7 @@
         <v>328</v>
       </c>
       <c r="M19" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="N19">
         <f>7*8</f>
@@ -5799,7 +5785,7 @@
         <v>330</v>
       </c>
       <c r="M21" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="N21">
         <f>16*2</f>
@@ -5814,7 +5800,7 @@
         <v>331</v>
       </c>
       <c r="M22" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="N22">
         <f>N18-N19-N21</f>
@@ -5829,7 +5815,7 @@
         <v>332</v>
       </c>
       <c r="M23" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="N23">
         <v>35</v>
@@ -5843,7 +5829,7 @@
         <v>333</v>
       </c>
       <c r="M24" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="N24">
         <v>10</v>
@@ -5865,7 +5851,7 @@
         <v>335</v>
       </c>
       <c r="M26" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="N26">
         <f>N22-N23-N24</f>
@@ -6124,10 +6110,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="22" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C51" t="s">
         <v>1016</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -6264,10 +6250,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="21" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C64" t="s">
         <v>1018</v>
-      </c>
-      <c r="C64" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -6318,7 +6304,7 @@
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="13" t="s">
         <v>409</v>
       </c>
       <c r="C69" t="s">
@@ -6346,8 +6332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7058,49 +7044,49 @@
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="15" t="s">
+        <v>966</v>
+      </c>
+      <c r="C30" s="15" t="s">
         <v>967</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="D30" s="15"/>
+      <c r="E30" s="15" t="s">
         <v>968</v>
       </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23" t="s">
-        <v>969</v>
-      </c>
       <c r="G30" s="18" t="s">
+        <v>986</v>
+      </c>
+      <c r="H30" s="18" t="s">
         <v>987</v>
       </c>
-      <c r="H30" s="18" t="s">
+      <c r="I30" s="18" t="s">
+        <v>983</v>
+      </c>
+      <c r="J30" s="18" t="s">
         <v>988</v>
-      </c>
-      <c r="I30" s="18" t="s">
-        <v>984</v>
-      </c>
-      <c r="J30" s="18" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="s">
+        <v>969</v>
+      </c>
+      <c r="C31" s="18" t="s">
         <v>970</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>971</v>
       </c>
       <c r="D31" s="18"/>
       <c r="E31" s="18" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="G31" s="18" t="s">
+        <v>989</v>
+      </c>
+      <c r="H31" s="18" t="s">
         <v>990</v>
-      </c>
-      <c r="H31" s="18" t="s">
-        <v>991</v>
       </c>
       <c r="I31" s="18"/>
       <c r="J31" s="18" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
@@ -7454,22 +7440,22 @@
         <v>693</v>
       </c>
       <c r="M46" s="11" t="s">
+        <v>1004</v>
+      </c>
+      <c r="N46" s="11" t="s">
         <v>1005</v>
       </c>
-      <c r="N46" s="11" t="s">
+      <c r="O46" s="11" t="s">
         <v>1006</v>
       </c>
-      <c r="O46" s="11" t="s">
-        <v>1007</v>
-      </c>
       <c r="P46" s="11" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="Q46" s="11" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="R46" s="11" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.25">
@@ -7746,16 +7732,16 @@
         <v>741</v>
       </c>
       <c r="O54" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="P54" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="Q54" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="R54" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.25">
@@ -7782,7 +7768,7 @@
         <v>747</v>
       </c>
       <c r="O55" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.25">
@@ -7885,7 +7871,7 @@
         <v>775</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E60" s="15" t="s">
         <v>776</v>
@@ -7903,48 +7889,48 @@
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B61" s="18" t="s">
+        <v>972</v>
+      </c>
+      <c r="C61" s="18" t="s">
         <v>973</v>
-      </c>
-      <c r="C61" s="18" t="s">
-        <v>974</v>
       </c>
       <c r="D61" s="18"/>
       <c r="E61" s="18" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="G61" s="18" t="s">
+        <v>992</v>
+      </c>
+      <c r="H61" s="18" t="s">
         <v>993</v>
       </c>
-      <c r="H61" s="18" t="s">
+      <c r="I61" s="18" t="s">
+        <v>983</v>
+      </c>
+      <c r="J61" s="18" t="s">
         <v>994</v>
-      </c>
-      <c r="I61" s="18" t="s">
-        <v>984</v>
-      </c>
-      <c r="J61" s="18" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B62" s="18" t="s">
+        <v>975</v>
+      </c>
+      <c r="C62" s="18" t="s">
         <v>976</v>
-      </c>
-      <c r="C62" s="18" t="s">
-        <v>977</v>
       </c>
       <c r="D62" s="18"/>
       <c r="E62" s="18" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="G62" s="18" t="s">
+        <v>995</v>
+      </c>
+      <c r="H62" s="18" t="s">
         <v>996</v>
-      </c>
-      <c r="H62" s="18" t="s">
-        <v>997</v>
       </c>
       <c r="I62" s="18"/>
       <c r="J62" s="18" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.25">
@@ -8588,51 +8574,51 @@
       </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B92" s="23" t="s">
+      <c r="B92" s="15" t="s">
+        <v>978</v>
+      </c>
+      <c r="C92" s="15" t="s">
         <v>979</v>
       </c>
-      <c r="C92" s="23" t="s">
+      <c r="D92" s="13" t="s">
+        <v>983</v>
+      </c>
+      <c r="E92" s="15" t="s">
         <v>980</v>
       </c>
-      <c r="D92" s="24" t="s">
-        <v>984</v>
-      </c>
-      <c r="E92" s="23" t="s">
-        <v>981</v>
-      </c>
       <c r="G92" s="18" t="s">
+        <v>998</v>
+      </c>
+      <c r="H92" s="18" t="s">
         <v>999</v>
       </c>
-      <c r="H92" s="18" t="s">
-        <v>1000</v>
-      </c>
       <c r="I92" s="19" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="J92" s="18" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B93" s="18" t="s">
+        <v>981</v>
+      </c>
+      <c r="C93" s="18" t="s">
         <v>982</v>
-      </c>
-      <c r="C93" s="18" t="s">
-        <v>983</v>
       </c>
       <c r="D93" s="19"/>
       <c r="E93" s="18" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="G93" s="18" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H93" s="18" t="s">
         <v>1001</v>
-      </c>
-      <c r="H93" s="18" t="s">
-        <v>1002</v>
       </c>
       <c r="I93" s="19"/>
       <c r="J93" s="18" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
   </sheetData>

--- a/doc/realmGrinder.xlsx
+++ b/doc/realmGrinder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Upgrades" sheetId="1" r:id="rId1"/>
@@ -5511,8 +5511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5556,7 +5556,7 @@
         <v>312</v>
       </c>
       <c r="M4">
-        <v>15413</v>
+        <v>7521</v>
       </c>
       <c r="N4" t="s">
         <v>950</v>
@@ -5573,7 +5573,7 @@
         <v>313</v>
       </c>
       <c r="M5" s="12">
-        <v>600</v>
+        <v>32</v>
       </c>
       <c r="N5" s="12" t="s">
         <v>951</v>
@@ -5590,7 +5590,7 @@
         <v>314</v>
       </c>
       <c r="M6" s="12">
-        <v>480</v>
+        <v>1000</v>
       </c>
       <c r="N6" t="s">
         <v>952</v>
@@ -5607,7 +5607,7 @@
         <v>315</v>
       </c>
       <c r="M7" s="12">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="N7" t="s">
         <v>953</v>
@@ -5818,7 +5818,7 @@
         <v>963</v>
       </c>
       <c r="N23">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -5855,7 +5855,7 @@
       </c>
       <c r="N26">
         <f>N22-N23-N24</f>
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -6332,8 +6332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R93"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7888,38 +7888,38 @@
       </c>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="15" t="s">
         <v>972</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="C61" s="15" t="s">
         <v>973</v>
       </c>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18" t="s">
+      <c r="D61" s="15"/>
+      <c r="E61" s="15" t="s">
         <v>974</v>
       </c>
-      <c r="G61" s="18" t="s">
+      <c r="G61" s="15" t="s">
         <v>992</v>
       </c>
-      <c r="H61" s="18" t="s">
+      <c r="H61" s="15" t="s">
         <v>993</v>
       </c>
-      <c r="I61" s="18" t="s">
+      <c r="I61" s="15" t="s">
         <v>983</v>
       </c>
-      <c r="J61" s="18" t="s">
+      <c r="J61" s="15" t="s">
         <v>994</v>
       </c>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="15" t="s">
         <v>975</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="15" t="s">
         <v>976</v>
       </c>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18" t="s">
+      <c r="D62" s="15"/>
+      <c r="E62" s="15" t="s">
         <v>977</v>
       </c>
       <c r="G62" s="18" t="s">
@@ -8586,16 +8586,16 @@
       <c r="E92" s="15" t="s">
         <v>980</v>
       </c>
-      <c r="G92" s="18" t="s">
+      <c r="G92" s="15" t="s">
         <v>998</v>
       </c>
-      <c r="H92" s="18" t="s">
+      <c r="H92" s="15" t="s">
         <v>999</v>
       </c>
-      <c r="I92" s="19" t="s">
+      <c r="I92" s="13" t="s">
         <v>983</v>
       </c>
-      <c r="J92" s="18" t="s">
+      <c r="J92" s="15" t="s">
         <v>1002</v>
       </c>
     </row>

--- a/doc/realmGrinder.xlsx
+++ b/doc/realmGrinder.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="1028">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="1021">
   <si>
     <t>All Production</t>
   </si>
@@ -1524,9 +1524,6 @@
     <t>3,000 Stonehenge Circles</t>
   </si>
   <si>
-    <t>PRM</t>
-  </si>
-  <si>
     <t>S0270</t>
   </si>
   <si>
@@ -1548,9 +1545,6 @@
     <t>1,250 Royal Exchanges as Titans</t>
   </si>
   <si>
-    <t>Pierre Clement</t>
-  </si>
-  <si>
     <t>S0300</t>
   </si>
   <si>
@@ -1569,9 +1563,6 @@
     <t>7 Artifacts</t>
   </si>
   <si>
-    <t>Lady Giovanna</t>
-  </si>
-  <si>
     <t>S0305</t>
   </si>
   <si>
@@ -1590,9 +1581,6 @@
     <t>Have 2x gems in abdication treasury</t>
   </si>
   <si>
-    <t>Mencei</t>
-  </si>
-  <si>
     <t>S0330</t>
   </si>
   <si>
@@ -1611,9 +1599,6 @@
     <t>Research E200 &amp; E225</t>
   </si>
   <si>
-    <t>pabloagular3</t>
-  </si>
-  <si>
     <t>S0375</t>
   </si>
   <si>
@@ -1632,9 +1617,6 @@
     <t>Research C200 &amp; A330</t>
   </si>
   <si>
-    <t>ztant</t>
-  </si>
-  <si>
     <t>S0400</t>
   </si>
   <si>
@@ -1653,9 +1635,6 @@
     <t>Research A250 &amp; E350</t>
   </si>
   <si>
-    <t>XMajesticX</t>
-  </si>
-  <si>
     <t>S0435</t>
   </si>
   <si>
@@ -1677,9 +1656,6 @@
     <t>5000 Blacksmiths</t>
   </si>
   <si>
-    <t>ITZI</t>
-  </si>
-  <si>
     <t>S0460</t>
   </si>
   <si>
@@ -1698,9 +1674,6 @@
     <t>100B faction coins</t>
   </si>
   <si>
-    <t>Rou1819</t>
-  </si>
-  <si>
     <t>S0500</t>
   </si>
   <si>
@@ -1719,9 +1692,6 @@
     <t>15000 Max Mana</t>
   </si>
   <si>
-    <t>.Venganza</t>
-  </si>
-  <si>
     <t>S0545</t>
   </si>
   <si>
@@ -1743,9 +1713,6 @@
     <t>12000 Unique buildings</t>
   </si>
   <si>
-    <t>angel5555</t>
-  </si>
-  <si>
     <t>S0590</t>
   </si>
   <si>
@@ -1767,9 +1734,6 @@
     <t>200 Drow exchanges, research C225 &amp; E480</t>
   </si>
   <si>
-    <t>Goku</t>
-  </si>
-  <si>
     <t>S1275</t>
   </si>
   <si>
@@ -1788,9 +1752,6 @@
     <t>1T Faction Coins</t>
   </si>
   <si>
-    <t>Sir Jutedis</t>
-  </si>
-  <si>
     <t>S1450</t>
   </si>
   <si>
@@ -1809,9 +1770,6 @@
     <t>18000 unique buildings</t>
   </si>
   <si>
-    <t>Pierre da Ghost</t>
-  </si>
-  <si>
     <t>S1500</t>
   </si>
   <si>
@@ -1830,12 +1788,6 @@
     <t>10d each neutral, research A545 &amp; C13000</t>
   </si>
   <si>
-    <t>Geork</t>
-  </si>
-  <si>
-    <t>Amerstris City</t>
-  </si>
-  <si>
     <t>C0001</t>
   </si>
   <si>
@@ -1848,9 +1800,6 @@
     <t>Plague</t>
   </si>
   <si>
-    <t>!Azathoth!</t>
-  </si>
-  <si>
     <t>C0010</t>
   </si>
   <si>
@@ -1869,9 +1818,6 @@
     <t>2250 Goblin Banks</t>
   </si>
   <si>
-    <t>Testament!!!!</t>
-  </si>
-  <si>
     <t>C0025</t>
   </si>
   <si>
@@ -1893,9 +1839,6 @@
     <t>666 Hellfire Blasts</t>
   </si>
   <si>
-    <t>TXIMISTA</t>
-  </si>
-  <si>
     <t>C0050</t>
   </si>
   <si>
@@ -1917,9 +1860,6 @@
     <t>750 fairy chanting casts</t>
   </si>
   <si>
-    <t>Pierre SQ</t>
-  </si>
-  <si>
     <t>C080</t>
   </si>
   <si>
@@ -3106,6 +3046,45 @@
   </si>
   <si>
     <t>Know your enemy part 2</t>
+  </si>
+  <si>
+    <t>Tier 1</t>
+  </si>
+  <si>
+    <t>Tier 2</t>
+  </si>
+  <si>
+    <t>Tier 3</t>
+  </si>
+  <si>
+    <t>E 1-1</t>
+  </si>
+  <si>
+    <t>F1-2</t>
+  </si>
+  <si>
+    <t>D1-2</t>
+  </si>
+  <si>
+    <t>D2-3</t>
+  </si>
+  <si>
+    <t>F2-2</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Dragon</t>
   </si>
 </sst>
 </file>
@@ -3124,7 +3103,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3191,6 +3170,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFDEADA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3204,7 +3195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -3238,6 +3229,8 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5355,7 +5348,7 @@
         <v>0.28241856441229374</v>
       </c>
       <c r="J46" t="s">
-        <v>957</v>
+        <v>937</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -5374,10 +5367,10 @@
         <v>33</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>1025</v>
+        <v>1005</v>
       </c>
       <c r="C48" t="s">
-        <v>1026</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -5462,10 +5455,10 @@
         <v>41</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>1027</v>
+        <v>1007</v>
       </c>
       <c r="C56" t="s">
-        <v>958</v>
+        <v>938</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -5473,10 +5466,10 @@
         <v>42</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>1019</v>
+        <v>999</v>
       </c>
       <c r="C57" t="s">
-        <v>1020</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -5484,10 +5477,10 @@
         <v>43</v>
       </c>
       <c r="B58" t="s">
-        <v>1023</v>
+        <v>1003</v>
       </c>
       <c r="C58" t="s">
-        <v>1021</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -5495,10 +5488,10 @@
         <v>44</v>
       </c>
       <c r="B59" t="s">
-        <v>1024</v>
+        <v>1004</v>
       </c>
       <c r="C59" t="s">
-        <v>1022</v>
+        <v>1002</v>
       </c>
     </row>
   </sheetData>
@@ -5512,7 +5505,7 @@
   <dimension ref="A2:T70"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5545,7 +5538,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>955</v>
+        <v>935</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -5555,11 +5548,14 @@
       <c r="B4" s="11" t="s">
         <v>312</v>
       </c>
+      <c r="K4">
+        <v>5200</v>
+      </c>
       <c r="M4">
-        <v>7521</v>
+        <v>3068</v>
       </c>
       <c r="N4" t="s">
-        <v>950</v>
+        <v>930</v>
       </c>
       <c r="T4">
         <v>465</v>
@@ -5573,10 +5569,10 @@
         <v>313</v>
       </c>
       <c r="M5" s="12">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>951</v>
+        <v>931</v>
       </c>
       <c r="T5">
         <v>465</v>
@@ -5590,10 +5586,10 @@
         <v>314</v>
       </c>
       <c r="M6" s="12">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="N6" t="s">
-        <v>952</v>
+        <v>932</v>
       </c>
       <c r="T6">
         <v>423</v>
@@ -5610,7 +5606,7 @@
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>953</v>
+        <v>933</v>
       </c>
       <c r="T7">
         <v>423</v>
@@ -5640,7 +5636,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>954</v>
+        <v>934</v>
       </c>
       <c r="T9">
         <v>465</v>
@@ -5679,7 +5675,7 @@
         <v>320</v>
       </c>
       <c r="M12" t="s">
-        <v>956</v>
+        <v>936</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -5747,7 +5743,7 @@
         <v>327</v>
       </c>
       <c r="M18" t="s">
-        <v>959</v>
+        <v>939</v>
       </c>
       <c r="N18">
         <f>7*24</f>
@@ -5762,7 +5758,7 @@
         <v>328</v>
       </c>
       <c r="M19" t="s">
-        <v>960</v>
+        <v>940</v>
       </c>
       <c r="N19">
         <f>7*8</f>
@@ -5785,7 +5781,7 @@
         <v>330</v>
       </c>
       <c r="M21" t="s">
-        <v>962</v>
+        <v>942</v>
       </c>
       <c r="N21">
         <f>16*2</f>
@@ -5800,7 +5796,7 @@
         <v>331</v>
       </c>
       <c r="M22" t="s">
-        <v>961</v>
+        <v>941</v>
       </c>
       <c r="N22">
         <f>N18-N19-N21</f>
@@ -5815,7 +5811,7 @@
         <v>332</v>
       </c>
       <c r="M23" t="s">
-        <v>963</v>
+        <v>943</v>
       </c>
       <c r="N23">
         <v>50</v>
@@ -5829,7 +5825,7 @@
         <v>333</v>
       </c>
       <c r="M24" t="s">
-        <v>965</v>
+        <v>945</v>
       </c>
       <c r="N24">
         <v>10</v>
@@ -5851,7 +5847,7 @@
         <v>335</v>
       </c>
       <c r="M26" t="s">
-        <v>964</v>
+        <v>944</v>
       </c>
       <c r="N26">
         <f>N22-N23-N24</f>
@@ -6110,10 +6106,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>1015</v>
+        <v>995</v>
       </c>
       <c r="C51" t="s">
-        <v>1016</v>
+        <v>996</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -6250,10 +6246,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>1017</v>
+        <v>997</v>
       </c>
       <c r="C64" t="s">
-        <v>1018</v>
+        <v>998</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -6330,10 +6326,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R93"/>
+  <dimension ref="B2:U93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6354,7 +6350,7 @@
     <col min="19" max="1025" width="8.140625"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>413</v>
       </c>
@@ -6373,8 +6369,35 @@
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="P2" t="s">
+        <v>984</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>985</v>
+      </c>
+      <c r="R2" t="s">
+        <v>986</v>
+      </c>
+      <c r="S2" t="s">
+        <v>989</v>
+      </c>
+      <c r="T2" t="s">
+        <v>991</v>
+      </c>
+      <c r="U2" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>418</v>
       </c>
@@ -6399,8 +6422,32 @@
       <c r="J3" s="11" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M3" s="11" t="s">
+        <v>1011</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>1014</v>
+      </c>
+      <c r="P3">
+        <v>180</v>
+      </c>
+      <c r="Q3">
+        <v>400</v>
+      </c>
+      <c r="R3">
+        <v>290</v>
+      </c>
+      <c r="S3">
+        <v>145</v>
+      </c>
+      <c r="T3">
+        <v>120</v>
+      </c>
+      <c r="U3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>426</v>
       </c>
@@ -6421,8 +6468,29 @@
       <c r="J4" s="11" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="Q4">
+        <v>590</v>
+      </c>
+      <c r="R4">
+        <v>560</v>
+      </c>
+      <c r="S4">
+        <v>320</v>
+      </c>
+      <c r="T4">
+        <v>1325</v>
+      </c>
+      <c r="U4">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>432</v>
       </c>
@@ -6445,8 +6513,17 @@
       <c r="J5" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="Q5">
+        <v>1325</v>
+      </c>
+      <c r="S5">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>438</v>
       </c>
@@ -6470,7 +6547,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>445</v>
       </c>
@@ -6494,7 +6571,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>451</v>
       </c>
@@ -6517,8 +6594,14 @@
       <c r="J8" s="11" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M8" s="11" t="s">
+        <v>1016</v>
+      </c>
+      <c r="N8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>457</v>
       </c>
@@ -6539,8 +6622,14 @@
       <c r="J9" s="11" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>989</v>
+      </c>
+      <c r="N9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>463</v>
       </c>
@@ -6561,8 +6650,14 @@
       <c r="J10" s="11" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>991</v>
+      </c>
+      <c r="N10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>469</v>
       </c>
@@ -6583,8 +6678,14 @@
       <c r="J11" s="11" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>1017</v>
+      </c>
+      <c r="N11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>475</v>
       </c>
@@ -6605,8 +6706,14 @@
       <c r="J12" s="11" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>1018</v>
+      </c>
+      <c r="N12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
         <v>481</v>
       </c>
@@ -6627,8 +6734,14 @@
       <c r="J13" s="11" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>603</v>
+      </c>
+      <c r="N13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
         <v>487</v>
       </c>
@@ -6649,8 +6762,14 @@
       <c r="J14" s="11" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>1019</v>
+      </c>
+      <c r="N14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
         <v>493</v>
       </c>
@@ -6674,810 +6793,805 @@
         <v>499</v>
       </c>
       <c r="M15" t="s">
+        <v>672</v>
+      </c>
+      <c r="N15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
+      <c r="C16" s="11" t="s">
         <v>501</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>502</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="H16" s="11" t="s">
         <v>504</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="I16" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="J16" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="M16" s="11" t="s">
+        <v>1016</v>
+      </c>
+      <c r="N16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
         <v>507</v>
       </c>
-      <c r="M16" t="s">
+      <c r="C17" s="11" t="s">
         <v>508</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>510</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>495</v>
       </c>
       <c r="E17" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="H17" s="11" t="s">
         <v>511</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>512</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>513</v>
       </c>
       <c r="I17" s="11"/>
       <c r="J17" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="M17" s="21" t="s">
+        <v>561</v>
+      </c>
+      <c r="N17" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>514</v>
-      </c>
-      <c r="M17" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="11" t="s">
-        <v>516</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>517</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>495</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="M18" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+      <c r="M18" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="N18" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="M19" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+      <c r="M19" s="21" t="s">
+        <v>1020</v>
+      </c>
+      <c r="N19" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>495</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="M20" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="M21" s="16"/>
+      <c r="N21" s="21"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="H22" s="11" t="s">
         <v>542</v>
-      </c>
-      <c r="M21" s="11" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>545</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>548</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>549</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="11" t="s">
-        <v>550</v>
-      </c>
-      <c r="M22" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="11" t="s">
-        <v>557</v>
-      </c>
-      <c r="M23" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="11" t="s">
-        <v>564</v>
-      </c>
-      <c r="M24" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="M25" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>580</v>
-      </c>
-      <c r="M26" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="15" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="15" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="I27" s="15"/>
       <c r="J27" s="15" t="s">
-        <v>587</v>
-      </c>
-      <c r="M27" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="15" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="15" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="I28" s="15"/>
       <c r="J28" s="15" t="s">
-        <v>594</v>
-      </c>
-      <c r="M28" s="11" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+      <c r="M28" s="16"/>
+      <c r="N28" s="21"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="15" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="D29" s="15"/>
       <c r="E29" s="15" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="I29" s="15"/>
       <c r="J29" s="15" t="s">
-        <v>601</v>
-      </c>
-      <c r="M29" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="15" t="s">
-        <v>966</v>
+        <v>946</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>967</v>
+        <v>947</v>
       </c>
       <c r="D30" s="15"/>
       <c r="E30" s="15" t="s">
+        <v>948</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>966</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>967</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>963</v>
+      </c>
+      <c r="J30" s="18" t="s">
         <v>968</v>
       </c>
-      <c r="G30" s="18" t="s">
-        <v>986</v>
-      </c>
-      <c r="H30" s="18" t="s">
-        <v>987</v>
-      </c>
-      <c r="I30" s="18" t="s">
-        <v>983</v>
-      </c>
-      <c r="J30" s="18" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="s">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>970</v>
+        <v>950</v>
       </c>
       <c r="D31" s="18"/>
       <c r="E31" s="18" t="s">
-        <v>971</v>
+        <v>951</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>989</v>
+        <v>969</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>990</v>
+        <v>970</v>
       </c>
       <c r="I31" s="18"/>
       <c r="J31" s="18" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="M32" t="s">
-        <v>603</v>
-      </c>
+        <v>971</v>
+      </c>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="G33" s="11" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
-      <c r="M33" s="11" t="s">
-        <v>608</v>
-      </c>
+      <c r="M33" s="16"/>
+      <c r="N33" s="21"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="11" t="s">
-        <v>609</v>
+        <v>592</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>610</v>
+        <v>593</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11" t="s">
-        <v>611</v>
+        <v>594</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>612</v>
+        <v>595</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>613</v>
+        <v>596</v>
       </c>
       <c r="I34" s="11" t="s">
         <v>443</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>614</v>
-      </c>
-      <c r="M34" t="s">
-        <v>615</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="11" t="s">
-        <v>616</v>
+        <v>598</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>617</v>
+        <v>599</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11" t="s">
-        <v>618</v>
+        <v>600</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>619</v>
+        <v>601</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>620</v>
+        <v>602</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>621</v>
+        <v>603</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>622</v>
-      </c>
-      <c r="M35" t="s">
-        <v>623</v>
-      </c>
+        <v>604</v>
+      </c>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="11" t="s">
-        <v>624</v>
+        <v>605</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>625</v>
+        <v>606</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>626</v>
+        <v>607</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>627</v>
+        <v>608</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>628</v>
+        <v>609</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>629</v>
+        <v>610</v>
       </c>
       <c r="I36" s="11" t="s">
         <v>415</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>630</v>
-      </c>
-      <c r="M36" t="s">
-        <v>631</v>
-      </c>
+        <v>611</v>
+      </c>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="11" t="s">
-        <v>632</v>
+        <v>612</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11" t="s">
-        <v>634</v>
+        <v>614</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>636</v>
+        <v>616</v>
       </c>
       <c r="I37" s="11" t="s">
         <v>424</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>637</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="11" t="s">
-        <v>638</v>
+        <v>618</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>639</v>
+        <v>619</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11" t="s">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>641</v>
+        <v>621</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>642</v>
+        <v>622</v>
       </c>
       <c r="I38" s="11"/>
       <c r="J38" s="11" t="s">
-        <v>643</v>
-      </c>
+        <v>623</v>
+      </c>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="11" t="s">
-        <v>644</v>
+        <v>624</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>645</v>
+        <v>625</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11" t="s">
-        <v>646</v>
+        <v>626</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>647</v>
+        <v>627</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>648</v>
+        <v>628</v>
       </c>
       <c r="I39" s="11"/>
       <c r="J39" s="11" t="s">
-        <v>649</v>
-      </c>
+        <v>629</v>
+      </c>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="11" t="s">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>651</v>
+        <v>631</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11" t="s">
-        <v>652</v>
+        <v>632</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>653</v>
+        <v>633</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>654</v>
+        <v>634</v>
       </c>
       <c r="I40" s="11"/>
       <c r="J40" s="11" t="s">
-        <v>655</v>
-      </c>
-      <c r="M40" s="17">
-        <f>10000000000</f>
-        <v>10000000000</v>
-      </c>
-      <c r="O40">
-        <f>M40/(24*3*3600)</f>
-        <v>38580.246913580246</v>
-      </c>
+        <v>635</v>
+      </c>
+      <c r="M40" s="17"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="11" t="s">
-        <v>656</v>
+        <v>636</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>657</v>
+        <v>637</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11" t="s">
-        <v>658</v>
+        <v>638</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>659</v>
+        <v>639</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>660</v>
+        <v>640</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>661</v>
+        <v>641</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>662</v>
-      </c>
-      <c r="M41">
-        <f>M40/30000</f>
-        <v>333333.33333333331</v>
+        <v>642</v>
       </c>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="11" t="s">
-        <v>663</v>
+        <v>643</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>664</v>
+        <v>644</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11" t="s">
-        <v>665</v>
+        <v>645</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>666</v>
+        <v>646</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>667</v>
+        <v>647</v>
       </c>
       <c r="I42" s="11"/>
       <c r="J42" s="11" t="s">
-        <v>668</v>
-      </c>
-      <c r="M42">
-        <f>M41/1600</f>
-        <v>208.33333333333331</v>
+        <v>648</v>
       </c>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="11" t="s">
-        <v>669</v>
+        <v>649</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>670</v>
+        <v>650</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11" t="s">
-        <v>671</v>
+        <v>651</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>672</v>
+        <v>652</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>673</v>
+        <v>653</v>
       </c>
       <c r="I43" s="11"/>
       <c r="J43" s="11" t="s">
-        <v>674</v>
+        <v>654</v>
       </c>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="11" t="s">
-        <v>675</v>
+        <v>655</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>676</v>
+        <v>656</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11" t="s">
-        <v>677</v>
+        <v>657</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>678</v>
+        <v>658</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>679</v>
+        <v>659</v>
       </c>
       <c r="I44" s="11"/>
       <c r="J44" s="11" t="s">
-        <v>680</v>
+        <v>660</v>
       </c>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="11" t="s">
-        <v>681</v>
+        <v>661</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>682</v>
+        <v>662</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11" t="s">
-        <v>683</v>
+        <v>663</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>684</v>
+        <v>664</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>685</v>
+        <v>665</v>
       </c>
       <c r="I45" s="11"/>
       <c r="J45" s="11" t="s">
-        <v>686</v>
+        <v>666</v>
       </c>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B46" s="11" t="s">
-        <v>687</v>
+        <v>667</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>688</v>
+        <v>668</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11" t="s">
-        <v>689</v>
+        <v>669</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>690</v>
+        <v>670</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>691</v>
+        <v>671</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>692</v>
+        <v>672</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>693</v>
+        <v>673</v>
       </c>
       <c r="M46" s="11" t="s">
-        <v>1004</v>
+        <v>984</v>
       </c>
       <c r="N46" s="11" t="s">
-        <v>1005</v>
+        <v>985</v>
       </c>
       <c r="O46" s="11" t="s">
-        <v>1006</v>
+        <v>986</v>
       </c>
       <c r="P46" s="11" t="s">
-        <v>1009</v>
+        <v>989</v>
       </c>
       <c r="Q46" s="11" t="s">
-        <v>1011</v>
+        <v>991</v>
       </c>
       <c r="R46" s="11" t="s">
-        <v>1013</v>
+        <v>993</v>
       </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B47" s="11" t="s">
-        <v>694</v>
+        <v>674</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>695</v>
+        <v>675</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11" t="s">
-        <v>696</v>
+        <v>676</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>697</v>
+        <v>677</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>698</v>
+        <v>678</v>
       </c>
       <c r="I47" s="11"/>
       <c r="J47" s="11" t="s">
-        <v>699</v>
+        <v>679</v>
       </c>
       <c r="M47">
         <v>105</v>
@@ -7500,26 +7614,26 @@
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B48" s="11" t="s">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>701</v>
+        <v>681</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11" t="s">
-        <v>702</v>
+        <v>682</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>703</v>
+        <v>683</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>704</v>
+        <v>684</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>692</v>
+        <v>672</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>705</v>
+        <v>685</v>
       </c>
       <c r="M48">
         <v>150</v>
@@ -7542,24 +7656,24 @@
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B49" s="11" t="s">
-        <v>706</v>
+        <v>686</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>707</v>
+        <v>687</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11" t="s">
-        <v>708</v>
+        <v>688</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>709</v>
+        <v>689</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>710</v>
+        <v>690</v>
       </c>
       <c r="I49" s="11"/>
       <c r="J49" s="11" t="s">
-        <v>711</v>
+        <v>691</v>
       </c>
       <c r="M49">
         <v>305</v>
@@ -7582,24 +7696,24 @@
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="11" t="s">
-        <v>712</v>
+        <v>692</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>713</v>
+        <v>693</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11" t="s">
-        <v>714</v>
+        <v>694</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>715</v>
+        <v>695</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>716</v>
+        <v>696</v>
       </c>
       <c r="I50" s="11"/>
       <c r="J50" s="11" t="s">
-        <v>717</v>
+        <v>697</v>
       </c>
       <c r="M50">
         <v>330</v>
@@ -7622,24 +7736,24 @@
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" s="11" t="s">
-        <v>718</v>
+        <v>698</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>719</v>
+        <v>699</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11" t="s">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>721</v>
+        <v>701</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>722</v>
+        <v>702</v>
       </c>
       <c r="I51" s="11"/>
       <c r="J51" s="11" t="s">
-        <v>723</v>
+        <v>703</v>
       </c>
       <c r="M51">
         <v>500</v>
@@ -7662,24 +7776,24 @@
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" s="11" t="s">
-        <v>724</v>
+        <v>704</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>725</v>
+        <v>705</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11" t="s">
-        <v>726</v>
+        <v>706</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>727</v>
+        <v>707</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>728</v>
+        <v>708</v>
       </c>
       <c r="I52" s="11"/>
       <c r="J52" s="11" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
       <c r="N52">
         <v>400</v>
@@ -7690,935 +7804,935 @@
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B53" s="11" t="s">
-        <v>730</v>
+        <v>710</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>731</v>
+        <v>711</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11" t="s">
-        <v>732</v>
+        <v>712</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>733</v>
+        <v>713</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>734</v>
+        <v>714</v>
       </c>
       <c r="I53" s="11"/>
       <c r="J53" s="11" t="s">
-        <v>735</v>
+        <v>715</v>
       </c>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B54" s="11" t="s">
-        <v>736</v>
+        <v>716</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>737</v>
+        <v>717</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11" t="s">
-        <v>738</v>
+        <v>718</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>739</v>
+        <v>719</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>740</v>
+        <v>720</v>
       </c>
       <c r="I54" s="11"/>
       <c r="J54" s="11" t="s">
-        <v>741</v>
+        <v>721</v>
       </c>
       <c r="O54" t="s">
-        <v>1007</v>
+        <v>987</v>
       </c>
       <c r="P54" t="s">
-        <v>1010</v>
+        <v>990</v>
       </c>
       <c r="Q54" t="s">
-        <v>1012</v>
+        <v>992</v>
       </c>
       <c r="R54" t="s">
-        <v>1014</v>
+        <v>994</v>
       </c>
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B55" s="11" t="s">
-        <v>742</v>
+        <v>722</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>743</v>
+        <v>723</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11" t="s">
-        <v>744</v>
+        <v>724</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>745</v>
+        <v>725</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>746</v>
+        <v>726</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>747</v>
+        <v>727</v>
       </c>
       <c r="O55" t="s">
-        <v>1008</v>
+        <v>988</v>
       </c>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B56" s="11" t="s">
-        <v>748</v>
+        <v>728</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>749</v>
+        <v>729</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11" t="s">
-        <v>750</v>
+        <v>730</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>751</v>
+        <v>731</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>752</v>
+        <v>732</v>
       </c>
       <c r="I56" s="11"/>
       <c r="J56" s="11" t="s">
-        <v>753</v>
+        <v>733</v>
       </c>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B57" s="11" t="s">
-        <v>754</v>
+        <v>734</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>755</v>
+        <v>735</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>756</v>
+        <v>736</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>757</v>
+        <v>737</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>758</v>
+        <v>738</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>759</v>
+        <v>739</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>760</v>
+        <v>740</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>761</v>
+        <v>741</v>
       </c>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B58" s="15" t="s">
-        <v>762</v>
+        <v>742</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>763</v>
+        <v>743</v>
       </c>
       <c r="D58" s="15"/>
       <c r="E58" s="15" t="s">
-        <v>764</v>
+        <v>744</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>765</v>
+        <v>745</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>766</v>
+        <v>746</v>
       </c>
       <c r="I58" s="15"/>
       <c r="J58" s="15" t="s">
-        <v>767</v>
+        <v>747</v>
       </c>
     </row>
     <row r="59" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B59" s="15" t="s">
-        <v>768</v>
+        <v>748</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>769</v>
+        <v>749</v>
       </c>
       <c r="D59" s="15"/>
       <c r="E59" s="15" t="s">
-        <v>770</v>
+        <v>750</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>771</v>
+        <v>751</v>
       </c>
       <c r="H59" s="15" t="s">
-        <v>772</v>
+        <v>752</v>
       </c>
       <c r="I59" s="15"/>
       <c r="J59" s="15" t="s">
-        <v>773</v>
+        <v>753</v>
       </c>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B60" s="15" t="s">
-        <v>774</v>
+        <v>754</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>775</v>
+        <v>755</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>985</v>
+        <v>965</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>776</v>
+        <v>756</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>777</v>
+        <v>757</v>
       </c>
       <c r="H60" s="15" t="s">
-        <v>778</v>
+        <v>758</v>
       </c>
       <c r="I60" s="15"/>
       <c r="J60" s="15" t="s">
-        <v>779</v>
+        <v>759</v>
       </c>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B61" s="15" t="s">
-        <v>972</v>
+        <v>952</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>973</v>
+        <v>953</v>
       </c>
       <c r="D61" s="15"/>
       <c r="E61" s="15" t="s">
+        <v>954</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>972</v>
+      </c>
+      <c r="H61" s="15" t="s">
+        <v>973</v>
+      </c>
+      <c r="I61" s="15" t="s">
+        <v>963</v>
+      </c>
+      <c r="J61" s="15" t="s">
         <v>974</v>
-      </c>
-      <c r="G61" s="15" t="s">
-        <v>992</v>
-      </c>
-      <c r="H61" s="15" t="s">
-        <v>993</v>
-      </c>
-      <c r="I61" s="15" t="s">
-        <v>983</v>
-      </c>
-      <c r="J61" s="15" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B62" s="15" t="s">
-        <v>975</v>
+        <v>955</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>976</v>
+        <v>956</v>
       </c>
       <c r="D62" s="15"/>
       <c r="E62" s="15" t="s">
-        <v>977</v>
+        <v>957</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>995</v>
+        <v>975</v>
       </c>
       <c r="H62" s="18" t="s">
-        <v>996</v>
+        <v>976</v>
       </c>
       <c r="I62" s="18"/>
       <c r="J62" s="18" t="s">
-        <v>997</v>
+        <v>977</v>
       </c>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B64" s="11" t="s">
-        <v>780</v>
+        <v>760</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>781</v>
+        <v>761</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
       <c r="G64" s="11" t="s">
-        <v>782</v>
+        <v>762</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>783</v>
+        <v>763</v>
       </c>
       <c r="I64" s="11"/>
       <c r="J64" s="11"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65" s="11" t="s">
-        <v>784</v>
+        <v>764</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>785</v>
+        <v>765</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>621</v>
+        <v>603</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="I65" s="11"/>
       <c r="J65" s="11" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66" s="11" t="s">
-        <v>790</v>
+        <v>770</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>791</v>
+        <v>771</v>
       </c>
       <c r="D66" s="11" t="s">
         <v>424</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>792</v>
+        <v>772</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>793</v>
+        <v>773</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>794</v>
+        <v>774</v>
       </c>
       <c r="I66" s="11" t="s">
         <v>443</v>
       </c>
       <c r="J66" s="11" t="s">
-        <v>795</v>
+        <v>775</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67" s="11" t="s">
-        <v>796</v>
+        <v>776</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>797</v>
+        <v>777</v>
       </c>
       <c r="D67" s="11" t="s">
         <v>420</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>798</v>
+        <v>778</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>799</v>
+        <v>779</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>800</v>
+        <v>780</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>801</v>
+        <v>781</v>
       </c>
       <c r="J67" s="11" t="s">
-        <v>802</v>
+        <v>782</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B68" s="11" t="s">
-        <v>803</v>
+        <v>783</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>804</v>
+        <v>784</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11" t="s">
-        <v>805</v>
+        <v>785</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>806</v>
+        <v>786</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>807</v>
+        <v>787</v>
       </c>
       <c r="I68" s="11"/>
       <c r="J68" s="11" t="s">
-        <v>808</v>
+        <v>788</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B69" s="11" t="s">
-        <v>809</v>
+        <v>789</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>810</v>
+        <v>790</v>
       </c>
       <c r="D69" s="11" t="s">
         <v>420</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>811</v>
+        <v>791</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>812</v>
+        <v>792</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>813</v>
+        <v>793</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>621</v>
+        <v>603</v>
       </c>
       <c r="J69" s="11" t="s">
-        <v>814</v>
+        <v>794</v>
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B70" s="11" t="s">
-        <v>815</v>
+        <v>795</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>816</v>
+        <v>796</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11" t="s">
-        <v>817</v>
+        <v>797</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>818</v>
+        <v>798</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>819</v>
+        <v>799</v>
       </c>
       <c r="I70" s="11"/>
       <c r="J70" s="11" t="s">
-        <v>820</v>
+        <v>800</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B71" s="11" t="s">
-        <v>821</v>
+        <v>801</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>822</v>
+        <v>802</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11" t="s">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>824</v>
+        <v>804</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>825</v>
+        <v>805</v>
       </c>
       <c r="I71" s="11"/>
       <c r="J71" s="11" t="s">
-        <v>826</v>
+        <v>806</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B72" s="11" t="s">
-        <v>827</v>
+        <v>807</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>828</v>
+        <v>808</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11" t="s">
-        <v>829</v>
+        <v>809</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>830</v>
+        <v>810</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>831</v>
+        <v>811</v>
       </c>
       <c r="I72" s="11"/>
       <c r="J72" s="11" t="s">
-        <v>832</v>
+        <v>812</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B73" s="11" t="s">
-        <v>833</v>
+        <v>813</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>834</v>
+        <v>814</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11" t="s">
-        <v>835</v>
+        <v>815</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>836</v>
+        <v>816</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>837</v>
+        <v>817</v>
       </c>
       <c r="I73" s="11"/>
       <c r="J73" s="11" t="s">
-        <v>838</v>
+        <v>818</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B74" s="11" t="s">
-        <v>839</v>
+        <v>819</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>840</v>
+        <v>820</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11" t="s">
-        <v>841</v>
+        <v>821</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>842</v>
+        <v>822</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>843</v>
+        <v>823</v>
       </c>
       <c r="I74" s="11"/>
       <c r="J74" s="11" t="s">
-        <v>844</v>
+        <v>824</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B75" s="11" t="s">
-        <v>845</v>
+        <v>825</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>846</v>
+        <v>826</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11" t="s">
-        <v>847</v>
+        <v>827</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>848</v>
+        <v>828</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>849</v>
+        <v>829</v>
       </c>
       <c r="I75" s="11"/>
       <c r="J75" s="11" t="s">
-        <v>850</v>
+        <v>830</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B76" s="11" t="s">
-        <v>851</v>
+        <v>831</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>852</v>
+        <v>832</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11" t="s">
-        <v>853</v>
+        <v>833</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>854</v>
+        <v>834</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>855</v>
+        <v>835</v>
       </c>
       <c r="I76" s="11"/>
       <c r="J76" s="11" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B77" s="11" t="s">
-        <v>857</v>
+        <v>837</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>858</v>
+        <v>838</v>
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11" t="s">
-        <v>859</v>
+        <v>839</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>860</v>
+        <v>840</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>861</v>
+        <v>841</v>
       </c>
       <c r="I77" s="11"/>
       <c r="J77" s="11" t="s">
-        <v>862</v>
+        <v>842</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B78" s="11" t="s">
-        <v>863</v>
+        <v>843</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>864</v>
+        <v>844</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11" t="s">
-        <v>865</v>
+        <v>845</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>866</v>
+        <v>846</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>867</v>
+        <v>847</v>
       </c>
       <c r="I78" s="11" t="s">
         <v>495</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>868</v>
+        <v>848</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B79" s="11" t="s">
-        <v>869</v>
+        <v>849</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>870</v>
+        <v>850</v>
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11" t="s">
-        <v>871</v>
+        <v>851</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>872</v>
+        <v>852</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>873</v>
+        <v>853</v>
       </c>
       <c r="I79" s="11"/>
       <c r="J79" s="11" t="s">
-        <v>874</v>
+        <v>854</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B80" s="11" t="s">
-        <v>875</v>
+        <v>855</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>876</v>
+        <v>856</v>
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11" t="s">
-        <v>877</v>
+        <v>857</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>878</v>
+        <v>858</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>879</v>
+        <v>859</v>
       </c>
       <c r="I80" s="11"/>
       <c r="J80" s="11" t="s">
-        <v>880</v>
+        <v>860</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B81" s="11" t="s">
-        <v>881</v>
+        <v>861</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>882</v>
+        <v>862</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11" t="s">
-        <v>883</v>
+        <v>863</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>884</v>
+        <v>864</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>885</v>
+        <v>865</v>
       </c>
       <c r="I81" s="11"/>
       <c r="J81" s="11" t="s">
-        <v>886</v>
+        <v>866</v>
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82" s="11" t="s">
-        <v>887</v>
+        <v>867</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>888</v>
+        <v>868</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>889</v>
+        <v>869</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>890</v>
+        <v>870</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>891</v>
+        <v>871</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>892</v>
+        <v>872</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>692</v>
+        <v>672</v>
       </c>
       <c r="J82" s="11" t="s">
-        <v>893</v>
+        <v>873</v>
       </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B83" s="11" t="s">
-        <v>894</v>
+        <v>874</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>895</v>
+        <v>875</v>
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11" t="s">
-        <v>896</v>
+        <v>876</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>897</v>
+        <v>877</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>898</v>
+        <v>878</v>
       </c>
       <c r="I83" s="11"/>
       <c r="J83" s="11" t="s">
-        <v>899</v>
+        <v>879</v>
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B84" s="11" t="s">
-        <v>900</v>
+        <v>880</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>901</v>
+        <v>881</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11" t="s">
-        <v>902</v>
+        <v>882</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>903</v>
+        <v>883</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>904</v>
+        <v>884</v>
       </c>
       <c r="I84" s="11"/>
       <c r="J84" s="11" t="s">
-        <v>905</v>
+        <v>885</v>
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B85" s="11" t="s">
-        <v>906</v>
+        <v>886</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>907</v>
+        <v>887</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11" t="s">
-        <v>908</v>
+        <v>888</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>909</v>
+        <v>889</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>910</v>
+        <v>890</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="J85" s="11" t="s">
-        <v>911</v>
+        <v>891</v>
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B86" s="11" t="s">
-        <v>912</v>
+        <v>892</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>913</v>
+        <v>893</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11" t="s">
-        <v>914</v>
+        <v>894</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>915</v>
+        <v>895</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>916</v>
+        <v>896</v>
       </c>
       <c r="I86" s="11"/>
       <c r="J86" s="11" t="s">
-        <v>917</v>
+        <v>897</v>
       </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B87" s="11" t="s">
-        <v>918</v>
+        <v>898</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>919</v>
+        <v>899</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>920</v>
+        <v>900</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>921</v>
+        <v>901</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>922</v>
+        <v>902</v>
       </c>
       <c r="I87" s="11"/>
       <c r="J87" s="11" t="s">
-        <v>923</v>
+        <v>903</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B88" s="11" t="s">
-        <v>924</v>
+        <v>904</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>925</v>
+        <v>905</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>926</v>
+        <v>906</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>927</v>
+        <v>907</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>928</v>
+        <v>908</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>929</v>
+        <v>909</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>930</v>
+        <v>910</v>
       </c>
       <c r="J88" s="11" t="s">
-        <v>931</v>
+        <v>911</v>
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B89" s="15" t="s">
-        <v>932</v>
+        <v>912</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>933</v>
+        <v>913</v>
       </c>
       <c r="D89" s="15"/>
       <c r="E89" s="15" t="s">
-        <v>934</v>
+        <v>914</v>
       </c>
       <c r="G89" s="15" t="s">
-        <v>935</v>
+        <v>915</v>
       </c>
       <c r="H89" s="15" t="s">
-        <v>936</v>
+        <v>916</v>
       </c>
       <c r="I89" s="15"/>
       <c r="J89" s="15" t="s">
-        <v>937</v>
+        <v>917</v>
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B90" s="15" t="s">
-        <v>938</v>
+        <v>918</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>939</v>
+        <v>919</v>
       </c>
       <c r="D90" s="15"/>
       <c r="E90" s="15" t="s">
-        <v>940</v>
+        <v>920</v>
       </c>
       <c r="G90" s="15" t="s">
-        <v>941</v>
+        <v>921</v>
       </c>
       <c r="H90" s="15" t="s">
-        <v>942</v>
+        <v>922</v>
       </c>
       <c r="I90" s="15"/>
       <c r="J90" s="15" t="s">
-        <v>943</v>
+        <v>923</v>
       </c>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B91" s="15" t="s">
-        <v>944</v>
+        <v>924</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>945</v>
+        <v>925</v>
       </c>
       <c r="D91" s="15"/>
       <c r="E91" s="15" t="s">
-        <v>946</v>
+        <v>926</v>
       </c>
       <c r="G91" s="15" t="s">
-        <v>947</v>
+        <v>927</v>
       </c>
       <c r="H91" s="15" t="s">
-        <v>948</v>
+        <v>928</v>
       </c>
       <c r="I91" s="15"/>
       <c r="J91" s="15" t="s">
-        <v>949</v>
+        <v>929</v>
       </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B92" s="15" t="s">
+        <v>958</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>959</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>963</v>
+      </c>
+      <c r="E92" s="15" t="s">
+        <v>960</v>
+      </c>
+      <c r="G92" s="15" t="s">
         <v>978</v>
       </c>
-      <c r="C92" s="15" t="s">
+      <c r="H92" s="15" t="s">
         <v>979</v>
       </c>
-      <c r="D92" s="13" t="s">
-        <v>983</v>
-      </c>
-      <c r="E92" s="15" t="s">
-        <v>980</v>
-      </c>
-      <c r="G92" s="15" t="s">
-        <v>998</v>
-      </c>
-      <c r="H92" s="15" t="s">
-        <v>999</v>
-      </c>
       <c r="I92" s="13" t="s">
-        <v>983</v>
+        <v>963</v>
       </c>
       <c r="J92" s="15" t="s">
-        <v>1002</v>
+        <v>982</v>
       </c>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B93" s="18" t="s">
-        <v>981</v>
+        <v>961</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>982</v>
+        <v>962</v>
       </c>
       <c r="D93" s="19"/>
       <c r="E93" s="18" t="s">
-        <v>984</v>
-      </c>
-      <c r="G93" s="18" t="s">
-        <v>1000</v>
-      </c>
-      <c r="H93" s="18" t="s">
-        <v>1001</v>
-      </c>
-      <c r="I93" s="19"/>
-      <c r="J93" s="18" t="s">
-        <v>1003</v>
+        <v>964</v>
+      </c>
+      <c r="G93" s="23" t="s">
+        <v>980</v>
+      </c>
+      <c r="H93" s="23" t="s">
+        <v>981</v>
+      </c>
+      <c r="I93" s="24"/>
+      <c r="J93" s="23" t="s">
+        <v>983</v>
       </c>
     </row>
   </sheetData>

--- a/doc/realmGrinder.xlsx
+++ b/doc/realmGrinder.xlsx
@@ -3103,7 +3103,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3170,18 +3170,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor rgb="FFFDEADA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3195,7 +3183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -3229,8 +3217,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4858,7 +4844,7 @@
   <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5454,7 +5440,7 @@
       <c r="A56">
         <v>41</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="22" t="s">
         <v>1007</v>
       </c>
       <c r="C56" t="s">
@@ -5504,8 +5490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T70"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6289,7 +6275,7 @@
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="13" t="s">
         <v>407</v>
       </c>
       <c r="C68" t="s">
@@ -6328,8 +6314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G76" sqref="G76"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7178,16 +7164,16 @@
       <c r="E30" s="15" t="s">
         <v>948</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="15" t="s">
         <v>966</v>
       </c>
-      <c r="H30" s="18" t="s">
+      <c r="H30" s="15" t="s">
         <v>967</v>
       </c>
-      <c r="I30" s="18" t="s">
+      <c r="I30" s="15" t="s">
         <v>963</v>
       </c>
-      <c r="J30" s="18" t="s">
+      <c r="J30" s="15" t="s">
         <v>968</v>
       </c>
       <c r="M30" s="21"/>
@@ -7204,14 +7190,14 @@
       <c r="E31" s="18" t="s">
         <v>951</v>
       </c>
-      <c r="G31" s="18" t="s">
+      <c r="G31" s="15" t="s">
         <v>969</v>
       </c>
-      <c r="H31" s="18" t="s">
+      <c r="H31" s="15" t="s">
         <v>970</v>
       </c>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18" t="s">
+      <c r="I31" s="15"/>
+      <c r="J31" s="15" t="s">
         <v>971</v>
       </c>
       <c r="M31" s="21"/>
@@ -8724,14 +8710,14 @@
       <c r="E93" s="18" t="s">
         <v>964</v>
       </c>
-      <c r="G93" s="23" t="s">
+      <c r="G93" s="15" t="s">
         <v>980</v>
       </c>
-      <c r="H93" s="23" t="s">
+      <c r="H93" s="15" t="s">
         <v>981</v>
       </c>
-      <c r="I93" s="24"/>
-      <c r="J93" s="23" t="s">
+      <c r="I93" s="13"/>
+      <c r="J93" s="15" t="s">
         <v>983</v>
       </c>
     </row>
